--- a/data/raw_data/DS_Counting_trials.xlsx
+++ b/data/raw_data/DS_Counting_trials.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rodenico/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rodenico/Documents/Pro/Articles/2023_LarvCount/Y2023.LarvCount/data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4961DF-EE3E-D641-B689-3E0B5F783F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFD54FA-B6B0-8244-9ED6-6C2454ABC2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ObserverCountData" sheetId="1" r:id="rId1"/>
     <sheet name="TrueCounts" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ObserverCountData!$A$1:$G$601</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ObserverCountData!$A$1:$F$601</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,10 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="13">
-  <si>
-    <t>Person ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="12">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -55,9 +52,6 @@
     <t>Time_Sec</t>
   </si>
   <si>
-    <t>Error_ref</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -68,6 +62,9 @@
   </si>
   <si>
     <t>Larvae_counts</t>
+  </si>
+  <si>
+    <t>Person_ID</t>
   </si>
 </sst>
 </file>
@@ -385,11 +382,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G601"/>
+  <dimension ref="A1:F601"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -398,38 +395,35 @@
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -441,15 +435,15 @@
         <v>48.14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -461,15 +455,15 @@
         <v>28.78</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -481,15 +475,15 @@
         <v>13.26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -501,15 +495,15 @@
         <v>18.420000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -521,15 +515,15 @@
         <v>48.73</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -541,15 +535,15 @@
         <v>5.23</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -561,15 +555,15 @@
         <v>8.34</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -581,15 +575,15 @@
         <v>21.22</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -601,15 +595,15 @@
         <v>56.78</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -621,15 +615,15 @@
         <v>45.99</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -641,15 +635,15 @@
         <v>28.76</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -661,15 +655,15 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -681,15 +675,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -701,15 +695,15 @@
         <v>28.64</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -726,10 +720,10 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -746,10 +740,10 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -766,10 +760,10 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -786,10 +780,10 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -806,10 +800,10 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -826,10 +820,10 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -846,10 +840,10 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -866,10 +860,10 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -886,10 +880,10 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -906,10 +900,10 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -926,10 +920,10 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -946,10 +940,10 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -966,10 +960,10 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -986,10 +980,10 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -1006,10 +1000,10 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -1026,10 +1020,10 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -1046,10 +1040,10 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -1066,10 +1060,10 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -1086,10 +1080,10 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -1106,10 +1100,10 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -1126,10 +1120,10 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -1146,10 +1140,10 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -1166,10 +1160,10 @@
         <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -1186,10 +1180,10 @@
         <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -1206,10 +1200,10 @@
         <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -1226,10 +1220,10 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D42">
         <v>3</v>
@@ -1246,10 +1240,10 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D43">
         <v>3</v>
@@ -1266,10 +1260,10 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D44">
         <v>3</v>
@@ -1286,10 +1280,10 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D45">
         <v>3</v>
@@ -1306,10 +1300,10 @@
         <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D46">
         <v>3</v>
@@ -1326,10 +1320,10 @@
         <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D47">
         <v>3</v>
@@ -1346,10 +1340,10 @@
         <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D48">
         <v>3</v>
@@ -1366,10 +1360,10 @@
         <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D49">
         <v>3</v>
@@ -1386,10 +1380,10 @@
         <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D50">
         <v>3</v>
@@ -1406,10 +1400,10 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D51">
         <v>3</v>
@@ -1426,10 +1420,10 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D52">
         <v>3</v>
@@ -1446,10 +1440,10 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D53">
         <v>3</v>
@@ -1466,10 +1460,10 @@
         <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D54">
         <v>3</v>
@@ -1486,10 +1480,10 @@
         <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D55">
         <v>3</v>
@@ -1506,10 +1500,10 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D56">
         <v>3</v>
@@ -1526,10 +1520,10 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D57">
         <v>3</v>
@@ -1546,10 +1540,10 @@
         <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D58">
         <v>3</v>
@@ -1566,10 +1560,10 @@
         <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D59">
         <v>3</v>
@@ -1586,10 +1580,10 @@
         <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D60">
         <v>3</v>
@@ -1606,10 +1600,10 @@
         <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D61">
         <v>3</v>
@@ -1626,10 +1620,10 @@
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D62">
         <v>4</v>
@@ -1646,10 +1640,10 @@
         <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D63">
         <v>4</v>
@@ -1666,10 +1660,10 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D64">
         <v>4</v>
@@ -1686,10 +1680,10 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D65">
         <v>4</v>
@@ -1706,10 +1700,10 @@
         <v>3</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D66">
         <v>4</v>
@@ -1726,10 +1720,10 @@
         <v>3</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D67">
         <v>4</v>
@@ -1746,10 +1740,10 @@
         <v>4</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D68">
         <v>4</v>
@@ -1766,10 +1760,10 @@
         <v>4</v>
       </c>
       <c r="B69" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D69">
         <v>4</v>
@@ -1786,10 +1780,10 @@
         <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D70">
         <v>4</v>
@@ -1806,10 +1800,10 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D71">
         <v>4</v>
@@ -1826,10 +1820,10 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D72">
         <v>4</v>
@@ -1846,10 +1840,10 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D73">
         <v>4</v>
@@ -1866,10 +1860,10 @@
         <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D74">
         <v>4</v>
@@ -1886,10 +1880,10 @@
         <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D75">
         <v>4</v>
@@ -1906,10 +1900,10 @@
         <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D76">
         <v>4</v>
@@ -1926,10 +1920,10 @@
         <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D77">
         <v>4</v>
@@ -1946,10 +1940,10 @@
         <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D78">
         <v>4</v>
@@ -1966,10 +1960,10 @@
         <v>9</v>
       </c>
       <c r="B79" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D79">
         <v>4</v>
@@ -1986,10 +1980,10 @@
         <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D80">
         <v>4</v>
@@ -2006,10 +2000,10 @@
         <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D81">
         <v>4</v>
@@ -2026,10 +2020,10 @@
         <v>1</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D82">
         <v>5</v>
@@ -2046,10 +2040,10 @@
         <v>1</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D83">
         <v>5</v>
@@ -2066,10 +2060,10 @@
         <v>2</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D84">
         <v>5</v>
@@ -2086,10 +2080,10 @@
         <v>2</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D85">
         <v>5</v>
@@ -2106,10 +2100,10 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D86">
         <v>5</v>
@@ -2126,10 +2120,10 @@
         <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D87">
         <v>5</v>
@@ -2146,10 +2140,10 @@
         <v>4</v>
       </c>
       <c r="B88" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D88">
         <v>5</v>
@@ -2166,10 +2160,10 @@
         <v>4</v>
       </c>
       <c r="B89" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D89">
         <v>5</v>
@@ -2186,10 +2180,10 @@
         <v>5</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D90">
         <v>5</v>
@@ -2206,10 +2200,10 @@
         <v>5</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D91">
         <v>5</v>
@@ -2226,10 +2220,10 @@
         <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C92" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D92">
         <v>5</v>
@@ -2246,10 +2240,10 @@
         <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D93">
         <v>5</v>
@@ -2266,10 +2260,10 @@
         <v>7</v>
       </c>
       <c r="B94" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D94">
         <v>5</v>
@@ -2286,10 +2280,10 @@
         <v>7</v>
       </c>
       <c r="B95" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D95">
         <v>5</v>
@@ -2306,10 +2300,10 @@
         <v>8</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D96">
         <v>5</v>
@@ -2326,10 +2320,10 @@
         <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D97">
         <v>5</v>
@@ -2346,10 +2340,10 @@
         <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D98">
         <v>5</v>
@@ -2366,10 +2360,10 @@
         <v>9</v>
       </c>
       <c r="B99" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D99">
         <v>5</v>
@@ -2386,10 +2380,10 @@
         <v>10</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D100">
         <v>5</v>
@@ -2406,10 +2400,10 @@
         <v>10</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D101">
         <v>5</v>
@@ -2426,10 +2420,10 @@
         <v>1</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C102" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D102">
         <v>6</v>
@@ -2446,10 +2440,10 @@
         <v>1</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D103">
         <v>6</v>
@@ -2466,10 +2460,10 @@
         <v>2</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C104" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D104">
         <v>6</v>
@@ -2486,10 +2480,10 @@
         <v>2</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D105">
         <v>6</v>
@@ -2506,10 +2500,10 @@
         <v>3</v>
       </c>
       <c r="B106" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D106">
         <v>6</v>
@@ -2526,10 +2520,10 @@
         <v>3</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D107">
         <v>6</v>
@@ -2546,10 +2540,10 @@
         <v>4</v>
       </c>
       <c r="B108" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D108">
         <v>6</v>
@@ -2566,10 +2560,10 @@
         <v>4</v>
       </c>
       <c r="B109" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D109">
         <v>6</v>
@@ -2586,10 +2580,10 @@
         <v>5</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C110" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D110">
         <v>6</v>
@@ -2606,10 +2600,10 @@
         <v>5</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D111">
         <v>6</v>
@@ -2626,10 +2620,10 @@
         <v>6</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C112" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D112">
         <v>6</v>
@@ -2646,10 +2640,10 @@
         <v>6</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D113">
         <v>6</v>
@@ -2666,10 +2660,10 @@
         <v>7</v>
       </c>
       <c r="B114" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D114">
         <v>6</v>
@@ -2686,10 +2680,10 @@
         <v>7</v>
       </c>
       <c r="B115" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D115">
         <v>6</v>
@@ -2706,10 +2700,10 @@
         <v>8</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C116" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D116">
         <v>6</v>
@@ -2726,10 +2720,10 @@
         <v>8</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D117">
         <v>6</v>
@@ -2746,10 +2740,10 @@
         <v>9</v>
       </c>
       <c r="B118" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D118">
         <v>6</v>
@@ -2766,10 +2760,10 @@
         <v>9</v>
       </c>
       <c r="B119" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D119">
         <v>6</v>
@@ -2786,10 +2780,10 @@
         <v>10</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C120" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D120">
         <v>6</v>
@@ -2806,10 +2800,10 @@
         <v>10</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D121">
         <v>6</v>
@@ -2826,10 +2820,10 @@
         <v>1</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C122" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D122">
         <v>7</v>
@@ -2846,10 +2840,10 @@
         <v>1</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D123">
         <v>7</v>
@@ -2866,10 +2860,10 @@
         <v>2</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C124" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D124">
         <v>7</v>
@@ -2886,10 +2880,10 @@
         <v>2</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D125">
         <v>7</v>
@@ -2906,10 +2900,10 @@
         <v>3</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C126" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D126">
         <v>7</v>
@@ -2926,10 +2920,10 @@
         <v>3</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D127">
         <v>7</v>
@@ -2946,10 +2940,10 @@
         <v>4</v>
       </c>
       <c r="B128" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D128">
         <v>7</v>
@@ -2966,10 +2960,10 @@
         <v>4</v>
       </c>
       <c r="B129" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D129">
         <v>7</v>
@@ -2986,10 +2980,10 @@
         <v>5</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C130" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D130">
         <v>7</v>
@@ -3006,10 +3000,10 @@
         <v>5</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D131">
         <v>7</v>
@@ -3026,10 +3020,10 @@
         <v>6</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C132" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D132">
         <v>7</v>
@@ -3046,10 +3040,10 @@
         <v>6</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D133">
         <v>7</v>
@@ -3066,10 +3060,10 @@
         <v>7</v>
       </c>
       <c r="B134" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D134">
         <v>7</v>
@@ -3086,10 +3080,10 @@
         <v>7</v>
       </c>
       <c r="B135" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D135">
         <v>7</v>
@@ -3106,10 +3100,10 @@
         <v>8</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C136" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D136">
         <v>7</v>
@@ -3126,10 +3120,10 @@
         <v>8</v>
       </c>
       <c r="B137" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D137">
         <v>7</v>
@@ -3146,10 +3140,10 @@
         <v>9</v>
       </c>
       <c r="B138" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D138">
         <v>7</v>
@@ -3166,10 +3160,10 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D139">
         <v>7</v>
@@ -3186,10 +3180,10 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C140" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D140">
         <v>7</v>
@@ -3206,10 +3200,10 @@
         <v>10</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D141">
         <v>7</v>
@@ -3226,10 +3220,10 @@
         <v>1</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C142" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D142">
         <v>8</v>
@@ -3246,10 +3240,10 @@
         <v>1</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D143">
         <v>8</v>
@@ -3266,10 +3260,10 @@
         <v>2</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C144" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D144">
         <v>8</v>
@@ -3286,10 +3280,10 @@
         <v>2</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D145">
         <v>8</v>
@@ -3306,10 +3300,10 @@
         <v>3</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C146" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D146">
         <v>8</v>
@@ -3326,10 +3320,10 @@
         <v>3</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D147">
         <v>8</v>
@@ -3346,10 +3340,10 @@
         <v>4</v>
       </c>
       <c r="B148" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D148">
         <v>8</v>
@@ -3366,10 +3360,10 @@
         <v>4</v>
       </c>
       <c r="B149" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D149">
         <v>8</v>
@@ -3386,10 +3380,10 @@
         <v>5</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C150" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D150">
         <v>8</v>
@@ -3406,10 +3400,10 @@
         <v>5</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D151">
         <v>8</v>
@@ -3426,10 +3420,10 @@
         <v>6</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C152" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D152">
         <v>8</v>
@@ -3446,10 +3440,10 @@
         <v>6</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D153">
         <v>8</v>
@@ -3466,10 +3460,10 @@
         <v>7</v>
       </c>
       <c r="B154" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D154">
         <v>8</v>
@@ -3486,10 +3480,10 @@
         <v>7</v>
       </c>
       <c r="B155" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D155">
         <v>8</v>
@@ -3506,10 +3500,10 @@
         <v>8</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C156" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D156">
         <v>8</v>
@@ -3526,10 +3520,10 @@
         <v>8</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D157">
         <v>8</v>
@@ -3546,10 +3540,10 @@
         <v>9</v>
       </c>
       <c r="B158" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D158">
         <v>8</v>
@@ -3566,10 +3560,10 @@
         <v>9</v>
       </c>
       <c r="B159" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D159">
         <v>8</v>
@@ -3586,10 +3580,10 @@
         <v>10</v>
       </c>
       <c r="B160" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C160" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D160">
         <v>8</v>
@@ -3606,10 +3600,10 @@
         <v>10</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D161">
         <v>8</v>
@@ -3626,10 +3620,10 @@
         <v>1</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C162" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D162">
         <v>9</v>
@@ -3646,10 +3640,10 @@
         <v>1</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D163">
         <v>9</v>
@@ -3666,10 +3660,10 @@
         <v>2</v>
       </c>
       <c r="B164" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C164" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D164">
         <v>9</v>
@@ -3686,10 +3680,10 @@
         <v>2</v>
       </c>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D165">
         <v>9</v>
@@ -3706,10 +3700,10 @@
         <v>3</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C166" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D166">
         <v>9</v>
@@ -3726,10 +3720,10 @@
         <v>3</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D167">
         <v>9</v>
@@ -3746,10 +3740,10 @@
         <v>4</v>
       </c>
       <c r="B168" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D168">
         <v>9</v>
@@ -3766,10 +3760,10 @@
         <v>4</v>
       </c>
       <c r="B169" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D169">
         <v>9</v>
@@ -3786,10 +3780,10 @@
         <v>5</v>
       </c>
       <c r="B170" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C170" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D170">
         <v>9</v>
@@ -3806,10 +3800,10 @@
         <v>5</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D171">
         <v>9</v>
@@ -3826,10 +3820,10 @@
         <v>6</v>
       </c>
       <c r="B172" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C172" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D172">
         <v>9</v>
@@ -3846,10 +3840,10 @@
         <v>6</v>
       </c>
       <c r="B173" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D173">
         <v>9</v>
@@ -3866,10 +3860,10 @@
         <v>7</v>
       </c>
       <c r="B174" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D174">
         <v>9</v>
@@ -3886,10 +3880,10 @@
         <v>7</v>
       </c>
       <c r="B175" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D175">
         <v>9</v>
@@ -3906,10 +3900,10 @@
         <v>8</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C176" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D176">
         <v>9</v>
@@ -3926,10 +3920,10 @@
         <v>8</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D177">
         <v>9</v>
@@ -3946,10 +3940,10 @@
         <v>9</v>
       </c>
       <c r="B178" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D178">
         <v>9</v>
@@ -3966,10 +3960,10 @@
         <v>9</v>
       </c>
       <c r="B179" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D179">
         <v>9</v>
@@ -3986,10 +3980,10 @@
         <v>10</v>
       </c>
       <c r="B180" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C180" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D180">
         <v>9</v>
@@ -4006,10 +4000,10 @@
         <v>10</v>
       </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D181">
         <v>9</v>
@@ -4026,10 +4020,10 @@
         <v>1</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C182" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D182">
         <v>10</v>
@@ -4046,10 +4040,10 @@
         <v>1</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D183">
         <v>10</v>
@@ -4066,10 +4060,10 @@
         <v>2</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C184" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D184">
         <v>10</v>
@@ -4086,10 +4080,10 @@
         <v>2</v>
       </c>
       <c r="B185" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D185">
         <v>10</v>
@@ -4106,10 +4100,10 @@
         <v>3</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C186" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D186">
         <v>10</v>
@@ -4126,10 +4120,10 @@
         <v>3</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D187">
         <v>10</v>
@@ -4146,10 +4140,10 @@
         <v>4</v>
       </c>
       <c r="B188" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D188">
         <v>10</v>
@@ -4166,10 +4160,10 @@
         <v>4</v>
       </c>
       <c r="B189" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D189">
         <v>10</v>
@@ -4186,10 +4180,10 @@
         <v>5</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C190" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D190">
         <v>10</v>
@@ -4206,10 +4200,10 @@
         <v>5</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D191">
         <v>10</v>
@@ -4226,10 +4220,10 @@
         <v>6</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C192" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D192">
         <v>10</v>
@@ -4246,10 +4240,10 @@
         <v>6</v>
       </c>
       <c r="B193" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D193">
         <v>10</v>
@@ -4266,10 +4260,10 @@
         <v>7</v>
       </c>
       <c r="B194" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D194">
         <v>10</v>
@@ -4286,10 +4280,10 @@
         <v>7</v>
       </c>
       <c r="B195" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D195">
         <v>10</v>
@@ -4306,10 +4300,10 @@
         <v>8</v>
       </c>
       <c r="B196" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C196" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D196">
         <v>10</v>
@@ -4326,10 +4320,10 @@
         <v>8</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D197">
         <v>10</v>
@@ -4346,10 +4340,10 @@
         <v>9</v>
       </c>
       <c r="B198" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D198">
         <v>10</v>
@@ -4366,10 +4360,10 @@
         <v>9</v>
       </c>
       <c r="B199" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D199">
         <v>10</v>
@@ -4386,10 +4380,10 @@
         <v>10</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C200" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D200">
         <v>10</v>
@@ -4406,10 +4400,10 @@
         <v>10</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C201" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D201">
         <v>10</v>
@@ -4426,10 +4420,10 @@
         <v>1</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C202" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D202">
         <v>11</v>
@@ -4446,10 +4440,10 @@
         <v>1</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C203" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D203">
         <v>11</v>
@@ -4466,10 +4460,10 @@
         <v>2</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C204" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D204">
         <v>11</v>
@@ -4486,10 +4480,10 @@
         <v>2</v>
       </c>
       <c r="B205" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C205" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D205">
         <v>11</v>
@@ -4506,10 +4500,10 @@
         <v>3</v>
       </c>
       <c r="B206" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C206" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D206">
         <v>11</v>
@@ -4526,10 +4520,10 @@
         <v>3</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C207" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D207">
         <v>11</v>
@@ -4546,10 +4540,10 @@
         <v>4</v>
       </c>
       <c r="B208" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D208">
         <v>11</v>
@@ -4566,10 +4560,10 @@
         <v>4</v>
       </c>
       <c r="B209" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D209">
         <v>11</v>
@@ -4586,10 +4580,10 @@
         <v>5</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C210" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D210">
         <v>11</v>
@@ -4606,10 +4600,10 @@
         <v>5</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C211" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D211">
         <v>11</v>
@@ -4626,10 +4620,10 @@
         <v>6</v>
       </c>
       <c r="B212" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C212" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D212">
         <v>11</v>
@@ -4646,10 +4640,10 @@
         <v>6</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C213" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D213">
         <v>11</v>
@@ -4666,10 +4660,10 @@
         <v>7</v>
       </c>
       <c r="B214" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D214">
         <v>11</v>
@@ -4686,10 +4680,10 @@
         <v>7</v>
       </c>
       <c r="B215" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D215">
         <v>11</v>
@@ -4706,10 +4700,10 @@
         <v>8</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C216" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D216">
         <v>11</v>
@@ -4726,10 +4720,10 @@
         <v>8</v>
       </c>
       <c r="B217" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C217" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D217">
         <v>11</v>
@@ -4746,10 +4740,10 @@
         <v>9</v>
       </c>
       <c r="B218" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D218">
         <v>11</v>
@@ -4766,10 +4760,10 @@
         <v>9</v>
       </c>
       <c r="B219" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D219">
         <v>11</v>
@@ -4786,10 +4780,10 @@
         <v>10</v>
       </c>
       <c r="B220" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C220" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D220">
         <v>11</v>
@@ -4806,10 +4800,10 @@
         <v>10</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C221" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D221">
         <v>11</v>
@@ -4826,10 +4820,10 @@
         <v>1</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C222" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D222">
         <v>12</v>
@@ -4846,10 +4840,10 @@
         <v>1</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C223" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D223">
         <v>12</v>
@@ -4866,10 +4860,10 @@
         <v>2</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C224" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D224">
         <v>12</v>
@@ -4886,10 +4880,10 @@
         <v>2</v>
       </c>
       <c r="B225" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C225" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D225">
         <v>12</v>
@@ -4906,10 +4900,10 @@
         <v>3</v>
       </c>
       <c r="B226" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C226" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D226">
         <v>12</v>
@@ -4926,10 +4920,10 @@
         <v>3</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C227" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D227">
         <v>12</v>
@@ -4946,10 +4940,10 @@
         <v>4</v>
       </c>
       <c r="B228" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D228">
         <v>12</v>
@@ -4966,10 +4960,10 @@
         <v>4</v>
       </c>
       <c r="B229" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D229">
         <v>12</v>
@@ -4986,10 +4980,10 @@
         <v>5</v>
       </c>
       <c r="B230" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C230" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D230">
         <v>12</v>
@@ -5006,10 +5000,10 @@
         <v>5</v>
       </c>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C231" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D231">
         <v>12</v>
@@ -5026,10 +5020,10 @@
         <v>6</v>
       </c>
       <c r="B232" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C232" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D232">
         <v>12</v>
@@ -5046,10 +5040,10 @@
         <v>6</v>
       </c>
       <c r="B233" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C233" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D233">
         <v>12</v>
@@ -5066,10 +5060,10 @@
         <v>7</v>
       </c>
       <c r="B234" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D234">
         <v>12</v>
@@ -5086,10 +5080,10 @@
         <v>7</v>
       </c>
       <c r="B235" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D235">
         <v>12</v>
@@ -5106,10 +5100,10 @@
         <v>8</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C236" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D236">
         <v>12</v>
@@ -5126,10 +5120,10 @@
         <v>8</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C237" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D237">
         <v>12</v>
@@ -5146,10 +5140,10 @@
         <v>9</v>
       </c>
       <c r="B238" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D238">
         <v>12</v>
@@ -5166,10 +5160,10 @@
         <v>9</v>
       </c>
       <c r="B239" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C239" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D239">
         <v>12</v>
@@ -5186,10 +5180,10 @@
         <v>10</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C240" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D240">
         <v>12</v>
@@ -5206,10 +5200,10 @@
         <v>10</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C241" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D241">
         <v>12</v>
@@ -5226,10 +5220,10 @@
         <v>1</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C242" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D242">
         <v>13</v>
@@ -5246,10 +5240,10 @@
         <v>1</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C243" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D243">
         <v>13</v>
@@ -5266,10 +5260,10 @@
         <v>2</v>
       </c>
       <c r="B244" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C244" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D244">
         <v>13</v>
@@ -5286,10 +5280,10 @@
         <v>2</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C245" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D245">
         <v>13</v>
@@ -5306,10 +5300,10 @@
         <v>3</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C246" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D246">
         <v>13</v>
@@ -5326,10 +5320,10 @@
         <v>3</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C247" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D247">
         <v>13</v>
@@ -5346,10 +5340,10 @@
         <v>4</v>
       </c>
       <c r="B248" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C248" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D248">
         <v>13</v>
@@ -5366,10 +5360,10 @@
         <v>4</v>
       </c>
       <c r="B249" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C249" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D249">
         <v>13</v>
@@ -5386,10 +5380,10 @@
         <v>5</v>
       </c>
       <c r="B250" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C250" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D250">
         <v>13</v>
@@ -5406,10 +5400,10 @@
         <v>5</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C251" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D251">
         <v>13</v>
@@ -5426,10 +5420,10 @@
         <v>6</v>
       </c>
       <c r="B252" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C252" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D252">
         <v>13</v>
@@ -5446,10 +5440,10 @@
         <v>6</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C253" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D253">
         <v>13</v>
@@ -5466,10 +5460,10 @@
         <v>7</v>
       </c>
       <c r="B254" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C254" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D254">
         <v>13</v>
@@ -5486,10 +5480,10 @@
         <v>7</v>
       </c>
       <c r="B255" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C255" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D255">
         <v>13</v>
@@ -5506,10 +5500,10 @@
         <v>8</v>
       </c>
       <c r="B256" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C256" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D256">
         <v>13</v>
@@ -5526,10 +5520,10 @@
         <v>8</v>
       </c>
       <c r="B257" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C257" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D257">
         <v>13</v>
@@ -5546,10 +5540,10 @@
         <v>9</v>
       </c>
       <c r="B258" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C258" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D258">
         <v>13</v>
@@ -5566,10 +5560,10 @@
         <v>9</v>
       </c>
       <c r="B259" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C259" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D259">
         <v>13</v>
@@ -5586,10 +5580,10 @@
         <v>10</v>
       </c>
       <c r="B260" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C260" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D260">
         <v>13</v>
@@ -5606,10 +5600,10 @@
         <v>10</v>
       </c>
       <c r="B261" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C261" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D261">
         <v>13</v>
@@ -5626,10 +5620,10 @@
         <v>1</v>
       </c>
       <c r="B262" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C262" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D262">
         <v>14</v>
@@ -5646,10 +5640,10 @@
         <v>1</v>
       </c>
       <c r="B263" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C263" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D263">
         <v>14</v>
@@ -5666,10 +5660,10 @@
         <v>2</v>
       </c>
       <c r="B264" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C264" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D264">
         <v>14</v>
@@ -5686,10 +5680,10 @@
         <v>2</v>
       </c>
       <c r="B265" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C265" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D265">
         <v>14</v>
@@ -5706,10 +5700,10 @@
         <v>3</v>
       </c>
       <c r="B266" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C266" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D266">
         <v>14</v>
@@ -5726,10 +5720,10 @@
         <v>3</v>
       </c>
       <c r="B267" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C267" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D267">
         <v>14</v>
@@ -5746,10 +5740,10 @@
         <v>4</v>
       </c>
       <c r="B268" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C268" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D268">
         <v>14</v>
@@ -5766,10 +5760,10 @@
         <v>4</v>
       </c>
       <c r="B269" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C269" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D269">
         <v>14</v>
@@ -5786,10 +5780,10 @@
         <v>5</v>
       </c>
       <c r="B270" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C270" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D270">
         <v>14</v>
@@ -5806,10 +5800,10 @@
         <v>5</v>
       </c>
       <c r="B271" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C271" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D271">
         <v>14</v>
@@ -5826,10 +5820,10 @@
         <v>6</v>
       </c>
       <c r="B272" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C272" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D272">
         <v>14</v>
@@ -5846,10 +5840,10 @@
         <v>6</v>
       </c>
       <c r="B273" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C273" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D273">
         <v>14</v>
@@ -5866,10 +5860,10 @@
         <v>7</v>
       </c>
       <c r="B274" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C274" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D274">
         <v>14</v>
@@ -5886,10 +5880,10 @@
         <v>7</v>
       </c>
       <c r="B275" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C275" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D275">
         <v>14</v>
@@ -5906,10 +5900,10 @@
         <v>8</v>
       </c>
       <c r="B276" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C276" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D276">
         <v>14</v>
@@ -5926,10 +5920,10 @@
         <v>8</v>
       </c>
       <c r="B277" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C277" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D277">
         <v>14</v>
@@ -5946,10 +5940,10 @@
         <v>9</v>
       </c>
       <c r="B278" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C278" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D278">
         <v>14</v>
@@ -5966,10 +5960,10 @@
         <v>9</v>
       </c>
       <c r="B279" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C279" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D279">
         <v>14</v>
@@ -5986,10 +5980,10 @@
         <v>10</v>
       </c>
       <c r="B280" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C280" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D280">
         <v>14</v>
@@ -6006,10 +6000,10 @@
         <v>10</v>
       </c>
       <c r="B281" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C281" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D281">
         <v>14</v>
@@ -6026,10 +6020,10 @@
         <v>1</v>
       </c>
       <c r="B282" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C282" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D282">
         <v>15</v>
@@ -6046,10 +6040,10 @@
         <v>1</v>
       </c>
       <c r="B283" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C283" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D283">
         <v>15</v>
@@ -6066,10 +6060,10 @@
         <v>2</v>
       </c>
       <c r="B284" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C284" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D284">
         <v>15</v>
@@ -6086,10 +6080,10 @@
         <v>2</v>
       </c>
       <c r="B285" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C285" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D285">
         <v>15</v>
@@ -6106,10 +6100,10 @@
         <v>3</v>
       </c>
       <c r="B286" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C286" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D286">
         <v>15</v>
@@ -6126,10 +6120,10 @@
         <v>3</v>
       </c>
       <c r="B287" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C287" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D287">
         <v>15</v>
@@ -6146,10 +6140,10 @@
         <v>4</v>
       </c>
       <c r="B288" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C288" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D288">
         <v>15</v>
@@ -6166,10 +6160,10 @@
         <v>4</v>
       </c>
       <c r="B289" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C289" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D289">
         <v>15</v>
@@ -6186,10 +6180,10 @@
         <v>5</v>
       </c>
       <c r="B290" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C290" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D290">
         <v>15</v>
@@ -6206,10 +6200,10 @@
         <v>5</v>
       </c>
       <c r="B291" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C291" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D291">
         <v>15</v>
@@ -6226,10 +6220,10 @@
         <v>6</v>
       </c>
       <c r="B292" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C292" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D292">
         <v>15</v>
@@ -6246,10 +6240,10 @@
         <v>6</v>
       </c>
       <c r="B293" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C293" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D293">
         <v>15</v>
@@ -6266,10 +6260,10 @@
         <v>7</v>
       </c>
       <c r="B294" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C294" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D294">
         <v>15</v>
@@ -6286,10 +6280,10 @@
         <v>7</v>
       </c>
       <c r="B295" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C295" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D295">
         <v>15</v>
@@ -6306,10 +6300,10 @@
         <v>8</v>
       </c>
       <c r="B296" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C296" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D296">
         <v>15</v>
@@ -6326,10 +6320,10 @@
         <v>8</v>
       </c>
       <c r="B297" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C297" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D297">
         <v>15</v>
@@ -6346,10 +6340,10 @@
         <v>9</v>
       </c>
       <c r="B298" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C298" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D298">
         <v>15</v>
@@ -6366,10 +6360,10 @@
         <v>9</v>
       </c>
       <c r="B299" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C299" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D299">
         <v>15</v>
@@ -6386,10 +6380,10 @@
         <v>10</v>
       </c>
       <c r="B300" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C300" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D300">
         <v>15</v>
@@ -6406,10 +6400,10 @@
         <v>10</v>
       </c>
       <c r="B301" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C301" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D301">
         <v>15</v>
@@ -6426,10 +6420,10 @@
         <v>1</v>
       </c>
       <c r="B302" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C302" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D302">
         <v>16</v>
@@ -6446,10 +6440,10 @@
         <v>1</v>
       </c>
       <c r="B303" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C303" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D303">
         <v>16</v>
@@ -6466,10 +6460,10 @@
         <v>2</v>
       </c>
       <c r="B304" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C304" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D304">
         <v>16</v>
@@ -6486,10 +6480,10 @@
         <v>2</v>
       </c>
       <c r="B305" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C305" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D305">
         <v>16</v>
@@ -6506,10 +6500,10 @@
         <v>3</v>
       </c>
       <c r="B306" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C306" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D306">
         <v>16</v>
@@ -6526,10 +6520,10 @@
         <v>3</v>
       </c>
       <c r="B307" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C307" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D307">
         <v>16</v>
@@ -6546,10 +6540,10 @@
         <v>4</v>
       </c>
       <c r="B308" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C308" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D308">
         <v>16</v>
@@ -6566,10 +6560,10 @@
         <v>4</v>
       </c>
       <c r="B309" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C309" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D309">
         <v>16</v>
@@ -6586,10 +6580,10 @@
         <v>5</v>
       </c>
       <c r="B310" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C310" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D310">
         <v>16</v>
@@ -6606,10 +6600,10 @@
         <v>5</v>
       </c>
       <c r="B311" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C311" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D311">
         <v>16</v>
@@ -6626,10 +6620,10 @@
         <v>6</v>
       </c>
       <c r="B312" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C312" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D312">
         <v>16</v>
@@ -6646,10 +6640,10 @@
         <v>6</v>
       </c>
       <c r="B313" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C313" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D313">
         <v>16</v>
@@ -6666,10 +6660,10 @@
         <v>7</v>
       </c>
       <c r="B314" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C314" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D314">
         <v>16</v>
@@ -6686,10 +6680,10 @@
         <v>7</v>
       </c>
       <c r="B315" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C315" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D315">
         <v>16</v>
@@ -6706,10 +6700,10 @@
         <v>8</v>
       </c>
       <c r="B316" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C316" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D316">
         <v>16</v>
@@ -6726,10 +6720,10 @@
         <v>8</v>
       </c>
       <c r="B317" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C317" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D317">
         <v>16</v>
@@ -6746,10 +6740,10 @@
         <v>9</v>
       </c>
       <c r="B318" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C318" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D318">
         <v>16</v>
@@ -6766,10 +6760,10 @@
         <v>9</v>
       </c>
       <c r="B319" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C319" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D319">
         <v>16</v>
@@ -6786,10 +6780,10 @@
         <v>10</v>
       </c>
       <c r="B320" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C320" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D320">
         <v>16</v>
@@ -6806,10 +6800,10 @@
         <v>10</v>
       </c>
       <c r="B321" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C321" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D321">
         <v>16</v>
@@ -6826,10 +6820,10 @@
         <v>1</v>
       </c>
       <c r="B322" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C322" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D322">
         <v>17</v>
@@ -6846,10 +6840,10 @@
         <v>1</v>
       </c>
       <c r="B323" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C323" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D323">
         <v>17</v>
@@ -6866,10 +6860,10 @@
         <v>2</v>
       </c>
       <c r="B324" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C324" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D324">
         <v>17</v>
@@ -6886,10 +6880,10 @@
         <v>2</v>
       </c>
       <c r="B325" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C325" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D325">
         <v>17</v>
@@ -6906,10 +6900,10 @@
         <v>3</v>
       </c>
       <c r="B326" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C326" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D326">
         <v>17</v>
@@ -6926,10 +6920,10 @@
         <v>3</v>
       </c>
       <c r="B327" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C327" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D327">
         <v>17</v>
@@ -6946,10 +6940,10 @@
         <v>4</v>
       </c>
       <c r="B328" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C328" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D328">
         <v>17</v>
@@ -6966,10 +6960,10 @@
         <v>4</v>
       </c>
       <c r="B329" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C329" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D329">
         <v>17</v>
@@ -6986,10 +6980,10 @@
         <v>5</v>
       </c>
       <c r="B330" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C330" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D330">
         <v>17</v>
@@ -7006,10 +7000,10 @@
         <v>5</v>
       </c>
       <c r="B331" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C331" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D331">
         <v>17</v>
@@ -7026,10 +7020,10 @@
         <v>6</v>
       </c>
       <c r="B332" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C332" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D332">
         <v>17</v>
@@ -7046,10 +7040,10 @@
         <v>6</v>
       </c>
       <c r="B333" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C333" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D333">
         <v>17</v>
@@ -7066,10 +7060,10 @@
         <v>7</v>
       </c>
       <c r="B334" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C334" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D334">
         <v>17</v>
@@ -7086,10 +7080,10 @@
         <v>7</v>
       </c>
       <c r="B335" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C335" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D335">
         <v>17</v>
@@ -7106,10 +7100,10 @@
         <v>8</v>
       </c>
       <c r="B336" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C336" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D336">
         <v>17</v>
@@ -7126,10 +7120,10 @@
         <v>8</v>
       </c>
       <c r="B337" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C337" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D337">
         <v>17</v>
@@ -7146,10 +7140,10 @@
         <v>9</v>
       </c>
       <c r="B338" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C338" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D338">
         <v>17</v>
@@ -7166,10 +7160,10 @@
         <v>9</v>
       </c>
       <c r="B339" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C339" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D339">
         <v>17</v>
@@ -7186,10 +7180,10 @@
         <v>10</v>
       </c>
       <c r="B340" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C340" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D340">
         <v>17</v>
@@ -7206,10 +7200,10 @@
         <v>10</v>
       </c>
       <c r="B341" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C341" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D341">
         <v>17</v>
@@ -7226,10 +7220,10 @@
         <v>1</v>
       </c>
       <c r="B342" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C342" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D342">
         <v>18</v>
@@ -7246,10 +7240,10 @@
         <v>1</v>
       </c>
       <c r="B343" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C343" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D343">
         <v>18</v>
@@ -7266,10 +7260,10 @@
         <v>2</v>
       </c>
       <c r="B344" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C344" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D344">
         <v>18</v>
@@ -7286,10 +7280,10 @@
         <v>2</v>
       </c>
       <c r="B345" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C345" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D345">
         <v>18</v>
@@ -7306,10 +7300,10 @@
         <v>3</v>
       </c>
       <c r="B346" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C346" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D346">
         <v>18</v>
@@ -7326,10 +7320,10 @@
         <v>3</v>
       </c>
       <c r="B347" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C347" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D347">
         <v>18</v>
@@ -7346,10 +7340,10 @@
         <v>4</v>
       </c>
       <c r="B348" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C348" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D348">
         <v>18</v>
@@ -7366,10 +7360,10 @@
         <v>4</v>
       </c>
       <c r="B349" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C349" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D349">
         <v>18</v>
@@ -7386,10 +7380,10 @@
         <v>5</v>
       </c>
       <c r="B350" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C350" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D350">
         <v>18</v>
@@ -7406,10 +7400,10 @@
         <v>5</v>
       </c>
       <c r="B351" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C351" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D351">
         <v>18</v>
@@ -7426,10 +7420,10 @@
         <v>6</v>
       </c>
       <c r="B352" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C352" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D352">
         <v>18</v>
@@ -7446,10 +7440,10 @@
         <v>6</v>
       </c>
       <c r="B353" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C353" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D353">
         <v>18</v>
@@ -7466,10 +7460,10 @@
         <v>7</v>
       </c>
       <c r="B354" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C354" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D354">
         <v>18</v>
@@ -7486,10 +7480,10 @@
         <v>7</v>
       </c>
       <c r="B355" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C355" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D355">
         <v>18</v>
@@ -7506,10 +7500,10 @@
         <v>8</v>
       </c>
       <c r="B356" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C356" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D356">
         <v>18</v>
@@ -7526,10 +7520,10 @@
         <v>8</v>
       </c>
       <c r="B357" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C357" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D357">
         <v>18</v>
@@ -7546,10 +7540,10 @@
         <v>9</v>
       </c>
       <c r="B358" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C358" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D358">
         <v>18</v>
@@ -7566,10 +7560,10 @@
         <v>9</v>
       </c>
       <c r="B359" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C359" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D359">
         <v>18</v>
@@ -7586,10 +7580,10 @@
         <v>10</v>
       </c>
       <c r="B360" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C360" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D360">
         <v>18</v>
@@ -7606,10 +7600,10 @@
         <v>10</v>
       </c>
       <c r="B361" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C361" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D361">
         <v>18</v>
@@ -7626,10 +7620,10 @@
         <v>1</v>
       </c>
       <c r="B362" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C362" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D362">
         <v>19</v>
@@ -7646,10 +7640,10 @@
         <v>1</v>
       </c>
       <c r="B363" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C363" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D363">
         <v>19</v>
@@ -7666,10 +7660,10 @@
         <v>2</v>
       </c>
       <c r="B364" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C364" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D364">
         <v>19</v>
@@ -7686,10 +7680,10 @@
         <v>2</v>
       </c>
       <c r="B365" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C365" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D365">
         <v>19</v>
@@ -7706,10 +7700,10 @@
         <v>3</v>
       </c>
       <c r="B366" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C366" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D366">
         <v>19</v>
@@ -7726,10 +7720,10 @@
         <v>3</v>
       </c>
       <c r="B367" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C367" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D367">
         <v>19</v>
@@ -7746,10 +7740,10 @@
         <v>4</v>
       </c>
       <c r="B368" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C368" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D368">
         <v>19</v>
@@ -7766,10 +7760,10 @@
         <v>4</v>
       </c>
       <c r="B369" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C369" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D369">
         <v>19</v>
@@ -7786,10 +7780,10 @@
         <v>5</v>
       </c>
       <c r="B370" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C370" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D370">
         <v>19</v>
@@ -7806,10 +7800,10 @@
         <v>5</v>
       </c>
       <c r="B371" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C371" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D371">
         <v>19</v>
@@ -7826,10 +7820,10 @@
         <v>6</v>
       </c>
       <c r="B372" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C372" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D372">
         <v>19</v>
@@ -7846,10 +7840,10 @@
         <v>6</v>
       </c>
       <c r="B373" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C373" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D373">
         <v>19</v>
@@ -7866,10 +7860,10 @@
         <v>7</v>
       </c>
       <c r="B374" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C374" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D374">
         <v>19</v>
@@ -7886,10 +7880,10 @@
         <v>7</v>
       </c>
       <c r="B375" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C375" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D375">
         <v>19</v>
@@ -7906,10 +7900,10 @@
         <v>8</v>
       </c>
       <c r="B376" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C376" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D376">
         <v>19</v>
@@ -7926,10 +7920,10 @@
         <v>8</v>
       </c>
       <c r="B377" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C377" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D377">
         <v>19</v>
@@ -7946,10 +7940,10 @@
         <v>9</v>
       </c>
       <c r="B378" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C378" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D378">
         <v>19</v>
@@ -7966,10 +7960,10 @@
         <v>9</v>
       </c>
       <c r="B379" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C379" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D379">
         <v>19</v>
@@ -7986,10 +7980,10 @@
         <v>10</v>
       </c>
       <c r="B380" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C380" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D380">
         <v>19</v>
@@ -8006,10 +8000,10 @@
         <v>10</v>
       </c>
       <c r="B381" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C381" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D381">
         <v>19</v>
@@ -8026,10 +8020,10 @@
         <v>1</v>
       </c>
       <c r="B382" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C382" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D382">
         <v>20</v>
@@ -8046,10 +8040,10 @@
         <v>1</v>
       </c>
       <c r="B383" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C383" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D383">
         <v>20</v>
@@ -8066,10 +8060,10 @@
         <v>2</v>
       </c>
       <c r="B384" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C384" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D384">
         <v>20</v>
@@ -8086,10 +8080,10 @@
         <v>2</v>
       </c>
       <c r="B385" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C385" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D385">
         <v>20</v>
@@ -8106,10 +8100,10 @@
         <v>3</v>
       </c>
       <c r="B386" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C386" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D386">
         <v>20</v>
@@ -8126,10 +8120,10 @@
         <v>3</v>
       </c>
       <c r="B387" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C387" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D387">
         <v>20</v>
@@ -8146,10 +8140,10 @@
         <v>4</v>
       </c>
       <c r="B388" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C388" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D388">
         <v>20</v>
@@ -8166,10 +8160,10 @@
         <v>4</v>
       </c>
       <c r="B389" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C389" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D389">
         <v>20</v>
@@ -8186,10 +8180,10 @@
         <v>5</v>
       </c>
       <c r="B390" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C390" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D390">
         <v>20</v>
@@ -8206,10 +8200,10 @@
         <v>5</v>
       </c>
       <c r="B391" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C391" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D391">
         <v>20</v>
@@ -8226,10 +8220,10 @@
         <v>6</v>
       </c>
       <c r="B392" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C392" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D392">
         <v>20</v>
@@ -8246,10 +8240,10 @@
         <v>6</v>
       </c>
       <c r="B393" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C393" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D393">
         <v>20</v>
@@ -8266,10 +8260,10 @@
         <v>7</v>
       </c>
       <c r="B394" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C394" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D394">
         <v>20</v>
@@ -8286,10 +8280,10 @@
         <v>7</v>
       </c>
       <c r="B395" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C395" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D395">
         <v>20</v>
@@ -8306,10 +8300,10 @@
         <v>8</v>
       </c>
       <c r="B396" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C396" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D396">
         <v>20</v>
@@ -8326,10 +8320,10 @@
         <v>8</v>
       </c>
       <c r="B397" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C397" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D397">
         <v>20</v>
@@ -8346,10 +8340,10 @@
         <v>9</v>
       </c>
       <c r="B398" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C398" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D398">
         <v>20</v>
@@ -8366,10 +8360,10 @@
         <v>9</v>
       </c>
       <c r="B399" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C399" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D399">
         <v>20</v>
@@ -8386,10 +8380,10 @@
         <v>10</v>
       </c>
       <c r="B400" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C400" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D400">
         <v>20</v>
@@ -8406,10 +8400,10 @@
         <v>10</v>
       </c>
       <c r="B401" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C401" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D401">
         <v>20</v>
@@ -8426,10 +8420,10 @@
         <v>1</v>
       </c>
       <c r="B402" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C402" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D402">
         <v>21</v>
@@ -8446,10 +8440,10 @@
         <v>1</v>
       </c>
       <c r="B403" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C403" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D403">
         <v>21</v>
@@ -8466,10 +8460,10 @@
         <v>2</v>
       </c>
       <c r="B404" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C404" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D404">
         <v>21</v>
@@ -8486,10 +8480,10 @@
         <v>2</v>
       </c>
       <c r="B405" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C405" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D405">
         <v>21</v>
@@ -8506,10 +8500,10 @@
         <v>3</v>
       </c>
       <c r="B406" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C406" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D406">
         <v>21</v>
@@ -8526,10 +8520,10 @@
         <v>3</v>
       </c>
       <c r="B407" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C407" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D407">
         <v>21</v>
@@ -8546,10 +8540,10 @@
         <v>4</v>
       </c>
       <c r="B408" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C408" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D408">
         <v>21</v>
@@ -8566,10 +8560,10 @@
         <v>4</v>
       </c>
       <c r="B409" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C409" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D409">
         <v>21</v>
@@ -8586,10 +8580,10 @@
         <v>5</v>
       </c>
       <c r="B410" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C410" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D410">
         <v>21</v>
@@ -8606,10 +8600,10 @@
         <v>5</v>
       </c>
       <c r="B411" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C411" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D411">
         <v>21</v>
@@ -8626,10 +8620,10 @@
         <v>6</v>
       </c>
       <c r="B412" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C412" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D412">
         <v>21</v>
@@ -8646,10 +8640,10 @@
         <v>6</v>
       </c>
       <c r="B413" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C413" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D413">
         <v>21</v>
@@ -8666,10 +8660,10 @@
         <v>7</v>
       </c>
       <c r="B414" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C414" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D414">
         <v>21</v>
@@ -8686,10 +8680,10 @@
         <v>7</v>
       </c>
       <c r="B415" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C415" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D415">
         <v>21</v>
@@ -8706,10 +8700,10 @@
         <v>8</v>
       </c>
       <c r="B416" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C416" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D416">
         <v>21</v>
@@ -8726,10 +8720,10 @@
         <v>8</v>
       </c>
       <c r="B417" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C417" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D417">
         <v>21</v>
@@ -8746,10 +8740,10 @@
         <v>9</v>
       </c>
       <c r="B418" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C418" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D418">
         <v>21</v>
@@ -8766,10 +8760,10 @@
         <v>9</v>
       </c>
       <c r="B419" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C419" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D419">
         <v>21</v>
@@ -8786,10 +8780,10 @@
         <v>10</v>
       </c>
       <c r="B420" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C420" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D420">
         <v>21</v>
@@ -8806,10 +8800,10 @@
         <v>10</v>
       </c>
       <c r="B421" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C421" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D421">
         <v>21</v>
@@ -8826,10 +8820,10 @@
         <v>1</v>
       </c>
       <c r="B422" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C422" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D422">
         <v>22</v>
@@ -8846,10 +8840,10 @@
         <v>1</v>
       </c>
       <c r="B423" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C423" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D423">
         <v>22</v>
@@ -8866,10 +8860,10 @@
         <v>2</v>
       </c>
       <c r="B424" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C424" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D424">
         <v>22</v>
@@ -8886,10 +8880,10 @@
         <v>2</v>
       </c>
       <c r="B425" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C425" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D425">
         <v>22</v>
@@ -8906,10 +8900,10 @@
         <v>3</v>
       </c>
       <c r="B426" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C426" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D426">
         <v>22</v>
@@ -8926,10 +8920,10 @@
         <v>3</v>
       </c>
       <c r="B427" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C427" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D427">
         <v>22</v>
@@ -8946,10 +8940,10 @@
         <v>4</v>
       </c>
       <c r="B428" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C428" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D428">
         <v>22</v>
@@ -8966,10 +8960,10 @@
         <v>4</v>
       </c>
       <c r="B429" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C429" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D429">
         <v>22</v>
@@ -8986,10 +8980,10 @@
         <v>5</v>
       </c>
       <c r="B430" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C430" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D430">
         <v>22</v>
@@ -9006,10 +9000,10 @@
         <v>5</v>
       </c>
       <c r="B431" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C431" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D431">
         <v>22</v>
@@ -9026,10 +9020,10 @@
         <v>6</v>
       </c>
       <c r="B432" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C432" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D432">
         <v>22</v>
@@ -9046,10 +9040,10 @@
         <v>6</v>
       </c>
       <c r="B433" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C433" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D433">
         <v>22</v>
@@ -9066,10 +9060,10 @@
         <v>7</v>
       </c>
       <c r="B434" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C434" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D434">
         <v>22</v>
@@ -9086,10 +9080,10 @@
         <v>7</v>
       </c>
       <c r="B435" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C435" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D435">
         <v>22</v>
@@ -9106,10 +9100,10 @@
         <v>8</v>
       </c>
       <c r="B436" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C436" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D436">
         <v>22</v>
@@ -9126,10 +9120,10 @@
         <v>8</v>
       </c>
       <c r="B437" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C437" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D437">
         <v>22</v>
@@ -9146,10 +9140,10 @@
         <v>9</v>
       </c>
       <c r="B438" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C438" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D438">
         <v>22</v>
@@ -9166,10 +9160,10 @@
         <v>9</v>
       </c>
       <c r="B439" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C439" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D439">
         <v>22</v>
@@ -9186,10 +9180,10 @@
         <v>10</v>
       </c>
       <c r="B440" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C440" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D440">
         <v>22</v>
@@ -9206,10 +9200,10 @@
         <v>10</v>
       </c>
       <c r="B441" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C441" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D441">
         <v>22</v>
@@ -9226,10 +9220,10 @@
         <v>1</v>
       </c>
       <c r="B442" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C442" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D442">
         <v>23</v>
@@ -9246,10 +9240,10 @@
         <v>1</v>
       </c>
       <c r="B443" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C443" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D443">
         <v>23</v>
@@ -9266,10 +9260,10 @@
         <v>2</v>
       </c>
       <c r="B444" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C444" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D444">
         <v>23</v>
@@ -9286,10 +9280,10 @@
         <v>2</v>
       </c>
       <c r="B445" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C445" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D445">
         <v>23</v>
@@ -9306,10 +9300,10 @@
         <v>3</v>
       </c>
       <c r="B446" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C446" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D446">
         <v>23</v>
@@ -9326,10 +9320,10 @@
         <v>3</v>
       </c>
       <c r="B447" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C447" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D447">
         <v>23</v>
@@ -9346,10 +9340,10 @@
         <v>4</v>
       </c>
       <c r="B448" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C448" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D448">
         <v>23</v>
@@ -9366,10 +9360,10 @@
         <v>4</v>
       </c>
       <c r="B449" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C449" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D449">
         <v>23</v>
@@ -9386,10 +9380,10 @@
         <v>5</v>
       </c>
       <c r="B450" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C450" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D450">
         <v>23</v>
@@ -9406,10 +9400,10 @@
         <v>5</v>
       </c>
       <c r="B451" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C451" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D451">
         <v>23</v>
@@ -9426,10 +9420,10 @@
         <v>6</v>
       </c>
       <c r="B452" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C452" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D452">
         <v>23</v>
@@ -9446,10 +9440,10 @@
         <v>6</v>
       </c>
       <c r="B453" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C453" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D453">
         <v>23</v>
@@ -9466,10 +9460,10 @@
         <v>7</v>
       </c>
       <c r="B454" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C454" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D454">
         <v>23</v>
@@ -9486,10 +9480,10 @@
         <v>7</v>
       </c>
       <c r="B455" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C455" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D455">
         <v>23</v>
@@ -9506,10 +9500,10 @@
         <v>8</v>
       </c>
       <c r="B456" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C456" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D456">
         <v>23</v>
@@ -9526,10 +9520,10 @@
         <v>8</v>
       </c>
       <c r="B457" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C457" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D457">
         <v>23</v>
@@ -9546,10 +9540,10 @@
         <v>9</v>
       </c>
       <c r="B458" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C458" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D458">
         <v>23</v>
@@ -9566,10 +9560,10 @@
         <v>9</v>
       </c>
       <c r="B459" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C459" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D459">
         <v>23</v>
@@ -9586,10 +9580,10 @@
         <v>10</v>
       </c>
       <c r="B460" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C460" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D460">
         <v>23</v>
@@ -9606,10 +9600,10 @@
         <v>10</v>
       </c>
       <c r="B461" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C461" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D461">
         <v>23</v>
@@ -9626,10 +9620,10 @@
         <v>1</v>
       </c>
       <c r="B462" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C462" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D462">
         <v>24</v>
@@ -9646,10 +9640,10 @@
         <v>1</v>
       </c>
       <c r="B463" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C463" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D463">
         <v>24</v>
@@ -9666,10 +9660,10 @@
         <v>2</v>
       </c>
       <c r="B464" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C464" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D464">
         <v>24</v>
@@ -9686,10 +9680,10 @@
         <v>2</v>
       </c>
       <c r="B465" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C465" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D465">
         <v>24</v>
@@ -9706,10 +9700,10 @@
         <v>3</v>
       </c>
       <c r="B466" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C466" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D466">
         <v>24</v>
@@ -9726,10 +9720,10 @@
         <v>3</v>
       </c>
       <c r="B467" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C467" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D467">
         <v>24</v>
@@ -9746,10 +9740,10 @@
         <v>4</v>
       </c>
       <c r="B468" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C468" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D468">
         <v>24</v>
@@ -9766,10 +9760,10 @@
         <v>4</v>
       </c>
       <c r="B469" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C469" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D469">
         <v>24</v>
@@ -9786,10 +9780,10 @@
         <v>5</v>
       </c>
       <c r="B470" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C470" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D470">
         <v>24</v>
@@ -9806,10 +9800,10 @@
         <v>5</v>
       </c>
       <c r="B471" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C471" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D471">
         <v>24</v>
@@ -9826,10 +9820,10 @@
         <v>6</v>
       </c>
       <c r="B472" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C472" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D472">
         <v>24</v>
@@ -9846,10 +9840,10 @@
         <v>6</v>
       </c>
       <c r="B473" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C473" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D473">
         <v>24</v>
@@ -9866,10 +9860,10 @@
         <v>7</v>
       </c>
       <c r="B474" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C474" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D474">
         <v>24</v>
@@ -9886,10 +9880,10 @@
         <v>7</v>
       </c>
       <c r="B475" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C475" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D475">
         <v>24</v>
@@ -9906,10 +9900,10 @@
         <v>8</v>
       </c>
       <c r="B476" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C476" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D476">
         <v>24</v>
@@ -9926,10 +9920,10 @@
         <v>8</v>
       </c>
       <c r="B477" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C477" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D477">
         <v>24</v>
@@ -9946,10 +9940,10 @@
         <v>9</v>
       </c>
       <c r="B478" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C478" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D478">
         <v>24</v>
@@ -9966,10 +9960,10 @@
         <v>9</v>
       </c>
       <c r="B479" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C479" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D479">
         <v>24</v>
@@ -9986,10 +9980,10 @@
         <v>10</v>
       </c>
       <c r="B480" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C480" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D480">
         <v>24</v>
@@ -10006,10 +10000,10 @@
         <v>10</v>
       </c>
       <c r="B481" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C481" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D481">
         <v>24</v>
@@ -10026,10 +10020,10 @@
         <v>1</v>
       </c>
       <c r="B482" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C482" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D482">
         <v>25</v>
@@ -10046,10 +10040,10 @@
         <v>1</v>
       </c>
       <c r="B483" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C483" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D483">
         <v>25</v>
@@ -10066,10 +10060,10 @@
         <v>2</v>
       </c>
       <c r="B484" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C484" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D484">
         <v>25</v>
@@ -10086,10 +10080,10 @@
         <v>2</v>
       </c>
       <c r="B485" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C485" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D485">
         <v>25</v>
@@ -10106,10 +10100,10 @@
         <v>3</v>
       </c>
       <c r="B486" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C486" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D486">
         <v>25</v>
@@ -10126,10 +10120,10 @@
         <v>3</v>
       </c>
       <c r="B487" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C487" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D487">
         <v>25</v>
@@ -10146,10 +10140,10 @@
         <v>4</v>
       </c>
       <c r="B488" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C488" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D488">
         <v>25</v>
@@ -10166,10 +10160,10 @@
         <v>4</v>
       </c>
       <c r="B489" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C489" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D489">
         <v>25</v>
@@ -10186,10 +10180,10 @@
         <v>5</v>
       </c>
       <c r="B490" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C490" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D490">
         <v>25</v>
@@ -10206,10 +10200,10 @@
         <v>5</v>
       </c>
       <c r="B491" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C491" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D491">
         <v>25</v>
@@ -10226,10 +10220,10 @@
         <v>6</v>
       </c>
       <c r="B492" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C492" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D492">
         <v>25</v>
@@ -10246,10 +10240,10 @@
         <v>6</v>
       </c>
       <c r="B493" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C493" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D493">
         <v>25</v>
@@ -10266,10 +10260,10 @@
         <v>7</v>
       </c>
       <c r="B494" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C494" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D494">
         <v>25</v>
@@ -10286,10 +10280,10 @@
         <v>7</v>
       </c>
       <c r="B495" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C495" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D495">
         <v>25</v>
@@ -10306,10 +10300,10 @@
         <v>8</v>
       </c>
       <c r="B496" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C496" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D496">
         <v>25</v>
@@ -10326,10 +10320,10 @@
         <v>8</v>
       </c>
       <c r="B497" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C497" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D497">
         <v>25</v>
@@ -10346,10 +10340,10 @@
         <v>9</v>
       </c>
       <c r="B498" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C498" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D498">
         <v>25</v>
@@ -10366,10 +10360,10 @@
         <v>9</v>
       </c>
       <c r="B499" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C499" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D499">
         <v>25</v>
@@ -10386,10 +10380,10 @@
         <v>10</v>
       </c>
       <c r="B500" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C500" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D500">
         <v>25</v>
@@ -10406,10 +10400,10 @@
         <v>10</v>
       </c>
       <c r="B501" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C501" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D501">
         <v>25</v>
@@ -10426,10 +10420,10 @@
         <v>1</v>
       </c>
       <c r="B502" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C502" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D502">
         <v>26</v>
@@ -10446,10 +10440,10 @@
         <v>1</v>
       </c>
       <c r="B503" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C503" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D503">
         <v>26</v>
@@ -10466,10 +10460,10 @@
         <v>2</v>
       </c>
       <c r="B504" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C504" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D504">
         <v>26</v>
@@ -10486,10 +10480,10 @@
         <v>2</v>
       </c>
       <c r="B505" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C505" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D505">
         <v>26</v>
@@ -10506,10 +10500,10 @@
         <v>3</v>
       </c>
       <c r="B506" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C506" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D506">
         <v>26</v>
@@ -10526,10 +10520,10 @@
         <v>3</v>
       </c>
       <c r="B507" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C507" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D507">
         <v>26</v>
@@ -10546,10 +10540,10 @@
         <v>4</v>
       </c>
       <c r="B508" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C508" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D508">
         <v>26</v>
@@ -10566,10 +10560,10 @@
         <v>4</v>
       </c>
       <c r="B509" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C509" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D509">
         <v>26</v>
@@ -10586,10 +10580,10 @@
         <v>5</v>
       </c>
       <c r="B510" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C510" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D510">
         <v>26</v>
@@ -10606,10 +10600,10 @@
         <v>5</v>
       </c>
       <c r="B511" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C511" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D511">
         <v>26</v>
@@ -10626,10 +10620,10 @@
         <v>6</v>
       </c>
       <c r="B512" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C512" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D512">
         <v>26</v>
@@ -10646,10 +10640,10 @@
         <v>6</v>
       </c>
       <c r="B513" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C513" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D513">
         <v>26</v>
@@ -10666,10 +10660,10 @@
         <v>7</v>
       </c>
       <c r="B514" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C514" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D514">
         <v>26</v>
@@ -10686,10 +10680,10 @@
         <v>7</v>
       </c>
       <c r="B515" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C515" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D515">
         <v>26</v>
@@ -10706,10 +10700,10 @@
         <v>8</v>
       </c>
       <c r="B516" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C516" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D516">
         <v>26</v>
@@ -10726,10 +10720,10 @@
         <v>8</v>
       </c>
       <c r="B517" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C517" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D517">
         <v>26</v>
@@ -10746,10 +10740,10 @@
         <v>9</v>
       </c>
       <c r="B518" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C518" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D518">
         <v>26</v>
@@ -10766,10 +10760,10 @@
         <v>9</v>
       </c>
       <c r="B519" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C519" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D519">
         <v>26</v>
@@ -10786,10 +10780,10 @@
         <v>10</v>
       </c>
       <c r="B520" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C520" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D520">
         <v>26</v>
@@ -10806,10 +10800,10 @@
         <v>10</v>
       </c>
       <c r="B521" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C521" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D521">
         <v>26</v>
@@ -10826,10 +10820,10 @@
         <v>1</v>
       </c>
       <c r="B522" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C522" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D522">
         <v>27</v>
@@ -10846,10 +10840,10 @@
         <v>1</v>
       </c>
       <c r="B523" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C523" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D523">
         <v>27</v>
@@ -10866,10 +10860,10 @@
         <v>2</v>
       </c>
       <c r="B524" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C524" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D524">
         <v>27</v>
@@ -10886,10 +10880,10 @@
         <v>2</v>
       </c>
       <c r="B525" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C525" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D525">
         <v>27</v>
@@ -10906,10 +10900,10 @@
         <v>3</v>
       </c>
       <c r="B526" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C526" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D526">
         <v>27</v>
@@ -10926,10 +10920,10 @@
         <v>3</v>
       </c>
       <c r="B527" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C527" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D527">
         <v>27</v>
@@ -10946,10 +10940,10 @@
         <v>4</v>
       </c>
       <c r="B528" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C528" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D528">
         <v>27</v>
@@ -10966,10 +10960,10 @@
         <v>4</v>
       </c>
       <c r="B529" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C529" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D529">
         <v>27</v>
@@ -10986,10 +10980,10 @@
         <v>5</v>
       </c>
       <c r="B530" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C530" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D530">
         <v>27</v>
@@ -11006,10 +11000,10 @@
         <v>5</v>
       </c>
       <c r="B531" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C531" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D531">
         <v>27</v>
@@ -11026,10 +11020,10 @@
         <v>6</v>
       </c>
       <c r="B532" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C532" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D532">
         <v>27</v>
@@ -11046,10 +11040,10 @@
         <v>6</v>
       </c>
       <c r="B533" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C533" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D533">
         <v>27</v>
@@ -11066,10 +11060,10 @@
         <v>7</v>
       </c>
       <c r="B534" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C534" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D534">
         <v>27</v>
@@ -11086,10 +11080,10 @@
         <v>7</v>
       </c>
       <c r="B535" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C535" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D535">
         <v>27</v>
@@ -11106,10 +11100,10 @@
         <v>8</v>
       </c>
       <c r="B536" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C536" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D536">
         <v>27</v>
@@ -11126,10 +11120,10 @@
         <v>8</v>
       </c>
       <c r="B537" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C537" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D537">
         <v>27</v>
@@ -11146,10 +11140,10 @@
         <v>9</v>
       </c>
       <c r="B538" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C538" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D538">
         <v>27</v>
@@ -11166,10 +11160,10 @@
         <v>9</v>
       </c>
       <c r="B539" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C539" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D539">
         <v>27</v>
@@ -11186,10 +11180,10 @@
         <v>10</v>
       </c>
       <c r="B540" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C540" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D540">
         <v>27</v>
@@ -11206,10 +11200,10 @@
         <v>10</v>
       </c>
       <c r="B541" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C541" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D541">
         <v>27</v>
@@ -11226,10 +11220,10 @@
         <v>1</v>
       </c>
       <c r="B542" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C542" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D542">
         <v>28</v>
@@ -11246,10 +11240,10 @@
         <v>1</v>
       </c>
       <c r="B543" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C543" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D543">
         <v>28</v>
@@ -11266,10 +11260,10 @@
         <v>2</v>
       </c>
       <c r="B544" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C544" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D544">
         <v>28</v>
@@ -11286,10 +11280,10 @@
         <v>2</v>
       </c>
       <c r="B545" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C545" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D545">
         <v>28</v>
@@ -11306,10 +11300,10 @@
         <v>3</v>
       </c>
       <c r="B546" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C546" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D546">
         <v>28</v>
@@ -11326,10 +11320,10 @@
         <v>3</v>
       </c>
       <c r="B547" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C547" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D547">
         <v>28</v>
@@ -11346,10 +11340,10 @@
         <v>4</v>
       </c>
       <c r="B548" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C548" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D548">
         <v>28</v>
@@ -11366,10 +11360,10 @@
         <v>5</v>
       </c>
       <c r="B549" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C549" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D549">
         <v>28</v>
@@ -11386,10 +11380,10 @@
         <v>5</v>
       </c>
       <c r="B550" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C550" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D550">
         <v>28</v>
@@ -11406,10 +11400,10 @@
         <v>6</v>
       </c>
       <c r="B551" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C551" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D551">
         <v>28</v>
@@ -11426,10 +11420,10 @@
         <v>6</v>
       </c>
       <c r="B552" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C552" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D552">
         <v>28</v>
@@ -11446,10 +11440,10 @@
         <v>7</v>
       </c>
       <c r="B553" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C553" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D553">
         <v>28</v>
@@ -11466,10 +11460,10 @@
         <v>7</v>
       </c>
       <c r="B554" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C554" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D554">
         <v>28</v>
@@ -11486,10 +11480,10 @@
         <v>8</v>
       </c>
       <c r="B555" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C555" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D555">
         <v>28</v>
@@ -11506,10 +11500,10 @@
         <v>8</v>
       </c>
       <c r="B556" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C556" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D556">
         <v>28</v>
@@ -11526,10 +11520,10 @@
         <v>9</v>
       </c>
       <c r="B557" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C557" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D557">
         <v>28</v>
@@ -11546,10 +11540,10 @@
         <v>9</v>
       </c>
       <c r="B558" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C558" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D558">
         <v>28</v>
@@ -11566,10 +11560,10 @@
         <v>10</v>
       </c>
       <c r="B559" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C559" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D559">
         <v>28</v>
@@ -11586,10 +11580,10 @@
         <v>10</v>
       </c>
       <c r="B560" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C560" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D560">
         <v>28</v>
@@ -11606,10 +11600,10 @@
         <v>1</v>
       </c>
       <c r="B561" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C561" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D561">
         <v>29</v>
@@ -11626,10 +11620,10 @@
         <v>1</v>
       </c>
       <c r="B562" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C562" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D562">
         <v>29</v>
@@ -11646,10 +11640,10 @@
         <v>2</v>
       </c>
       <c r="B563" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C563" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D563">
         <v>29</v>
@@ -11666,10 +11660,10 @@
         <v>2</v>
       </c>
       <c r="B564" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C564" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D564">
         <v>29</v>
@@ -11686,10 +11680,10 @@
         <v>3</v>
       </c>
       <c r="B565" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C565" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D565">
         <v>29</v>
@@ -11706,10 +11700,10 @@
         <v>3</v>
       </c>
       <c r="B566" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C566" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D566">
         <v>29</v>
@@ -11726,10 +11720,10 @@
         <v>4</v>
       </c>
       <c r="B567" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C567" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D567">
         <v>29</v>
@@ -11746,10 +11740,10 @@
         <v>4</v>
       </c>
       <c r="B568" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C568" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D568">
         <v>29</v>
@@ -11766,10 +11760,10 @@
         <v>5</v>
       </c>
       <c r="B569" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C569" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D569">
         <v>29</v>
@@ -11786,10 +11780,10 @@
         <v>5</v>
       </c>
       <c r="B570" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C570" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D570">
         <v>29</v>
@@ -11806,10 +11800,10 @@
         <v>6</v>
       </c>
       <c r="B571" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C571" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D571">
         <v>29</v>
@@ -11826,10 +11820,10 @@
         <v>6</v>
       </c>
       <c r="B572" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C572" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D572">
         <v>29</v>
@@ -11846,10 +11840,10 @@
         <v>7</v>
       </c>
       <c r="B573" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C573" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D573">
         <v>29</v>
@@ -11866,10 +11860,10 @@
         <v>7</v>
       </c>
       <c r="B574" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C574" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D574">
         <v>29</v>
@@ -11886,10 +11880,10 @@
         <v>8</v>
       </c>
       <c r="B575" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C575" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D575">
         <v>29</v>
@@ -11906,10 +11900,10 @@
         <v>8</v>
       </c>
       <c r="B576" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C576" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D576">
         <v>29</v>
@@ -11926,10 +11920,10 @@
         <v>9</v>
       </c>
       <c r="B577" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C577" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D577">
         <v>29</v>
@@ -11946,10 +11940,10 @@
         <v>9</v>
       </c>
       <c r="B578" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C578" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D578">
         <v>29</v>
@@ -11966,10 +11960,10 @@
         <v>10</v>
       </c>
       <c r="B579" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C579" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D579">
         <v>29</v>
@@ -11986,10 +11980,10 @@
         <v>10</v>
       </c>
       <c r="B580" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C580" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D580">
         <v>29</v>
@@ -12006,10 +12000,10 @@
         <v>1</v>
       </c>
       <c r="B581" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C581" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D581">
         <v>30</v>
@@ -12026,10 +12020,10 @@
         <v>1</v>
       </c>
       <c r="B582" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C582" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D582">
         <v>30</v>
@@ -12046,10 +12040,10 @@
         <v>2</v>
       </c>
       <c r="B583" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C583" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D583">
         <v>30</v>
@@ -12066,10 +12060,10 @@
         <v>2</v>
       </c>
       <c r="B584" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C584" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D584">
         <v>30</v>
@@ -12086,10 +12080,10 @@
         <v>3</v>
       </c>
       <c r="B585" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C585" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D585">
         <v>30</v>
@@ -12106,10 +12100,10 @@
         <v>3</v>
       </c>
       <c r="B586" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C586" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D586">
         <v>30</v>
@@ -12126,10 +12120,10 @@
         <v>4</v>
       </c>
       <c r="B587" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C587" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D587">
         <v>30</v>
@@ -12146,10 +12140,10 @@
         <v>4</v>
       </c>
       <c r="B588" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C588" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D588">
         <v>30</v>
@@ -12166,10 +12160,10 @@
         <v>5</v>
       </c>
       <c r="B589" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C589" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D589">
         <v>30</v>
@@ -12186,10 +12180,10 @@
         <v>5</v>
       </c>
       <c r="B590" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C590" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D590">
         <v>30</v>
@@ -12206,10 +12200,10 @@
         <v>6</v>
       </c>
       <c r="B591" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C591" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D591">
         <v>30</v>
@@ -12226,10 +12220,10 @@
         <v>6</v>
       </c>
       <c r="B592" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C592" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D592">
         <v>30</v>
@@ -12246,10 +12240,10 @@
         <v>7</v>
       </c>
       <c r="B593" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C593" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D593">
         <v>30</v>
@@ -12266,10 +12260,10 @@
         <v>7</v>
       </c>
       <c r="B594" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C594" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D594">
         <v>30</v>
@@ -12286,10 +12280,10 @@
         <v>8</v>
       </c>
       <c r="B595" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C595" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D595">
         <v>30</v>
@@ -12306,10 +12300,10 @@
         <v>8</v>
       </c>
       <c r="B596" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C596" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D596">
         <v>30</v>
@@ -12326,10 +12320,10 @@
         <v>9</v>
       </c>
       <c r="B597" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C597" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D597">
         <v>30</v>
@@ -12346,10 +12340,10 @@
         <v>9</v>
       </c>
       <c r="B598" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C598" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D598">
         <v>30</v>
@@ -12366,10 +12360,10 @@
         <v>10</v>
       </c>
       <c r="B599" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C599" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D599">
         <v>30</v>
@@ -12386,10 +12380,10 @@
         <v>10</v>
       </c>
       <c r="B600" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C600" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D600">
         <v>30</v>
@@ -12406,10 +12400,10 @@
         <v>4</v>
       </c>
       <c r="B601" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C601" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D601">
         <v>28</v>
@@ -12422,8 +12416,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G601" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H601">
+  <autoFilter ref="A1:F601" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G601">
     <sortCondition ref="D1:D601"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12434,7 +12428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9772EB32-8C72-6B4E-B539-09D5516AF006}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -12445,10 +12439,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">

--- a/data/raw_data/DS_Counting_trials.xlsx
+++ b/data/raw_data/DS_Counting_trials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rodenico/Documents/Pro/Articles/2023_LarvCount/Y2023.LarvCount/data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5F9F08-9DA3-C34A-9A61-9BB1B4AED609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F7B9B2-9182-9B49-AF8F-E0F5D07B0ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24560" windowHeight="13380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,17 +19,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ObserverCountData!$A$1:$F$601</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="12">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -386,7 +394,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16028,10 +16036,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9772EB32-8C72-6B4E-B539-09D5516AF006}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16039,252 +16047,345 @@
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
         <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw_data/DS_Counting_trials.xlsx
+++ b/data/raw_data/DS_Counting_trials.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rodenico/Documents/Pro/Articles/2023_LarvCount/Y2023.LarvCount/data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F7B9B2-9182-9B49-AF8F-E0F5D07B0ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91351BE0-5812-1F4F-B0E3-9CE5A329A75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24560" windowHeight="13380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24560" windowHeight="13380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ObserverCountData" sheetId="1" r:id="rId1"/>
     <sheet name="TrueCounts" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ObserverCountData!$A$1:$F$601</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ObserverCountData!$A$1:$I$601</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="12">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -390,16 +390,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H601"/>
+  <dimension ref="A1:I601"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -424,8 +424,11 @@
       <c r="H1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -450,8 +453,12 @@
       <c r="H2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2">
+        <f>VLOOKUP(D2,TrueCounts!A:C,2,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -476,8 +483,12 @@
       <c r="H3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3">
+        <f>VLOOKUP(D3,TrueCounts!A:C,2,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -502,8 +513,12 @@
       <c r="H4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <f>VLOOKUP(D4,TrueCounts!A:C,2,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -528,8 +543,12 @@
       <c r="H5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <f>VLOOKUP(D5,TrueCounts!A:C,2,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -554,8 +573,12 @@
       <c r="H6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <f>VLOOKUP(D6,TrueCounts!A:C,2,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -580,8 +603,12 @@
       <c r="H7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <f>VLOOKUP(D7,TrueCounts!A:C,2,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -606,8 +633,12 @@
       <c r="H8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <f>VLOOKUP(D8,TrueCounts!A:C,2,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
@@ -632,8 +663,12 @@
       <c r="H9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <f>VLOOKUP(D9,TrueCounts!A:C,2,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -658,8 +693,12 @@
       <c r="H10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10">
+        <f>VLOOKUP(D10,TrueCounts!A:C,2,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5</v>
       </c>
@@ -684,8 +723,12 @@
       <c r="H11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <f>VLOOKUP(D11,TrueCounts!A:C,2,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6</v>
       </c>
@@ -710,8 +753,12 @@
       <c r="H12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <f>VLOOKUP(D12,TrueCounts!A:C,2,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -736,8 +783,12 @@
       <c r="H13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13">
+        <f>VLOOKUP(D13,TrueCounts!A:C,2,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>7</v>
       </c>
@@ -762,8 +813,12 @@
       <c r="H14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <f>VLOOKUP(D14,TrueCounts!A:C,2,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>7</v>
       </c>
@@ -788,8 +843,12 @@
       <c r="H15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <f>VLOOKUP(D15,TrueCounts!A:C,2,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>8</v>
       </c>
@@ -814,8 +873,12 @@
       <c r="H16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <f>VLOOKUP(D16,TrueCounts!A:C,2,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>8</v>
       </c>
@@ -840,8 +903,12 @@
       <c r="H17" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <f>VLOOKUP(D17,TrueCounts!A:C,2,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>9</v>
       </c>
@@ -866,8 +933,12 @@
       <c r="H18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <f>VLOOKUP(D18,TrueCounts!A:C,2,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>9</v>
       </c>
@@ -892,8 +963,12 @@
       <c r="H19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <f>VLOOKUP(D19,TrueCounts!A:C,2,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>10</v>
       </c>
@@ -918,8 +993,12 @@
       <c r="H20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <f>VLOOKUP(D20,TrueCounts!A:C,2,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>10</v>
       </c>
@@ -944,8 +1023,12 @@
       <c r="H21" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <f>VLOOKUP(D21,TrueCounts!A:C,2,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -970,8 +1053,12 @@
       <c r="H22" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22">
+        <f>VLOOKUP(D22,TrueCounts!A:C,2,0)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -996,8 +1083,12 @@
       <c r="H23" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <f>VLOOKUP(D23,TrueCounts!A:C,2,0)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -1022,8 +1113,12 @@
       <c r="H24" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24">
+        <f>VLOOKUP(D24,TrueCounts!A:C,2,0)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1048,8 +1143,12 @@
       <c r="H25" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25">
+        <f>VLOOKUP(D25,TrueCounts!A:C,2,0)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3</v>
       </c>
@@ -1074,8 +1173,12 @@
       <c r="H26" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <f>VLOOKUP(D26,TrueCounts!A:C,2,0)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3</v>
       </c>
@@ -1100,8 +1203,12 @@
       <c r="H27" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27">
+        <f>VLOOKUP(D27,TrueCounts!A:C,2,0)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4</v>
       </c>
@@ -1126,8 +1233,12 @@
       <c r="H28" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28">
+        <f>VLOOKUP(D28,TrueCounts!A:C,2,0)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4</v>
       </c>
@@ -1152,8 +1263,12 @@
       <c r="H29" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29">
+        <f>VLOOKUP(D29,TrueCounts!A:C,2,0)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>5</v>
       </c>
@@ -1178,8 +1293,12 @@
       <c r="H30" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30">
+        <f>VLOOKUP(D30,TrueCounts!A:C,2,0)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>5</v>
       </c>
@@ -1204,8 +1323,12 @@
       <c r="H31" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31">
+        <f>VLOOKUP(D31,TrueCounts!A:C,2,0)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>6</v>
       </c>
@@ -1230,8 +1353,12 @@
       <c r="H32" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32">
+        <f>VLOOKUP(D32,TrueCounts!A:C,2,0)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>6</v>
       </c>
@@ -1256,8 +1383,12 @@
       <c r="H33" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33">
+        <f>VLOOKUP(D33,TrueCounts!A:C,2,0)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>7</v>
       </c>
@@ -1282,8 +1413,12 @@
       <c r="H34" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34">
+        <f>VLOOKUP(D34,TrueCounts!A:C,2,0)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>7</v>
       </c>
@@ -1308,8 +1443,12 @@
       <c r="H35" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35">
+        <f>VLOOKUP(D35,TrueCounts!A:C,2,0)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>8</v>
       </c>
@@ -1334,8 +1473,12 @@
       <c r="H36" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36">
+        <f>VLOOKUP(D36,TrueCounts!A:C,2,0)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>8</v>
       </c>
@@ -1360,8 +1503,12 @@
       <c r="H37" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37">
+        <f>VLOOKUP(D37,TrueCounts!A:C,2,0)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>9</v>
       </c>
@@ -1386,8 +1533,12 @@
       <c r="H38" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38">
+        <f>VLOOKUP(D38,TrueCounts!A:C,2,0)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>9</v>
       </c>
@@ -1412,8 +1563,12 @@
       <c r="H39" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39">
+        <f>VLOOKUP(D39,TrueCounts!A:C,2,0)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>10</v>
       </c>
@@ -1438,8 +1593,12 @@
       <c r="H40" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40">
+        <f>VLOOKUP(D40,TrueCounts!A:C,2,0)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>10</v>
       </c>
@@ -1464,8 +1623,12 @@
       <c r="H41" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41">
+        <f>VLOOKUP(D41,TrueCounts!A:C,2,0)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
@@ -1490,8 +1653,12 @@
       <c r="H42" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42">
+        <f>VLOOKUP(D42,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1</v>
       </c>
@@ -1516,8 +1683,12 @@
       <c r="H43" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43">
+        <f>VLOOKUP(D43,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2</v>
       </c>
@@ -1542,8 +1713,12 @@
       <c r="H44" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44">
+        <f>VLOOKUP(D44,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1568,8 +1743,12 @@
       <c r="H45" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45">
+        <f>VLOOKUP(D45,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3</v>
       </c>
@@ -1594,8 +1773,12 @@
       <c r="H46" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46">
+        <f>VLOOKUP(D46,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3</v>
       </c>
@@ -1620,8 +1803,12 @@
       <c r="H47" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47">
+        <f>VLOOKUP(D47,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>4</v>
       </c>
@@ -1646,8 +1833,12 @@
       <c r="H48" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48">
+        <f>VLOOKUP(D48,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>4</v>
       </c>
@@ -1672,8 +1863,12 @@
       <c r="H49" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49">
+        <f>VLOOKUP(D49,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>5</v>
       </c>
@@ -1698,8 +1893,12 @@
       <c r="H50" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50">
+        <f>VLOOKUP(D50,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>5</v>
       </c>
@@ -1724,8 +1923,12 @@
       <c r="H51" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51">
+        <f>VLOOKUP(D51,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>6</v>
       </c>
@@ -1750,8 +1953,12 @@
       <c r="H52" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52">
+        <f>VLOOKUP(D52,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>6</v>
       </c>
@@ -1776,8 +1983,12 @@
       <c r="H53" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53">
+        <f>VLOOKUP(D53,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>7</v>
       </c>
@@ -1802,8 +2013,12 @@
       <c r="H54" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54">
+        <f>VLOOKUP(D54,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>7</v>
       </c>
@@ -1828,8 +2043,12 @@
       <c r="H55" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55">
+        <f>VLOOKUP(D55,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>8</v>
       </c>
@@ -1854,8 +2073,12 @@
       <c r="H56" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56">
+        <f>VLOOKUP(D56,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>8</v>
       </c>
@@ -1880,8 +2103,12 @@
       <c r="H57" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I57">
+        <f>VLOOKUP(D57,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>9</v>
       </c>
@@ -1906,8 +2133,12 @@
       <c r="H58" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58">
+        <f>VLOOKUP(D58,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>9</v>
       </c>
@@ -1932,8 +2163,12 @@
       <c r="H59" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I59">
+        <f>VLOOKUP(D59,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>10</v>
       </c>
@@ -1958,8 +2193,12 @@
       <c r="H60" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60">
+        <f>VLOOKUP(D60,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>10</v>
       </c>
@@ -1984,8 +2223,12 @@
       <c r="H61" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I61">
+        <f>VLOOKUP(D61,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1</v>
       </c>
@@ -2010,8 +2253,12 @@
       <c r="H62" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62">
+        <f>VLOOKUP(D62,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1</v>
       </c>
@@ -2036,8 +2283,12 @@
       <c r="H63" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I63">
+        <f>VLOOKUP(D63,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2</v>
       </c>
@@ -2062,8 +2313,12 @@
       <c r="H64" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I64">
+        <f>VLOOKUP(D64,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2</v>
       </c>
@@ -2088,8 +2343,12 @@
       <c r="H65" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I65">
+        <f>VLOOKUP(D65,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>3</v>
       </c>
@@ -2114,8 +2373,12 @@
       <c r="H66" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I66">
+        <f>VLOOKUP(D66,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>3</v>
       </c>
@@ -2140,8 +2403,12 @@
       <c r="H67" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I67">
+        <f>VLOOKUP(D67,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>4</v>
       </c>
@@ -2166,8 +2433,12 @@
       <c r="H68" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I68">
+        <f>VLOOKUP(D68,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>4</v>
       </c>
@@ -2192,8 +2463,12 @@
       <c r="H69" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I69">
+        <f>VLOOKUP(D69,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>5</v>
       </c>
@@ -2218,8 +2493,12 @@
       <c r="H70" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I70">
+        <f>VLOOKUP(D70,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>5</v>
       </c>
@@ -2244,8 +2523,12 @@
       <c r="H71" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I71">
+        <f>VLOOKUP(D71,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>6</v>
       </c>
@@ -2270,8 +2553,12 @@
       <c r="H72" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I72">
+        <f>VLOOKUP(D72,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>6</v>
       </c>
@@ -2296,8 +2583,12 @@
       <c r="H73" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I73">
+        <f>VLOOKUP(D73,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>7</v>
       </c>
@@ -2322,8 +2613,12 @@
       <c r="H74" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I74">
+        <f>VLOOKUP(D74,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>7</v>
       </c>
@@ -2348,8 +2643,12 @@
       <c r="H75" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I75">
+        <f>VLOOKUP(D75,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>8</v>
       </c>
@@ -2374,8 +2673,12 @@
       <c r="H76" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I76">
+        <f>VLOOKUP(D76,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>8</v>
       </c>
@@ -2400,8 +2703,12 @@
       <c r="H77" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I77">
+        <f>VLOOKUP(D77,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>9</v>
       </c>
@@ -2426,8 +2733,12 @@
       <c r="H78" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I78">
+        <f>VLOOKUP(D78,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>9</v>
       </c>
@@ -2452,8 +2763,12 @@
       <c r="H79" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I79">
+        <f>VLOOKUP(D79,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>10</v>
       </c>
@@ -2478,8 +2793,12 @@
       <c r="H80" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I80">
+        <f>VLOOKUP(D80,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>10</v>
       </c>
@@ -2504,8 +2823,12 @@
       <c r="H81" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I81">
+        <f>VLOOKUP(D81,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1</v>
       </c>
@@ -2530,8 +2853,12 @@
       <c r="H82" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I82">
+        <f>VLOOKUP(D82,TrueCounts!A:C,2,0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1</v>
       </c>
@@ -2556,8 +2883,12 @@
       <c r="H83" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I83">
+        <f>VLOOKUP(D83,TrueCounts!A:C,2,0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2</v>
       </c>
@@ -2582,8 +2913,12 @@
       <c r="H84" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I84">
+        <f>VLOOKUP(D84,TrueCounts!A:C,2,0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2</v>
       </c>
@@ -2608,8 +2943,12 @@
       <c r="H85" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I85">
+        <f>VLOOKUP(D85,TrueCounts!A:C,2,0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>3</v>
       </c>
@@ -2634,8 +2973,12 @@
       <c r="H86" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I86">
+        <f>VLOOKUP(D86,TrueCounts!A:C,2,0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>3</v>
       </c>
@@ -2660,8 +3003,12 @@
       <c r="H87" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I87">
+        <f>VLOOKUP(D87,TrueCounts!A:C,2,0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>4</v>
       </c>
@@ -2686,8 +3033,12 @@
       <c r="H88" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I88">
+        <f>VLOOKUP(D88,TrueCounts!A:C,2,0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>4</v>
       </c>
@@ -2712,8 +3063,12 @@
       <c r="H89" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I89">
+        <f>VLOOKUP(D89,TrueCounts!A:C,2,0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>5</v>
       </c>
@@ -2738,8 +3093,12 @@
       <c r="H90" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I90">
+        <f>VLOOKUP(D90,TrueCounts!A:C,2,0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>5</v>
       </c>
@@ -2764,8 +3123,12 @@
       <c r="H91" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I91">
+        <f>VLOOKUP(D91,TrueCounts!A:C,2,0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>6</v>
       </c>
@@ -2790,8 +3153,12 @@
       <c r="H92" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I92">
+        <f>VLOOKUP(D92,TrueCounts!A:C,2,0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>6</v>
       </c>
@@ -2816,8 +3183,12 @@
       <c r="H93" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I93">
+        <f>VLOOKUP(D93,TrueCounts!A:C,2,0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>7</v>
       </c>
@@ -2842,8 +3213,12 @@
       <c r="H94" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I94">
+        <f>VLOOKUP(D94,TrueCounts!A:C,2,0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>7</v>
       </c>
@@ -2868,8 +3243,12 @@
       <c r="H95" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I95">
+        <f>VLOOKUP(D95,TrueCounts!A:C,2,0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>8</v>
       </c>
@@ -2894,8 +3273,12 @@
       <c r="H96" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I96">
+        <f>VLOOKUP(D96,TrueCounts!A:C,2,0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>8</v>
       </c>
@@ -2920,8 +3303,12 @@
       <c r="H97" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I97">
+        <f>VLOOKUP(D97,TrueCounts!A:C,2,0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>9</v>
       </c>
@@ -2946,8 +3333,12 @@
       <c r="H98" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I98">
+        <f>VLOOKUP(D98,TrueCounts!A:C,2,0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>9</v>
       </c>
@@ -2972,8 +3363,12 @@
       <c r="H99" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I99">
+        <f>VLOOKUP(D99,TrueCounts!A:C,2,0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>10</v>
       </c>
@@ -2998,8 +3393,12 @@
       <c r="H100" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I100">
+        <f>VLOOKUP(D100,TrueCounts!A:C,2,0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>10</v>
       </c>
@@ -3024,8 +3423,12 @@
       <c r="H101" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I101">
+        <f>VLOOKUP(D101,TrueCounts!A:C,2,0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>1</v>
       </c>
@@ -3050,8 +3453,12 @@
       <c r="H102" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I102">
+        <f>VLOOKUP(D102,TrueCounts!A:C,2,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1</v>
       </c>
@@ -3076,8 +3483,12 @@
       <c r="H103" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I103">
+        <f>VLOOKUP(D103,TrueCounts!A:C,2,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2</v>
       </c>
@@ -3102,8 +3513,12 @@
       <c r="H104" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I104">
+        <f>VLOOKUP(D104,TrueCounts!A:C,2,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2</v>
       </c>
@@ -3128,8 +3543,12 @@
       <c r="H105" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I105">
+        <f>VLOOKUP(D105,TrueCounts!A:C,2,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>3</v>
       </c>
@@ -3154,8 +3573,12 @@
       <c r="H106" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I106">
+        <f>VLOOKUP(D106,TrueCounts!A:C,2,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>3</v>
       </c>
@@ -3180,8 +3603,12 @@
       <c r="H107" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I107">
+        <f>VLOOKUP(D107,TrueCounts!A:C,2,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>4</v>
       </c>
@@ -3206,8 +3633,12 @@
       <c r="H108" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I108">
+        <f>VLOOKUP(D108,TrueCounts!A:C,2,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>4</v>
       </c>
@@ -3232,8 +3663,12 @@
       <c r="H109" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I109">
+        <f>VLOOKUP(D109,TrueCounts!A:C,2,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>5</v>
       </c>
@@ -3258,8 +3693,12 @@
       <c r="H110" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I110">
+        <f>VLOOKUP(D110,TrueCounts!A:C,2,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>5</v>
       </c>
@@ -3284,8 +3723,12 @@
       <c r="H111" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I111">
+        <f>VLOOKUP(D111,TrueCounts!A:C,2,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>6</v>
       </c>
@@ -3310,8 +3753,12 @@
       <c r="H112" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I112">
+        <f>VLOOKUP(D112,TrueCounts!A:C,2,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>6</v>
       </c>
@@ -3336,8 +3783,12 @@
       <c r="H113" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I113">
+        <f>VLOOKUP(D113,TrueCounts!A:C,2,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>7</v>
       </c>
@@ -3362,8 +3813,12 @@
       <c r="H114" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I114">
+        <f>VLOOKUP(D114,TrueCounts!A:C,2,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>7</v>
       </c>
@@ -3388,8 +3843,12 @@
       <c r="H115" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I115">
+        <f>VLOOKUP(D115,TrueCounts!A:C,2,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>8</v>
       </c>
@@ -3414,8 +3873,12 @@
       <c r="H116" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I116">
+        <f>VLOOKUP(D116,TrueCounts!A:C,2,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>8</v>
       </c>
@@ -3440,8 +3903,12 @@
       <c r="H117" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I117">
+        <f>VLOOKUP(D117,TrueCounts!A:C,2,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>9</v>
       </c>
@@ -3466,8 +3933,12 @@
       <c r="H118" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I118">
+        <f>VLOOKUP(D118,TrueCounts!A:C,2,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>9</v>
       </c>
@@ -3492,8 +3963,12 @@
       <c r="H119" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I119">
+        <f>VLOOKUP(D119,TrueCounts!A:C,2,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>10</v>
       </c>
@@ -3518,8 +3993,12 @@
       <c r="H120" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I120">
+        <f>VLOOKUP(D120,TrueCounts!A:C,2,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>10</v>
       </c>
@@ -3544,8 +4023,12 @@
       <c r="H121" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I121">
+        <f>VLOOKUP(D121,TrueCounts!A:C,2,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1</v>
       </c>
@@ -3570,8 +4053,12 @@
       <c r="H122" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I122">
+        <f>VLOOKUP(D122,TrueCounts!A:C,2,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>1</v>
       </c>
@@ -3596,8 +4083,12 @@
       <c r="H123" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I123">
+        <f>VLOOKUP(D123,TrueCounts!A:C,2,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>2</v>
       </c>
@@ -3622,8 +4113,12 @@
       <c r="H124" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I124">
+        <f>VLOOKUP(D124,TrueCounts!A:C,2,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>2</v>
       </c>
@@ -3648,8 +4143,12 @@
       <c r="H125" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I125">
+        <f>VLOOKUP(D125,TrueCounts!A:C,2,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>3</v>
       </c>
@@ -3674,8 +4173,12 @@
       <c r="H126" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I126">
+        <f>VLOOKUP(D126,TrueCounts!A:C,2,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>3</v>
       </c>
@@ -3700,8 +4203,12 @@
       <c r="H127" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I127">
+        <f>VLOOKUP(D127,TrueCounts!A:C,2,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>4</v>
       </c>
@@ -3726,8 +4233,12 @@
       <c r="H128" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I128">
+        <f>VLOOKUP(D128,TrueCounts!A:C,2,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>4</v>
       </c>
@@ -3752,8 +4263,12 @@
       <c r="H129" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I129">
+        <f>VLOOKUP(D129,TrueCounts!A:C,2,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>5</v>
       </c>
@@ -3778,8 +4293,12 @@
       <c r="H130" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I130">
+        <f>VLOOKUP(D130,TrueCounts!A:C,2,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>5</v>
       </c>
@@ -3804,8 +4323,12 @@
       <c r="H131" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I131">
+        <f>VLOOKUP(D131,TrueCounts!A:C,2,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>6</v>
       </c>
@@ -3830,8 +4353,12 @@
       <c r="H132" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I132">
+        <f>VLOOKUP(D132,TrueCounts!A:C,2,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>6</v>
       </c>
@@ -3856,8 +4383,12 @@
       <c r="H133" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I133">
+        <f>VLOOKUP(D133,TrueCounts!A:C,2,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>7</v>
       </c>
@@ -3882,8 +4413,12 @@
       <c r="H134" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I134">
+        <f>VLOOKUP(D134,TrueCounts!A:C,2,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>7</v>
       </c>
@@ -3908,8 +4443,12 @@
       <c r="H135" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I135">
+        <f>VLOOKUP(D135,TrueCounts!A:C,2,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>8</v>
       </c>
@@ -3934,8 +4473,12 @@
       <c r="H136" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I136">
+        <f>VLOOKUP(D136,TrueCounts!A:C,2,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>8</v>
       </c>
@@ -3960,8 +4503,12 @@
       <c r="H137" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I137">
+        <f>VLOOKUP(D137,TrueCounts!A:C,2,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>9</v>
       </c>
@@ -3986,8 +4533,12 @@
       <c r="H138" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I138">
+        <f>VLOOKUP(D138,TrueCounts!A:C,2,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>9</v>
       </c>
@@ -4012,8 +4563,12 @@
       <c r="H139" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I139">
+        <f>VLOOKUP(D139,TrueCounts!A:C,2,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>10</v>
       </c>
@@ -4038,8 +4593,12 @@
       <c r="H140" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I140">
+        <f>VLOOKUP(D140,TrueCounts!A:C,2,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>10</v>
       </c>
@@ -4064,8 +4623,12 @@
       <c r="H141" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I141">
+        <f>VLOOKUP(D141,TrueCounts!A:C,2,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>1</v>
       </c>
@@ -4090,8 +4653,12 @@
       <c r="H142" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I142">
+        <f>VLOOKUP(D142,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>1</v>
       </c>
@@ -4116,8 +4683,12 @@
       <c r="H143" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I143">
+        <f>VLOOKUP(D143,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>2</v>
       </c>
@@ -4142,8 +4713,12 @@
       <c r="H144" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I144">
+        <f>VLOOKUP(D144,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>2</v>
       </c>
@@ -4168,8 +4743,12 @@
       <c r="H145" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I145">
+        <f>VLOOKUP(D145,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>3</v>
       </c>
@@ -4194,8 +4773,12 @@
       <c r="H146" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I146">
+        <f>VLOOKUP(D146,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>3</v>
       </c>
@@ -4220,8 +4803,12 @@
       <c r="H147" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I147">
+        <f>VLOOKUP(D147,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>4</v>
       </c>
@@ -4246,8 +4833,12 @@
       <c r="H148" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I148">
+        <f>VLOOKUP(D148,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>4</v>
       </c>
@@ -4272,8 +4863,12 @@
       <c r="H149" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I149">
+        <f>VLOOKUP(D149,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>5</v>
       </c>
@@ -4298,8 +4893,12 @@
       <c r="H150" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I150">
+        <f>VLOOKUP(D150,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>5</v>
       </c>
@@ -4324,8 +4923,12 @@
       <c r="H151" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I151">
+        <f>VLOOKUP(D151,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>6</v>
       </c>
@@ -4350,8 +4953,12 @@
       <c r="H152" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I152">
+        <f>VLOOKUP(D152,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>6</v>
       </c>
@@ -4376,8 +4983,12 @@
       <c r="H153" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I153">
+        <f>VLOOKUP(D153,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>7</v>
       </c>
@@ -4402,8 +5013,12 @@
       <c r="H154" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I154">
+        <f>VLOOKUP(D154,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>7</v>
       </c>
@@ -4428,8 +5043,12 @@
       <c r="H155" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I155">
+        <f>VLOOKUP(D155,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>8</v>
       </c>
@@ -4454,8 +5073,12 @@
       <c r="H156" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I156">
+        <f>VLOOKUP(D156,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>8</v>
       </c>
@@ -4480,8 +5103,12 @@
       <c r="H157" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I157">
+        <f>VLOOKUP(D157,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>9</v>
       </c>
@@ -4506,8 +5133,12 @@
       <c r="H158" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I158">
+        <f>VLOOKUP(D158,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>9</v>
       </c>
@@ -4532,8 +5163,12 @@
       <c r="H159" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I159">
+        <f>VLOOKUP(D159,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>10</v>
       </c>
@@ -4558,8 +5193,12 @@
       <c r="H160" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I160">
+        <f>VLOOKUP(D160,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>10</v>
       </c>
@@ -4584,8 +5223,12 @@
       <c r="H161" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I161">
+        <f>VLOOKUP(D161,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>1</v>
       </c>
@@ -4610,8 +5253,12 @@
       <c r="H162" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I162">
+        <f>VLOOKUP(D162,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>1</v>
       </c>
@@ -4636,8 +5283,12 @@
       <c r="H163" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I163">
+        <f>VLOOKUP(D163,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>2</v>
       </c>
@@ -4662,8 +5313,12 @@
       <c r="H164" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I164">
+        <f>VLOOKUP(D164,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>2</v>
       </c>
@@ -4688,8 +5343,12 @@
       <c r="H165" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I165">
+        <f>VLOOKUP(D165,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>3</v>
       </c>
@@ -4714,8 +5373,12 @@
       <c r="H166" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I166">
+        <f>VLOOKUP(D166,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>3</v>
       </c>
@@ -4740,8 +5403,12 @@
       <c r="H167" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I167">
+        <f>VLOOKUP(D167,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>4</v>
       </c>
@@ -4766,8 +5433,12 @@
       <c r="H168" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I168">
+        <f>VLOOKUP(D168,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>4</v>
       </c>
@@ -4792,8 +5463,12 @@
       <c r="H169" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I169">
+        <f>VLOOKUP(D169,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>5</v>
       </c>
@@ -4818,8 +5493,12 @@
       <c r="H170" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I170">
+        <f>VLOOKUP(D170,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>5</v>
       </c>
@@ -4844,8 +5523,12 @@
       <c r="H171" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I171">
+        <f>VLOOKUP(D171,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>6</v>
       </c>
@@ -4870,8 +5553,12 @@
       <c r="H172" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I172">
+        <f>VLOOKUP(D172,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>6</v>
       </c>
@@ -4896,8 +5583,12 @@
       <c r="H173" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I173">
+        <f>VLOOKUP(D173,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>7</v>
       </c>
@@ -4922,8 +5613,12 @@
       <c r="H174" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I174">
+        <f>VLOOKUP(D174,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>7</v>
       </c>
@@ -4948,8 +5643,12 @@
       <c r="H175" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I175">
+        <f>VLOOKUP(D175,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>8</v>
       </c>
@@ -4974,8 +5673,12 @@
       <c r="H176" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I176">
+        <f>VLOOKUP(D176,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>8</v>
       </c>
@@ -5000,8 +5703,12 @@
       <c r="H177" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I177">
+        <f>VLOOKUP(D177,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>9</v>
       </c>
@@ -5026,8 +5733,12 @@
       <c r="H178" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I178">
+        <f>VLOOKUP(D178,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>9</v>
       </c>
@@ -5052,8 +5763,12 @@
       <c r="H179" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I179">
+        <f>VLOOKUP(D179,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>10</v>
       </c>
@@ -5078,8 +5793,12 @@
       <c r="H180" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I180">
+        <f>VLOOKUP(D180,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>10</v>
       </c>
@@ -5104,8 +5823,12 @@
       <c r="H181" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I181">
+        <f>VLOOKUP(D181,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>1</v>
       </c>
@@ -5130,8 +5853,12 @@
       <c r="H182" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I182">
+        <f>VLOOKUP(D182,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>1</v>
       </c>
@@ -5156,8 +5883,12 @@
       <c r="H183" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I183">
+        <f>VLOOKUP(D183,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>2</v>
       </c>
@@ -5182,8 +5913,12 @@
       <c r="H184" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I184">
+        <f>VLOOKUP(D184,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>2</v>
       </c>
@@ -5208,8 +5943,12 @@
       <c r="H185" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I185">
+        <f>VLOOKUP(D185,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>3</v>
       </c>
@@ -5234,8 +5973,12 @@
       <c r="H186" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I186">
+        <f>VLOOKUP(D186,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>3</v>
       </c>
@@ -5260,8 +6003,12 @@
       <c r="H187" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I187">
+        <f>VLOOKUP(D187,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>4</v>
       </c>
@@ -5286,8 +6033,12 @@
       <c r="H188" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I188">
+        <f>VLOOKUP(D188,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>4</v>
       </c>
@@ -5312,8 +6063,12 @@
       <c r="H189" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I189">
+        <f>VLOOKUP(D189,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>5</v>
       </c>
@@ -5338,8 +6093,12 @@
       <c r="H190" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I190">
+        <f>VLOOKUP(D190,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>5</v>
       </c>
@@ -5364,8 +6123,12 @@
       <c r="H191" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I191">
+        <f>VLOOKUP(D191,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>6</v>
       </c>
@@ -5390,8 +6153,12 @@
       <c r="H192" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I192">
+        <f>VLOOKUP(D192,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>6</v>
       </c>
@@ -5416,8 +6183,12 @@
       <c r="H193" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I193">
+        <f>VLOOKUP(D193,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>7</v>
       </c>
@@ -5442,8 +6213,12 @@
       <c r="H194" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I194">
+        <f>VLOOKUP(D194,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>7</v>
       </c>
@@ -5468,8 +6243,12 @@
       <c r="H195" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I195">
+        <f>VLOOKUP(D195,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>8</v>
       </c>
@@ -5494,8 +6273,12 @@
       <c r="H196" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I196">
+        <f>VLOOKUP(D196,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>8</v>
       </c>
@@ -5520,8 +6303,12 @@
       <c r="H197" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I197">
+        <f>VLOOKUP(D197,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>9</v>
       </c>
@@ -5546,8 +6333,12 @@
       <c r="H198" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I198">
+        <f>VLOOKUP(D198,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>9</v>
       </c>
@@ -5572,8 +6363,12 @@
       <c r="H199" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I199">
+        <f>VLOOKUP(D199,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>10</v>
       </c>
@@ -5598,8 +6393,12 @@
       <c r="H200" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I200">
+        <f>VLOOKUP(D200,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>10</v>
       </c>
@@ -5624,8 +6423,12 @@
       <c r="H201" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I201">
+        <f>VLOOKUP(D201,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>1</v>
       </c>
@@ -5650,8 +6453,12 @@
       <c r="H202" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I202">
+        <f>VLOOKUP(D202,TrueCounts!A:C,2,0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>1</v>
       </c>
@@ -5676,8 +6483,12 @@
       <c r="H203" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I203">
+        <f>VLOOKUP(D203,TrueCounts!A:C,2,0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>2</v>
       </c>
@@ -5702,8 +6513,12 @@
       <c r="H204" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I204">
+        <f>VLOOKUP(D204,TrueCounts!A:C,2,0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>2</v>
       </c>
@@ -5728,8 +6543,12 @@
       <c r="H205" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I205">
+        <f>VLOOKUP(D205,TrueCounts!A:C,2,0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>3</v>
       </c>
@@ -5754,8 +6573,12 @@
       <c r="H206" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I206">
+        <f>VLOOKUP(D206,TrueCounts!A:C,2,0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>3</v>
       </c>
@@ -5780,8 +6603,12 @@
       <c r="H207" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I207">
+        <f>VLOOKUP(D207,TrueCounts!A:C,2,0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>4</v>
       </c>
@@ -5806,8 +6633,12 @@
       <c r="H208" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I208">
+        <f>VLOOKUP(D208,TrueCounts!A:C,2,0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>4</v>
       </c>
@@ -5832,8 +6663,12 @@
       <c r="H209" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I209">
+        <f>VLOOKUP(D209,TrueCounts!A:C,2,0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>5</v>
       </c>
@@ -5858,8 +6693,12 @@
       <c r="H210" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I210">
+        <f>VLOOKUP(D210,TrueCounts!A:C,2,0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>5</v>
       </c>
@@ -5884,8 +6723,12 @@
       <c r="H211" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I211">
+        <f>VLOOKUP(D211,TrueCounts!A:C,2,0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>6</v>
       </c>
@@ -5910,8 +6753,12 @@
       <c r="H212" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I212">
+        <f>VLOOKUP(D212,TrueCounts!A:C,2,0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>6</v>
       </c>
@@ -5936,8 +6783,12 @@
       <c r="H213" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I213">
+        <f>VLOOKUP(D213,TrueCounts!A:C,2,0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>7</v>
       </c>
@@ -5962,8 +6813,12 @@
       <c r="H214" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I214">
+        <f>VLOOKUP(D214,TrueCounts!A:C,2,0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>7</v>
       </c>
@@ -5988,8 +6843,12 @@
       <c r="H215" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I215">
+        <f>VLOOKUP(D215,TrueCounts!A:C,2,0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>8</v>
       </c>
@@ -6014,8 +6873,12 @@
       <c r="H216" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I216">
+        <f>VLOOKUP(D216,TrueCounts!A:C,2,0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>8</v>
       </c>
@@ -6040,8 +6903,12 @@
       <c r="H217" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I217">
+        <f>VLOOKUP(D217,TrueCounts!A:C,2,0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>9</v>
       </c>
@@ -6066,8 +6933,12 @@
       <c r="H218" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I218">
+        <f>VLOOKUP(D218,TrueCounts!A:C,2,0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>9</v>
       </c>
@@ -6092,8 +6963,12 @@
       <c r="H219" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I219">
+        <f>VLOOKUP(D219,TrueCounts!A:C,2,0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>10</v>
       </c>
@@ -6118,8 +6993,12 @@
       <c r="H220" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I220">
+        <f>VLOOKUP(D220,TrueCounts!A:C,2,0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>10</v>
       </c>
@@ -6144,8 +7023,12 @@
       <c r="H221" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I221">
+        <f>VLOOKUP(D221,TrueCounts!A:C,2,0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>1</v>
       </c>
@@ -6170,8 +7053,12 @@
       <c r="H222" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I222">
+        <f>VLOOKUP(D222,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>1</v>
       </c>
@@ -6196,8 +7083,12 @@
       <c r="H223" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I223">
+        <f>VLOOKUP(D223,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>2</v>
       </c>
@@ -6222,8 +7113,12 @@
       <c r="H224" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I224">
+        <f>VLOOKUP(D224,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>2</v>
       </c>
@@ -6248,8 +7143,12 @@
       <c r="H225" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I225">
+        <f>VLOOKUP(D225,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>3</v>
       </c>
@@ -6274,8 +7173,12 @@
       <c r="H226" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I226">
+        <f>VLOOKUP(D226,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>3</v>
       </c>
@@ -6300,8 +7203,12 @@
       <c r="H227" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I227">
+        <f>VLOOKUP(D227,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>4</v>
       </c>
@@ -6326,8 +7233,12 @@
       <c r="H228" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I228">
+        <f>VLOOKUP(D228,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>4</v>
       </c>
@@ -6352,8 +7263,12 @@
       <c r="H229" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I229">
+        <f>VLOOKUP(D229,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>5</v>
       </c>
@@ -6378,8 +7293,12 @@
       <c r="H230" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I230">
+        <f>VLOOKUP(D230,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>5</v>
       </c>
@@ -6404,8 +7323,12 @@
       <c r="H231" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I231">
+        <f>VLOOKUP(D231,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>6</v>
       </c>
@@ -6430,8 +7353,12 @@
       <c r="H232" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I232">
+        <f>VLOOKUP(D232,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>6</v>
       </c>
@@ -6456,8 +7383,12 @@
       <c r="H233" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I233">
+        <f>VLOOKUP(D233,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>7</v>
       </c>
@@ -6482,8 +7413,12 @@
       <c r="H234" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I234">
+        <f>VLOOKUP(D234,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>7</v>
       </c>
@@ -6508,8 +7443,12 @@
       <c r="H235" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I235">
+        <f>VLOOKUP(D235,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>8</v>
       </c>
@@ -6534,8 +7473,12 @@
       <c r="H236" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I236">
+        <f>VLOOKUP(D236,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>8</v>
       </c>
@@ -6560,8 +7503,12 @@
       <c r="H237" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I237">
+        <f>VLOOKUP(D237,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>9</v>
       </c>
@@ -6586,8 +7533,12 @@
       <c r="H238" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I238">
+        <f>VLOOKUP(D238,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>9</v>
       </c>
@@ -6612,8 +7563,12 @@
       <c r="H239" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I239">
+        <f>VLOOKUP(D239,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>10</v>
       </c>
@@ -6638,8 +7593,12 @@
       <c r="H240" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I240">
+        <f>VLOOKUP(D240,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>10</v>
       </c>
@@ -6664,8 +7623,12 @@
       <c r="H241" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I241">
+        <f>VLOOKUP(D241,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>1</v>
       </c>
@@ -6690,8 +7653,12 @@
       <c r="H242" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I242">
+        <f>VLOOKUP(D242,TrueCounts!A:C,2,0)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>1</v>
       </c>
@@ -6716,8 +7683,12 @@
       <c r="H243" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I243">
+        <f>VLOOKUP(D243,TrueCounts!A:C,2,0)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>2</v>
       </c>
@@ -6742,8 +7713,12 @@
       <c r="H244" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I244">
+        <f>VLOOKUP(D244,TrueCounts!A:C,2,0)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>2</v>
       </c>
@@ -6768,8 +7743,12 @@
       <c r="H245" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I245">
+        <f>VLOOKUP(D245,TrueCounts!A:C,2,0)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>3</v>
       </c>
@@ -6794,8 +7773,12 @@
       <c r="H246" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I246">
+        <f>VLOOKUP(D246,TrueCounts!A:C,2,0)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>3</v>
       </c>
@@ -6820,8 +7803,12 @@
       <c r="H247" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I247">
+        <f>VLOOKUP(D247,TrueCounts!A:C,2,0)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>4</v>
       </c>
@@ -6846,8 +7833,12 @@
       <c r="H248" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I248">
+        <f>VLOOKUP(D248,TrueCounts!A:C,2,0)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>4</v>
       </c>
@@ -6872,8 +7863,12 @@
       <c r="H249" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I249">
+        <f>VLOOKUP(D249,TrueCounts!A:C,2,0)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>5</v>
       </c>
@@ -6898,8 +7893,12 @@
       <c r="H250" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I250">
+        <f>VLOOKUP(D250,TrueCounts!A:C,2,0)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>5</v>
       </c>
@@ -6924,8 +7923,12 @@
       <c r="H251" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I251">
+        <f>VLOOKUP(D251,TrueCounts!A:C,2,0)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>6</v>
       </c>
@@ -6950,8 +7953,12 @@
       <c r="H252" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I252">
+        <f>VLOOKUP(D252,TrueCounts!A:C,2,0)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>6</v>
       </c>
@@ -6976,8 +7983,12 @@
       <c r="H253" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I253">
+        <f>VLOOKUP(D253,TrueCounts!A:C,2,0)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>7</v>
       </c>
@@ -7002,8 +8013,12 @@
       <c r="H254" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I254">
+        <f>VLOOKUP(D254,TrueCounts!A:C,2,0)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>7</v>
       </c>
@@ -7028,8 +8043,12 @@
       <c r="H255" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I255">
+        <f>VLOOKUP(D255,TrueCounts!A:C,2,0)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>8</v>
       </c>
@@ -7054,8 +8073,12 @@
       <c r="H256" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I256">
+        <f>VLOOKUP(D256,TrueCounts!A:C,2,0)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>8</v>
       </c>
@@ -7080,8 +8103,12 @@
       <c r="H257" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I257">
+        <f>VLOOKUP(D257,TrueCounts!A:C,2,0)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>9</v>
       </c>
@@ -7106,8 +8133,12 @@
       <c r="H258" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I258">
+        <f>VLOOKUP(D258,TrueCounts!A:C,2,0)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>9</v>
       </c>
@@ -7132,8 +8163,12 @@
       <c r="H259" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I259">
+        <f>VLOOKUP(D259,TrueCounts!A:C,2,0)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>10</v>
       </c>
@@ -7158,8 +8193,12 @@
       <c r="H260" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I260">
+        <f>VLOOKUP(D260,TrueCounts!A:C,2,0)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>10</v>
       </c>
@@ -7184,8 +8223,12 @@
       <c r="H261" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I261">
+        <f>VLOOKUP(D261,TrueCounts!A:C,2,0)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>1</v>
       </c>
@@ -7210,8 +8253,12 @@
       <c r="H262" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I262">
+        <f>VLOOKUP(D262,TrueCounts!A:C,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>1</v>
       </c>
@@ -7236,8 +8283,12 @@
       <c r="H263" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I263">
+        <f>VLOOKUP(D263,TrueCounts!A:C,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>2</v>
       </c>
@@ -7262,8 +8313,12 @@
       <c r="H264" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I264">
+        <f>VLOOKUP(D264,TrueCounts!A:C,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>2</v>
       </c>
@@ -7288,8 +8343,12 @@
       <c r="H265" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I265">
+        <f>VLOOKUP(D265,TrueCounts!A:C,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>3</v>
       </c>
@@ -7314,8 +8373,12 @@
       <c r="H266" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I266">
+        <f>VLOOKUP(D266,TrueCounts!A:C,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>3</v>
       </c>
@@ -7340,8 +8403,12 @@
       <c r="H267" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I267">
+        <f>VLOOKUP(D267,TrueCounts!A:C,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>4</v>
       </c>
@@ -7366,8 +8433,12 @@
       <c r="H268" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I268">
+        <f>VLOOKUP(D268,TrueCounts!A:C,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>4</v>
       </c>
@@ -7392,8 +8463,12 @@
       <c r="H269" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I269">
+        <f>VLOOKUP(D269,TrueCounts!A:C,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>5</v>
       </c>
@@ -7418,8 +8493,12 @@
       <c r="H270" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I270">
+        <f>VLOOKUP(D270,TrueCounts!A:C,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>5</v>
       </c>
@@ -7444,8 +8523,12 @@
       <c r="H271" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I271">
+        <f>VLOOKUP(D271,TrueCounts!A:C,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>6</v>
       </c>
@@ -7470,8 +8553,12 @@
       <c r="H272" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I272">
+        <f>VLOOKUP(D272,TrueCounts!A:C,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>6</v>
       </c>
@@ -7496,8 +8583,12 @@
       <c r="H273" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I273">
+        <f>VLOOKUP(D273,TrueCounts!A:C,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>7</v>
       </c>
@@ -7522,8 +8613,12 @@
       <c r="H274" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I274">
+        <f>VLOOKUP(D274,TrueCounts!A:C,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>7</v>
       </c>
@@ -7548,8 +8643,12 @@
       <c r="H275" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I275">
+        <f>VLOOKUP(D275,TrueCounts!A:C,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>8</v>
       </c>
@@ -7574,8 +8673,12 @@
       <c r="H276" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I276">
+        <f>VLOOKUP(D276,TrueCounts!A:C,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>8</v>
       </c>
@@ -7600,8 +8703,12 @@
       <c r="H277" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I277">
+        <f>VLOOKUP(D277,TrueCounts!A:C,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>9</v>
       </c>
@@ -7626,8 +8733,12 @@
       <c r="H278" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I278">
+        <f>VLOOKUP(D278,TrueCounts!A:C,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>9</v>
       </c>
@@ -7652,8 +8763,12 @@
       <c r="H279" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I279">
+        <f>VLOOKUP(D279,TrueCounts!A:C,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>10</v>
       </c>
@@ -7678,8 +8793,12 @@
       <c r="H280" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I280">
+        <f>VLOOKUP(D280,TrueCounts!A:C,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>10</v>
       </c>
@@ -7704,8 +8823,12 @@
       <c r="H281" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I281">
+        <f>VLOOKUP(D281,TrueCounts!A:C,2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>1</v>
       </c>
@@ -7730,8 +8853,12 @@
       <c r="H282" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I282">
+        <f>VLOOKUP(D282,TrueCounts!A:C,2,0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>1</v>
       </c>
@@ -7756,8 +8883,12 @@
       <c r="H283" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I283">
+        <f>VLOOKUP(D283,TrueCounts!A:C,2,0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>2</v>
       </c>
@@ -7782,8 +8913,12 @@
       <c r="H284" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I284">
+        <f>VLOOKUP(D284,TrueCounts!A:C,2,0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>2</v>
       </c>
@@ -7808,8 +8943,12 @@
       <c r="H285" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I285">
+        <f>VLOOKUP(D285,TrueCounts!A:C,2,0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>3</v>
       </c>
@@ -7834,8 +8973,12 @@
       <c r="H286" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I286">
+        <f>VLOOKUP(D286,TrueCounts!A:C,2,0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>3</v>
       </c>
@@ -7860,8 +9003,12 @@
       <c r="H287" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I287">
+        <f>VLOOKUP(D287,TrueCounts!A:C,2,0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>4</v>
       </c>
@@ -7886,8 +9033,12 @@
       <c r="H288" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I288">
+        <f>VLOOKUP(D288,TrueCounts!A:C,2,0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>4</v>
       </c>
@@ -7912,8 +9063,12 @@
       <c r="H289" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I289">
+        <f>VLOOKUP(D289,TrueCounts!A:C,2,0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>5</v>
       </c>
@@ -7938,8 +9093,12 @@
       <c r="H290" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I290">
+        <f>VLOOKUP(D290,TrueCounts!A:C,2,0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>5</v>
       </c>
@@ -7964,8 +9123,12 @@
       <c r="H291" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I291">
+        <f>VLOOKUP(D291,TrueCounts!A:C,2,0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>6</v>
       </c>
@@ -7990,8 +9153,12 @@
       <c r="H292" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I292">
+        <f>VLOOKUP(D292,TrueCounts!A:C,2,0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>6</v>
       </c>
@@ -8016,8 +9183,12 @@
       <c r="H293" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I293">
+        <f>VLOOKUP(D293,TrueCounts!A:C,2,0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>7</v>
       </c>
@@ -8042,8 +9213,12 @@
       <c r="H294" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I294">
+        <f>VLOOKUP(D294,TrueCounts!A:C,2,0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>7</v>
       </c>
@@ -8068,8 +9243,12 @@
       <c r="H295" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I295">
+        <f>VLOOKUP(D295,TrueCounts!A:C,2,0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>8</v>
       </c>
@@ -8094,8 +9273,12 @@
       <c r="H296" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I296">
+        <f>VLOOKUP(D296,TrueCounts!A:C,2,0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>8</v>
       </c>
@@ -8120,8 +9303,12 @@
       <c r="H297" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I297">
+        <f>VLOOKUP(D297,TrueCounts!A:C,2,0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>9</v>
       </c>
@@ -8146,8 +9333,12 @@
       <c r="H298" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I298">
+        <f>VLOOKUP(D298,TrueCounts!A:C,2,0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>9</v>
       </c>
@@ -8172,8 +9363,12 @@
       <c r="H299" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I299">
+        <f>VLOOKUP(D299,TrueCounts!A:C,2,0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>10</v>
       </c>
@@ -8198,8 +9393,12 @@
       <c r="H300" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I300">
+        <f>VLOOKUP(D300,TrueCounts!A:C,2,0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>10</v>
       </c>
@@ -8224,8 +9423,12 @@
       <c r="H301" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I301">
+        <f>VLOOKUP(D301,TrueCounts!A:C,2,0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>1</v>
       </c>
@@ -8250,8 +9453,12 @@
       <c r="H302" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I302">
+        <f>VLOOKUP(D302,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>1</v>
       </c>
@@ -8276,8 +9483,12 @@
       <c r="H303" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I303">
+        <f>VLOOKUP(D303,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>2</v>
       </c>
@@ -8302,8 +9513,12 @@
       <c r="H304" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I304">
+        <f>VLOOKUP(D304,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>2</v>
       </c>
@@ -8328,8 +9543,12 @@
       <c r="H305" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I305">
+        <f>VLOOKUP(D305,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>3</v>
       </c>
@@ -8354,8 +9573,12 @@
       <c r="H306" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I306">
+        <f>VLOOKUP(D306,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>3</v>
       </c>
@@ -8380,8 +9603,12 @@
       <c r="H307" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I307">
+        <f>VLOOKUP(D307,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>4</v>
       </c>
@@ -8406,8 +9633,12 @@
       <c r="H308" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I308">
+        <f>VLOOKUP(D308,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>4</v>
       </c>
@@ -8432,8 +9663,12 @@
       <c r="H309" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I309">
+        <f>VLOOKUP(D309,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>5</v>
       </c>
@@ -8458,8 +9693,12 @@
       <c r="H310" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I310">
+        <f>VLOOKUP(D310,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>5</v>
       </c>
@@ -8484,8 +9723,12 @@
       <c r="H311" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I311">
+        <f>VLOOKUP(D311,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>6</v>
       </c>
@@ -8510,8 +9753,12 @@
       <c r="H312" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I312">
+        <f>VLOOKUP(D312,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>6</v>
       </c>
@@ -8536,8 +9783,12 @@
       <c r="H313" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I313">
+        <f>VLOOKUP(D313,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>7</v>
       </c>
@@ -8562,8 +9813,12 @@
       <c r="H314" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I314">
+        <f>VLOOKUP(D314,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>7</v>
       </c>
@@ -8588,8 +9843,12 @@
       <c r="H315" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I315">
+        <f>VLOOKUP(D315,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>8</v>
       </c>
@@ -8614,8 +9873,12 @@
       <c r="H316" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I316">
+        <f>VLOOKUP(D316,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>8</v>
       </c>
@@ -8640,8 +9903,12 @@
       <c r="H317" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I317">
+        <f>VLOOKUP(D317,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>9</v>
       </c>
@@ -8666,8 +9933,12 @@
       <c r="H318" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I318">
+        <f>VLOOKUP(D318,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>9</v>
       </c>
@@ -8692,8 +9963,12 @@
       <c r="H319" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I319">
+        <f>VLOOKUP(D319,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>10</v>
       </c>
@@ -8718,8 +9993,12 @@
       <c r="H320" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I320">
+        <f>VLOOKUP(D320,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>10</v>
       </c>
@@ -8744,8 +10023,12 @@
       <c r="H321" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I321">
+        <f>VLOOKUP(D321,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>1</v>
       </c>
@@ -8770,8 +10053,12 @@
       <c r="H322" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I322">
+        <f>VLOOKUP(D322,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>1</v>
       </c>
@@ -8796,8 +10083,12 @@
       <c r="H323" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I323">
+        <f>VLOOKUP(D323,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>2</v>
       </c>
@@ -8822,8 +10113,12 @@
       <c r="H324" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I324">
+        <f>VLOOKUP(D324,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>2</v>
       </c>
@@ -8848,8 +10143,12 @@
       <c r="H325" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I325">
+        <f>VLOOKUP(D325,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>3</v>
       </c>
@@ -8874,8 +10173,12 @@
       <c r="H326" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I326">
+        <f>VLOOKUP(D326,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>3</v>
       </c>
@@ -8900,8 +10203,12 @@
       <c r="H327" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I327">
+        <f>VLOOKUP(D327,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>4</v>
       </c>
@@ -8926,8 +10233,12 @@
       <c r="H328" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I328">
+        <f>VLOOKUP(D328,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>4</v>
       </c>
@@ -8952,8 +10263,12 @@
       <c r="H329" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I329">
+        <f>VLOOKUP(D329,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>5</v>
       </c>
@@ -8978,8 +10293,12 @@
       <c r="H330" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I330">
+        <f>VLOOKUP(D330,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>5</v>
       </c>
@@ -9004,8 +10323,12 @@
       <c r="H331" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I331">
+        <f>VLOOKUP(D331,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>6</v>
       </c>
@@ -9030,8 +10353,12 @@
       <c r="H332" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I332">
+        <f>VLOOKUP(D332,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>6</v>
       </c>
@@ -9056,8 +10383,12 @@
       <c r="H333" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I333">
+        <f>VLOOKUP(D333,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>7</v>
       </c>
@@ -9082,8 +10413,12 @@
       <c r="H334" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I334">
+        <f>VLOOKUP(D334,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>7</v>
       </c>
@@ -9108,8 +10443,12 @@
       <c r="H335" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I335">
+        <f>VLOOKUP(D335,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>8</v>
       </c>
@@ -9134,8 +10473,12 @@
       <c r="H336" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I336">
+        <f>VLOOKUP(D336,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>8</v>
       </c>
@@ -9160,8 +10503,12 @@
       <c r="H337" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I337">
+        <f>VLOOKUP(D337,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>9</v>
       </c>
@@ -9186,8 +10533,12 @@
       <c r="H338" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I338">
+        <f>VLOOKUP(D338,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>9</v>
       </c>
@@ -9212,8 +10563,12 @@
       <c r="H339" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I339">
+        <f>VLOOKUP(D339,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>10</v>
       </c>
@@ -9238,8 +10593,12 @@
       <c r="H340" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I340">
+        <f>VLOOKUP(D340,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>10</v>
       </c>
@@ -9264,8 +10623,12 @@
       <c r="H341" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I341">
+        <f>VLOOKUP(D341,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>1</v>
       </c>
@@ -9290,8 +10653,12 @@
       <c r="H342" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I342">
+        <f>VLOOKUP(D342,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>1</v>
       </c>
@@ -9316,8 +10683,12 @@
       <c r="H343" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I343">
+        <f>VLOOKUP(D343,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>2</v>
       </c>
@@ -9342,8 +10713,12 @@
       <c r="H344" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I344">
+        <f>VLOOKUP(D344,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>2</v>
       </c>
@@ -9368,8 +10743,12 @@
       <c r="H345" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I345">
+        <f>VLOOKUP(D345,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>3</v>
       </c>
@@ -9394,8 +10773,12 @@
       <c r="H346" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I346">
+        <f>VLOOKUP(D346,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>3</v>
       </c>
@@ -9420,8 +10803,12 @@
       <c r="H347" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I347">
+        <f>VLOOKUP(D347,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>4</v>
       </c>
@@ -9446,8 +10833,12 @@
       <c r="H348" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I348">
+        <f>VLOOKUP(D348,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>4</v>
       </c>
@@ -9472,8 +10863,12 @@
       <c r="H349" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I349">
+        <f>VLOOKUP(D349,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>5</v>
       </c>
@@ -9498,8 +10893,12 @@
       <c r="H350" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I350">
+        <f>VLOOKUP(D350,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>5</v>
       </c>
@@ -9524,8 +10923,12 @@
       <c r="H351" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I351">
+        <f>VLOOKUP(D351,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>6</v>
       </c>
@@ -9550,8 +10953,12 @@
       <c r="H352" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I352">
+        <f>VLOOKUP(D352,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>6</v>
       </c>
@@ -9576,8 +10983,12 @@
       <c r="H353" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I353">
+        <f>VLOOKUP(D353,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>7</v>
       </c>
@@ -9602,8 +11013,12 @@
       <c r="H354" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I354">
+        <f>VLOOKUP(D354,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>7</v>
       </c>
@@ -9628,8 +11043,12 @@
       <c r="H355" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I355">
+        <f>VLOOKUP(D355,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>8</v>
       </c>
@@ -9654,8 +11073,12 @@
       <c r="H356" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I356">
+        <f>VLOOKUP(D356,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>8</v>
       </c>
@@ -9680,8 +11103,12 @@
       <c r="H357" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I357">
+        <f>VLOOKUP(D357,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>9</v>
       </c>
@@ -9706,8 +11133,12 @@
       <c r="H358" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I358">
+        <f>VLOOKUP(D358,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>9</v>
       </c>
@@ -9732,8 +11163,12 @@
       <c r="H359" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I359">
+        <f>VLOOKUP(D359,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>10</v>
       </c>
@@ -9758,8 +11193,12 @@
       <c r="H360" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I360">
+        <f>VLOOKUP(D360,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>10</v>
       </c>
@@ -9784,8 +11223,12 @@
       <c r="H361" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I361">
+        <f>VLOOKUP(D361,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>1</v>
       </c>
@@ -9810,8 +11253,12 @@
       <c r="H362" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I362">
+        <f>VLOOKUP(D362,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>1</v>
       </c>
@@ -9836,8 +11283,12 @@
       <c r="H363" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I363">
+        <f>VLOOKUP(D363,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>2</v>
       </c>
@@ -9862,8 +11313,12 @@
       <c r="H364" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I364">
+        <f>VLOOKUP(D364,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>2</v>
       </c>
@@ -9888,8 +11343,12 @@
       <c r="H365" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I365">
+        <f>VLOOKUP(D365,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>3</v>
       </c>
@@ -9914,8 +11373,12 @@
       <c r="H366" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I366">
+        <f>VLOOKUP(D366,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>3</v>
       </c>
@@ -9940,8 +11403,12 @@
       <c r="H367" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I367">
+        <f>VLOOKUP(D367,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>4</v>
       </c>
@@ -9966,8 +11433,12 @@
       <c r="H368" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I368">
+        <f>VLOOKUP(D368,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>4</v>
       </c>
@@ -9992,8 +11463,12 @@
       <c r="H369" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I369">
+        <f>VLOOKUP(D369,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>5</v>
       </c>
@@ -10018,8 +11493,12 @@
       <c r="H370" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I370">
+        <f>VLOOKUP(D370,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>5</v>
       </c>
@@ -10044,8 +11523,12 @@
       <c r="H371" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I371">
+        <f>VLOOKUP(D371,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>6</v>
       </c>
@@ -10070,8 +11553,12 @@
       <c r="H372" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I372">
+        <f>VLOOKUP(D372,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>6</v>
       </c>
@@ -10096,8 +11583,12 @@
       <c r="H373" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I373">
+        <f>VLOOKUP(D373,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>7</v>
       </c>
@@ -10122,8 +11613,12 @@
       <c r="H374" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I374">
+        <f>VLOOKUP(D374,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>7</v>
       </c>
@@ -10148,8 +11643,12 @@
       <c r="H375" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I375">
+        <f>VLOOKUP(D375,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>8</v>
       </c>
@@ -10174,8 +11673,12 @@
       <c r="H376" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I376">
+        <f>VLOOKUP(D376,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>8</v>
       </c>
@@ -10200,8 +11703,12 @@
       <c r="H377" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I377">
+        <f>VLOOKUP(D377,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>9</v>
       </c>
@@ -10226,8 +11733,12 @@
       <c r="H378" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I378">
+        <f>VLOOKUP(D378,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>9</v>
       </c>
@@ -10252,8 +11763,12 @@
       <c r="H379" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I379">
+        <f>VLOOKUP(D379,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>10</v>
       </c>
@@ -10278,8 +11793,12 @@
       <c r="H380" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I380">
+        <f>VLOOKUP(D380,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>10</v>
       </c>
@@ -10304,8 +11823,12 @@
       <c r="H381" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I381">
+        <f>VLOOKUP(D381,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>1</v>
       </c>
@@ -10330,8 +11853,12 @@
       <c r="H382" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I382">
+        <f>VLOOKUP(D382,TrueCounts!A:C,2,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>1</v>
       </c>
@@ -10356,8 +11883,12 @@
       <c r="H383" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I383">
+        <f>VLOOKUP(D383,TrueCounts!A:C,2,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>2</v>
       </c>
@@ -10382,8 +11913,12 @@
       <c r="H384" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I384">
+        <f>VLOOKUP(D384,TrueCounts!A:C,2,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>2</v>
       </c>
@@ -10408,8 +11943,12 @@
       <c r="H385" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I385">
+        <f>VLOOKUP(D385,TrueCounts!A:C,2,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>3</v>
       </c>
@@ -10434,8 +11973,12 @@
       <c r="H386" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I386">
+        <f>VLOOKUP(D386,TrueCounts!A:C,2,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>3</v>
       </c>
@@ -10460,8 +12003,12 @@
       <c r="H387" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I387">
+        <f>VLOOKUP(D387,TrueCounts!A:C,2,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>4</v>
       </c>
@@ -10486,8 +12033,12 @@
       <c r="H388" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I388">
+        <f>VLOOKUP(D388,TrueCounts!A:C,2,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>4</v>
       </c>
@@ -10512,8 +12063,12 @@
       <c r="H389" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I389">
+        <f>VLOOKUP(D389,TrueCounts!A:C,2,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>5</v>
       </c>
@@ -10538,8 +12093,12 @@
       <c r="H390" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I390">
+        <f>VLOOKUP(D390,TrueCounts!A:C,2,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>5</v>
       </c>
@@ -10564,8 +12123,12 @@
       <c r="H391" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I391">
+        <f>VLOOKUP(D391,TrueCounts!A:C,2,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>6</v>
       </c>
@@ -10590,8 +12153,12 @@
       <c r="H392" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I392">
+        <f>VLOOKUP(D392,TrueCounts!A:C,2,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>6</v>
       </c>
@@ -10616,8 +12183,12 @@
       <c r="H393" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I393">
+        <f>VLOOKUP(D393,TrueCounts!A:C,2,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>7</v>
       </c>
@@ -10642,8 +12213,12 @@
       <c r="H394" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I394">
+        <f>VLOOKUP(D394,TrueCounts!A:C,2,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>7</v>
       </c>
@@ -10668,8 +12243,12 @@
       <c r="H395" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I395">
+        <f>VLOOKUP(D395,TrueCounts!A:C,2,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>8</v>
       </c>
@@ -10694,8 +12273,12 @@
       <c r="H396" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I396">
+        <f>VLOOKUP(D396,TrueCounts!A:C,2,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>8</v>
       </c>
@@ -10720,8 +12303,12 @@
       <c r="H397" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I397">
+        <f>VLOOKUP(D397,TrueCounts!A:C,2,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>9</v>
       </c>
@@ -10746,8 +12333,12 @@
       <c r="H398" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I398">
+        <f>VLOOKUP(D398,TrueCounts!A:C,2,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>9</v>
       </c>
@@ -10772,8 +12363,12 @@
       <c r="H399" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I399">
+        <f>VLOOKUP(D399,TrueCounts!A:C,2,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>10</v>
       </c>
@@ -10798,8 +12393,12 @@
       <c r="H400" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I400">
+        <f>VLOOKUP(D400,TrueCounts!A:C,2,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>10</v>
       </c>
@@ -10824,8 +12423,12 @@
       <c r="H401" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I401">
+        <f>VLOOKUP(D401,TrueCounts!A:C,2,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>1</v>
       </c>
@@ -10850,8 +12453,12 @@
       <c r="H402" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I402">
+        <f>VLOOKUP(D402,TrueCounts!A:C,2,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>1</v>
       </c>
@@ -10876,8 +12483,12 @@
       <c r="H403" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I403">
+        <f>VLOOKUP(D403,TrueCounts!A:C,2,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>2</v>
       </c>
@@ -10902,8 +12513,12 @@
       <c r="H404" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I404">
+        <f>VLOOKUP(D404,TrueCounts!A:C,2,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>2</v>
       </c>
@@ -10928,8 +12543,12 @@
       <c r="H405" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I405">
+        <f>VLOOKUP(D405,TrueCounts!A:C,2,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>3</v>
       </c>
@@ -10954,8 +12573,12 @@
       <c r="H406" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I406">
+        <f>VLOOKUP(D406,TrueCounts!A:C,2,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>3</v>
       </c>
@@ -10980,8 +12603,12 @@
       <c r="H407" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I407">
+        <f>VLOOKUP(D407,TrueCounts!A:C,2,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>4</v>
       </c>
@@ -11006,8 +12633,12 @@
       <c r="H408" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I408">
+        <f>VLOOKUP(D408,TrueCounts!A:C,2,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>4</v>
       </c>
@@ -11032,8 +12663,12 @@
       <c r="H409" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I409">
+        <f>VLOOKUP(D409,TrueCounts!A:C,2,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>5</v>
       </c>
@@ -11058,8 +12693,12 @@
       <c r="H410" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I410">
+        <f>VLOOKUP(D410,TrueCounts!A:C,2,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>5</v>
       </c>
@@ -11084,8 +12723,12 @@
       <c r="H411" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I411">
+        <f>VLOOKUP(D411,TrueCounts!A:C,2,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>6</v>
       </c>
@@ -11110,8 +12753,12 @@
       <c r="H412" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I412">
+        <f>VLOOKUP(D412,TrueCounts!A:C,2,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>6</v>
       </c>
@@ -11136,8 +12783,12 @@
       <c r="H413" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I413">
+        <f>VLOOKUP(D413,TrueCounts!A:C,2,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>7</v>
       </c>
@@ -11162,8 +12813,12 @@
       <c r="H414" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I414">
+        <f>VLOOKUP(D414,TrueCounts!A:C,2,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>7</v>
       </c>
@@ -11188,8 +12843,12 @@
       <c r="H415" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I415">
+        <f>VLOOKUP(D415,TrueCounts!A:C,2,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>8</v>
       </c>
@@ -11214,8 +12873,12 @@
       <c r="H416" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I416">
+        <f>VLOOKUP(D416,TrueCounts!A:C,2,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>8</v>
       </c>
@@ -11240,8 +12903,12 @@
       <c r="H417" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I417">
+        <f>VLOOKUP(D417,TrueCounts!A:C,2,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>9</v>
       </c>
@@ -11266,8 +12933,12 @@
       <c r="H418" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I418">
+        <f>VLOOKUP(D418,TrueCounts!A:C,2,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>9</v>
       </c>
@@ -11292,8 +12963,12 @@
       <c r="H419" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I419">
+        <f>VLOOKUP(D419,TrueCounts!A:C,2,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>10</v>
       </c>
@@ -11318,8 +12993,12 @@
       <c r="H420" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I420">
+        <f>VLOOKUP(D420,TrueCounts!A:C,2,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>10</v>
       </c>
@@ -11344,8 +13023,12 @@
       <c r="H421" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I421">
+        <f>VLOOKUP(D421,TrueCounts!A:C,2,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>1</v>
       </c>
@@ -11370,8 +13053,12 @@
       <c r="H422" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I422">
+        <f>VLOOKUP(D422,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>1</v>
       </c>
@@ -11396,8 +13083,12 @@
       <c r="H423" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I423">
+        <f>VLOOKUP(D423,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>2</v>
       </c>
@@ -11422,8 +13113,12 @@
       <c r="H424" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I424">
+        <f>VLOOKUP(D424,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>2</v>
       </c>
@@ -11448,8 +13143,12 @@
       <c r="H425" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I425">
+        <f>VLOOKUP(D425,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>3</v>
       </c>
@@ -11474,8 +13173,12 @@
       <c r="H426" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I426">
+        <f>VLOOKUP(D426,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>3</v>
       </c>
@@ -11500,8 +13203,12 @@
       <c r="H427" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I427">
+        <f>VLOOKUP(D427,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>4</v>
       </c>
@@ -11526,8 +13233,12 @@
       <c r="H428" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I428">
+        <f>VLOOKUP(D428,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>4</v>
       </c>
@@ -11552,8 +13263,12 @@
       <c r="H429" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I429">
+        <f>VLOOKUP(D429,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>5</v>
       </c>
@@ -11578,8 +13293,12 @@
       <c r="H430" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I430">
+        <f>VLOOKUP(D430,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>5</v>
       </c>
@@ -11604,8 +13323,12 @@
       <c r="H431" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I431">
+        <f>VLOOKUP(D431,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>6</v>
       </c>
@@ -11630,8 +13353,12 @@
       <c r="H432" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I432">
+        <f>VLOOKUP(D432,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>6</v>
       </c>
@@ -11656,8 +13383,12 @@
       <c r="H433" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I433">
+        <f>VLOOKUP(D433,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>7</v>
       </c>
@@ -11682,8 +13413,12 @@
       <c r="H434" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I434">
+        <f>VLOOKUP(D434,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>7</v>
       </c>
@@ -11708,8 +13443,12 @@
       <c r="H435" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I435">
+        <f>VLOOKUP(D435,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>8</v>
       </c>
@@ -11734,8 +13473,12 @@
       <c r="H436" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I436">
+        <f>VLOOKUP(D436,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>8</v>
       </c>
@@ -11760,8 +13503,12 @@
       <c r="H437" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I437">
+        <f>VLOOKUP(D437,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>9</v>
       </c>
@@ -11786,8 +13533,12 @@
       <c r="H438" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I438">
+        <f>VLOOKUP(D438,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>9</v>
       </c>
@@ -11812,8 +13563,12 @@
       <c r="H439" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I439">
+        <f>VLOOKUP(D439,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>10</v>
       </c>
@@ -11838,8 +13593,12 @@
       <c r="H440" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I440">
+        <f>VLOOKUP(D440,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>10</v>
       </c>
@@ -11864,8 +13623,12 @@
       <c r="H441" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I441">
+        <f>VLOOKUP(D441,TrueCounts!A:C,2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>1</v>
       </c>
@@ -11890,8 +13653,12 @@
       <c r="H442" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I442">
+        <f>VLOOKUP(D442,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>1</v>
       </c>
@@ -11916,8 +13683,12 @@
       <c r="H443" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I443">
+        <f>VLOOKUP(D443,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>2</v>
       </c>
@@ -11942,8 +13713,12 @@
       <c r="H444" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I444">
+        <f>VLOOKUP(D444,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>2</v>
       </c>
@@ -11968,8 +13743,12 @@
       <c r="H445" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I445">
+        <f>VLOOKUP(D445,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>3</v>
       </c>
@@ -11994,8 +13773,12 @@
       <c r="H446" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I446">
+        <f>VLOOKUP(D446,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>3</v>
       </c>
@@ -12020,8 +13803,12 @@
       <c r="H447" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I447">
+        <f>VLOOKUP(D447,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>4</v>
       </c>
@@ -12046,8 +13833,12 @@
       <c r="H448" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I448">
+        <f>VLOOKUP(D448,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>4</v>
       </c>
@@ -12072,8 +13863,12 @@
       <c r="H449" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I449">
+        <f>VLOOKUP(D449,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>5</v>
       </c>
@@ -12098,8 +13893,12 @@
       <c r="H450" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I450">
+        <f>VLOOKUP(D450,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>5</v>
       </c>
@@ -12124,8 +13923,12 @@
       <c r="H451" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I451">
+        <f>VLOOKUP(D451,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>6</v>
       </c>
@@ -12150,8 +13953,12 @@
       <c r="H452" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I452">
+        <f>VLOOKUP(D452,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>6</v>
       </c>
@@ -12176,8 +13983,12 @@
       <c r="H453" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I453">
+        <f>VLOOKUP(D453,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>7</v>
       </c>
@@ -12202,8 +14013,12 @@
       <c r="H454" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I454">
+        <f>VLOOKUP(D454,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>7</v>
       </c>
@@ -12228,8 +14043,12 @@
       <c r="H455" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I455">
+        <f>VLOOKUP(D455,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>8</v>
       </c>
@@ -12254,8 +14073,12 @@
       <c r="H456" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I456">
+        <f>VLOOKUP(D456,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>8</v>
       </c>
@@ -12280,8 +14103,12 @@
       <c r="H457" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I457">
+        <f>VLOOKUP(D457,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>9</v>
       </c>
@@ -12306,8 +14133,12 @@
       <c r="H458" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I458">
+        <f>VLOOKUP(D458,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>9</v>
       </c>
@@ -12332,8 +14163,12 @@
       <c r="H459" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I459">
+        <f>VLOOKUP(D459,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>10</v>
       </c>
@@ -12358,8 +14193,12 @@
       <c r="H460" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I460">
+        <f>VLOOKUP(D460,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>10</v>
       </c>
@@ -12384,8 +14223,12 @@
       <c r="H461" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I461">
+        <f>VLOOKUP(D461,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>1</v>
       </c>
@@ -12410,8 +14253,12 @@
       <c r="H462" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I462">
+        <f>VLOOKUP(D462,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>1</v>
       </c>
@@ -12436,8 +14283,12 @@
       <c r="H463" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I463">
+        <f>VLOOKUP(D463,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>2</v>
       </c>
@@ -12462,8 +14313,12 @@
       <c r="H464" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I464">
+        <f>VLOOKUP(D464,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>2</v>
       </c>
@@ -12488,8 +14343,12 @@
       <c r="H465" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I465">
+        <f>VLOOKUP(D465,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>3</v>
       </c>
@@ -12514,8 +14373,12 @@
       <c r="H466" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I466">
+        <f>VLOOKUP(D466,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>3</v>
       </c>
@@ -12540,8 +14403,12 @@
       <c r="H467" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I467">
+        <f>VLOOKUP(D467,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>4</v>
       </c>
@@ -12566,8 +14433,12 @@
       <c r="H468" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I468">
+        <f>VLOOKUP(D468,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>4</v>
       </c>
@@ -12592,8 +14463,12 @@
       <c r="H469" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I469">
+        <f>VLOOKUP(D469,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>5</v>
       </c>
@@ -12618,8 +14493,12 @@
       <c r="H470" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I470">
+        <f>VLOOKUP(D470,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>5</v>
       </c>
@@ -12644,8 +14523,12 @@
       <c r="H471" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I471">
+        <f>VLOOKUP(D471,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>6</v>
       </c>
@@ -12670,8 +14553,12 @@
       <c r="H472" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I472">
+        <f>VLOOKUP(D472,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>6</v>
       </c>
@@ -12696,8 +14583,12 @@
       <c r="H473" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I473">
+        <f>VLOOKUP(D473,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>7</v>
       </c>
@@ -12722,8 +14613,12 @@
       <c r="H474" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I474">
+        <f>VLOOKUP(D474,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>7</v>
       </c>
@@ -12748,8 +14643,12 @@
       <c r="H475" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I475">
+        <f>VLOOKUP(D475,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>8</v>
       </c>
@@ -12774,8 +14673,12 @@
       <c r="H476" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I476">
+        <f>VLOOKUP(D476,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>8</v>
       </c>
@@ -12800,8 +14703,12 @@
       <c r="H477" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I477">
+        <f>VLOOKUP(D477,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>9</v>
       </c>
@@ -12826,8 +14733,12 @@
       <c r="H478" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I478">
+        <f>VLOOKUP(D478,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>9</v>
       </c>
@@ -12852,8 +14763,12 @@
       <c r="H479" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I479">
+        <f>VLOOKUP(D479,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>10</v>
       </c>
@@ -12878,8 +14793,12 @@
       <c r="H480" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I480">
+        <f>VLOOKUP(D480,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>10</v>
       </c>
@@ -12904,8 +14823,12 @@
       <c r="H481" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I481">
+        <f>VLOOKUP(D481,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>1</v>
       </c>
@@ -12930,8 +14853,12 @@
       <c r="H482" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I482">
+        <f>VLOOKUP(D482,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>1</v>
       </c>
@@ -12956,8 +14883,12 @@
       <c r="H483" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I483">
+        <f>VLOOKUP(D483,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>2</v>
       </c>
@@ -12982,8 +14913,12 @@
       <c r="H484" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I484">
+        <f>VLOOKUP(D484,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>2</v>
       </c>
@@ -13008,8 +14943,12 @@
       <c r="H485" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I485">
+        <f>VLOOKUP(D485,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>3</v>
       </c>
@@ -13034,8 +14973,12 @@
       <c r="H486" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I486">
+        <f>VLOOKUP(D486,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>3</v>
       </c>
@@ -13060,8 +15003,12 @@
       <c r="H487" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I487">
+        <f>VLOOKUP(D487,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>4</v>
       </c>
@@ -13086,8 +15033,12 @@
       <c r="H488" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I488">
+        <f>VLOOKUP(D488,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>4</v>
       </c>
@@ -13112,8 +15063,12 @@
       <c r="H489" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I489">
+        <f>VLOOKUP(D489,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>5</v>
       </c>
@@ -13138,8 +15093,12 @@
       <c r="H490" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I490">
+        <f>VLOOKUP(D490,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>5</v>
       </c>
@@ -13164,8 +15123,12 @@
       <c r="H491" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I491">
+        <f>VLOOKUP(D491,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>6</v>
       </c>
@@ -13190,8 +15153,12 @@
       <c r="H492" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I492">
+        <f>VLOOKUP(D492,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>6</v>
       </c>
@@ -13216,8 +15183,12 @@
       <c r="H493" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I493">
+        <f>VLOOKUP(D493,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>7</v>
       </c>
@@ -13242,8 +15213,12 @@
       <c r="H494" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I494">
+        <f>VLOOKUP(D494,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>7</v>
       </c>
@@ -13268,8 +15243,12 @@
       <c r="H495" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I495">
+        <f>VLOOKUP(D495,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>8</v>
       </c>
@@ -13294,8 +15273,12 @@
       <c r="H496" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I496">
+        <f>VLOOKUP(D496,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>8</v>
       </c>
@@ -13320,8 +15303,12 @@
       <c r="H497" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I497">
+        <f>VLOOKUP(D497,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>9</v>
       </c>
@@ -13346,8 +15333,12 @@
       <c r="H498" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I498">
+        <f>VLOOKUP(D498,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>9</v>
       </c>
@@ -13372,8 +15363,12 @@
       <c r="H499" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I499">
+        <f>VLOOKUP(D499,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>10</v>
       </c>
@@ -13398,8 +15393,12 @@
       <c r="H500" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I500">
+        <f>VLOOKUP(D500,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>10</v>
       </c>
@@ -13424,8 +15423,12 @@
       <c r="H501" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I501">
+        <f>VLOOKUP(D501,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>1</v>
       </c>
@@ -13450,8 +15453,12 @@
       <c r="H502" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I502">
+        <f>VLOOKUP(D502,TrueCounts!A:C,2,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="503" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>1</v>
       </c>
@@ -13476,8 +15483,12 @@
       <c r="H503" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I503">
+        <f>VLOOKUP(D503,TrueCounts!A:C,2,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="504" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>2</v>
       </c>
@@ -13502,8 +15513,12 @@
       <c r="H504" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I504">
+        <f>VLOOKUP(D504,TrueCounts!A:C,2,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="505" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>2</v>
       </c>
@@ -13528,8 +15543,12 @@
       <c r="H505" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I505">
+        <f>VLOOKUP(D505,TrueCounts!A:C,2,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="506" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>3</v>
       </c>
@@ -13554,8 +15573,12 @@
       <c r="H506" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I506">
+        <f>VLOOKUP(D506,TrueCounts!A:C,2,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="507" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>3</v>
       </c>
@@ -13580,8 +15603,12 @@
       <c r="H507" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I507">
+        <f>VLOOKUP(D507,TrueCounts!A:C,2,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="508" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>4</v>
       </c>
@@ -13606,8 +15633,12 @@
       <c r="H508" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I508">
+        <f>VLOOKUP(D508,TrueCounts!A:C,2,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="509" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>4</v>
       </c>
@@ -13632,8 +15663,12 @@
       <c r="H509" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I509">
+        <f>VLOOKUP(D509,TrueCounts!A:C,2,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="510" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>5</v>
       </c>
@@ -13658,8 +15693,12 @@
       <c r="H510" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I510">
+        <f>VLOOKUP(D510,TrueCounts!A:C,2,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="511" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>5</v>
       </c>
@@ -13684,8 +15723,12 @@
       <c r="H511" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I511">
+        <f>VLOOKUP(D511,TrueCounts!A:C,2,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="512" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>6</v>
       </c>
@@ -13710,8 +15753,12 @@
       <c r="H512" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I512">
+        <f>VLOOKUP(D512,TrueCounts!A:C,2,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="513" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>6</v>
       </c>
@@ -13736,8 +15783,12 @@
       <c r="H513" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I513">
+        <f>VLOOKUP(D513,TrueCounts!A:C,2,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="514" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>7</v>
       </c>
@@ -13762,8 +15813,12 @@
       <c r="H514" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I514">
+        <f>VLOOKUP(D514,TrueCounts!A:C,2,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="515" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>7</v>
       </c>
@@ -13788,8 +15843,12 @@
       <c r="H515" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I515">
+        <f>VLOOKUP(D515,TrueCounts!A:C,2,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="516" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>8</v>
       </c>
@@ -13814,8 +15873,12 @@
       <c r="H516" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I516">
+        <f>VLOOKUP(D516,TrueCounts!A:C,2,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="517" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>8</v>
       </c>
@@ -13840,8 +15903,12 @@
       <c r="H517" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I517">
+        <f>VLOOKUP(D517,TrueCounts!A:C,2,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="518" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>9</v>
       </c>
@@ -13866,8 +15933,12 @@
       <c r="H518" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I518">
+        <f>VLOOKUP(D518,TrueCounts!A:C,2,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="519" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>9</v>
       </c>
@@ -13892,8 +15963,12 @@
       <c r="H519" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I519">
+        <f>VLOOKUP(D519,TrueCounts!A:C,2,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="520" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>10</v>
       </c>
@@ -13918,8 +15993,12 @@
       <c r="H520" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I520">
+        <f>VLOOKUP(D520,TrueCounts!A:C,2,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="521" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>10</v>
       </c>
@@ -13944,8 +16023,12 @@
       <c r="H521" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I521">
+        <f>VLOOKUP(D521,TrueCounts!A:C,2,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="522" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>1</v>
       </c>
@@ -13970,8 +16053,12 @@
       <c r="H522" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I522">
+        <f>VLOOKUP(D522,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="523" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>1</v>
       </c>
@@ -13996,8 +16083,12 @@
       <c r="H523" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I523">
+        <f>VLOOKUP(D523,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="524" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>2</v>
       </c>
@@ -14022,8 +16113,12 @@
       <c r="H524" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I524">
+        <f>VLOOKUP(D524,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="525" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>2</v>
       </c>
@@ -14048,8 +16143,12 @@
       <c r="H525" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I525">
+        <f>VLOOKUP(D525,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="526" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>3</v>
       </c>
@@ -14074,8 +16173,12 @@
       <c r="H526" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I526">
+        <f>VLOOKUP(D526,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="527" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>3</v>
       </c>
@@ -14100,8 +16203,12 @@
       <c r="H527" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I527">
+        <f>VLOOKUP(D527,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="528" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>4</v>
       </c>
@@ -14126,8 +16233,12 @@
       <c r="H528" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I528">
+        <f>VLOOKUP(D528,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="529" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>4</v>
       </c>
@@ -14152,8 +16263,12 @@
       <c r="H529" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I529">
+        <f>VLOOKUP(D529,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="530" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>5</v>
       </c>
@@ -14178,8 +16293,12 @@
       <c r="H530" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I530">
+        <f>VLOOKUP(D530,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="531" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>5</v>
       </c>
@@ -14204,8 +16323,12 @@
       <c r="H531" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I531">
+        <f>VLOOKUP(D531,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="532" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>6</v>
       </c>
@@ -14230,8 +16353,12 @@
       <c r="H532" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I532">
+        <f>VLOOKUP(D532,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="533" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>6</v>
       </c>
@@ -14256,8 +16383,12 @@
       <c r="H533" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I533">
+        <f>VLOOKUP(D533,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="534" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>7</v>
       </c>
@@ -14282,8 +16413,12 @@
       <c r="H534" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I534">
+        <f>VLOOKUP(D534,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="535" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>7</v>
       </c>
@@ -14308,8 +16443,12 @@
       <c r="H535" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I535">
+        <f>VLOOKUP(D535,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="536" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>8</v>
       </c>
@@ -14334,8 +16473,12 @@
       <c r="H536" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I536">
+        <f>VLOOKUP(D536,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="537" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>8</v>
       </c>
@@ -14360,8 +16503,12 @@
       <c r="H537" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I537">
+        <f>VLOOKUP(D537,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="538" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>9</v>
       </c>
@@ -14386,8 +16533,12 @@
       <c r="H538" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I538">
+        <f>VLOOKUP(D538,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="539" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>9</v>
       </c>
@@ -14412,8 +16563,12 @@
       <c r="H539" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I539">
+        <f>VLOOKUP(D539,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="540" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>10</v>
       </c>
@@ -14438,8 +16593,12 @@
       <c r="H540" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I540">
+        <f>VLOOKUP(D540,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="541" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>10</v>
       </c>
@@ -14464,8 +16623,12 @@
       <c r="H541" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I541">
+        <f>VLOOKUP(D541,TrueCounts!A:C,2,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="542" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>1</v>
       </c>
@@ -14490,8 +16653,12 @@
       <c r="H542" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I542">
+        <f>VLOOKUP(D542,TrueCounts!A:C,2,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="543" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>1</v>
       </c>
@@ -14516,8 +16683,12 @@
       <c r="H543" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I543">
+        <f>VLOOKUP(D543,TrueCounts!A:C,2,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="544" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>2</v>
       </c>
@@ -14542,8 +16713,12 @@
       <c r="H544" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I544">
+        <f>VLOOKUP(D544,TrueCounts!A:C,2,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="545" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>2</v>
       </c>
@@ -14568,8 +16743,12 @@
       <c r="H545" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I545">
+        <f>VLOOKUP(D545,TrueCounts!A:C,2,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="546" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>3</v>
       </c>
@@ -14594,8 +16773,12 @@
       <c r="H546" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I546">
+        <f>VLOOKUP(D546,TrueCounts!A:C,2,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="547" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>3</v>
       </c>
@@ -14620,8 +16803,12 @@
       <c r="H547" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I547">
+        <f>VLOOKUP(D547,TrueCounts!A:C,2,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="548" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>4</v>
       </c>
@@ -14646,8 +16833,12 @@
       <c r="H548" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I548">
+        <f>VLOOKUP(D548,TrueCounts!A:C,2,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="549" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>4</v>
       </c>
@@ -14667,13 +16858,17 @@
         <v>19.28</v>
       </c>
       <c r="G549">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H549" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I549">
+        <f>VLOOKUP(D549,TrueCounts!A:C,2,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="550" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>5</v>
       </c>
@@ -14698,8 +16893,12 @@
       <c r="H550" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I550">
+        <f>VLOOKUP(D550,TrueCounts!A:C,2,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="551" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>5</v>
       </c>
@@ -14724,8 +16923,12 @@
       <c r="H551" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I551">
+        <f>VLOOKUP(D551,TrueCounts!A:C,2,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="552" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>6</v>
       </c>
@@ -14750,8 +16953,12 @@
       <c r="H552" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I552">
+        <f>VLOOKUP(D552,TrueCounts!A:C,2,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="553" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>6</v>
       </c>
@@ -14776,8 +16983,12 @@
       <c r="H553" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I553">
+        <f>VLOOKUP(D553,TrueCounts!A:C,2,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="554" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>7</v>
       </c>
@@ -14802,8 +17013,12 @@
       <c r="H554" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I554">
+        <f>VLOOKUP(D554,TrueCounts!A:C,2,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="555" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>7</v>
       </c>
@@ -14828,8 +17043,12 @@
       <c r="H555" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I555">
+        <f>VLOOKUP(D555,TrueCounts!A:C,2,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="556" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>8</v>
       </c>
@@ -14854,8 +17073,12 @@
       <c r="H556" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I556">
+        <f>VLOOKUP(D556,TrueCounts!A:C,2,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="557" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>8</v>
       </c>
@@ -14880,8 +17103,12 @@
       <c r="H557" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I557">
+        <f>VLOOKUP(D557,TrueCounts!A:C,2,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="558" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>9</v>
       </c>
@@ -14906,8 +17133,12 @@
       <c r="H558" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I558">
+        <f>VLOOKUP(D558,TrueCounts!A:C,2,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="559" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>9</v>
       </c>
@@ -14932,8 +17163,12 @@
       <c r="H559" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I559">
+        <f>VLOOKUP(D559,TrueCounts!A:C,2,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="560" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>10</v>
       </c>
@@ -14958,8 +17193,12 @@
       <c r="H560" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I560">
+        <f>VLOOKUP(D560,TrueCounts!A:C,2,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="561" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>10</v>
       </c>
@@ -14984,8 +17223,12 @@
       <c r="H561" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I561">
+        <f>VLOOKUP(D561,TrueCounts!A:C,2,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="562" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>1</v>
       </c>
@@ -15010,8 +17253,12 @@
       <c r="H562" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I562">
+        <f>VLOOKUP(D562,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>1</v>
       </c>
@@ -15036,8 +17283,12 @@
       <c r="H563" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I563">
+        <f>VLOOKUP(D563,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>2</v>
       </c>
@@ -15062,8 +17313,12 @@
       <c r="H564" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I564">
+        <f>VLOOKUP(D564,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>2</v>
       </c>
@@ -15088,8 +17343,12 @@
       <c r="H565" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I565">
+        <f>VLOOKUP(D565,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>3</v>
       </c>
@@ -15114,8 +17373,12 @@
       <c r="H566" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I566">
+        <f>VLOOKUP(D566,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>3</v>
       </c>
@@ -15140,8 +17403,12 @@
       <c r="H567" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I567">
+        <f>VLOOKUP(D567,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>4</v>
       </c>
@@ -15166,8 +17433,12 @@
       <c r="H568" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I568">
+        <f>VLOOKUP(D568,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>4</v>
       </c>
@@ -15192,8 +17463,12 @@
       <c r="H569" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I569">
+        <f>VLOOKUP(D569,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>5</v>
       </c>
@@ -15218,8 +17493,12 @@
       <c r="H570" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I570">
+        <f>VLOOKUP(D570,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>5</v>
       </c>
@@ -15244,8 +17523,12 @@
       <c r="H571" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I571">
+        <f>VLOOKUP(D571,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>6</v>
       </c>
@@ -15270,8 +17553,12 @@
       <c r="H572" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I572">
+        <f>VLOOKUP(D572,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>6</v>
       </c>
@@ -15296,8 +17583,12 @@
       <c r="H573" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I573">
+        <f>VLOOKUP(D573,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>7</v>
       </c>
@@ -15322,8 +17613,12 @@
       <c r="H574" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I574">
+        <f>VLOOKUP(D574,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>7</v>
       </c>
@@ -15348,8 +17643,12 @@
       <c r="H575" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I575">
+        <f>VLOOKUP(D575,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>8</v>
       </c>
@@ -15374,8 +17673,12 @@
       <c r="H576" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I576">
+        <f>VLOOKUP(D576,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>8</v>
       </c>
@@ -15400,8 +17703,12 @@
       <c r="H577" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I577">
+        <f>VLOOKUP(D577,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>9</v>
       </c>
@@ -15426,8 +17733,12 @@
       <c r="H578" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I578">
+        <f>VLOOKUP(D578,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>9</v>
       </c>
@@ -15452,8 +17763,12 @@
       <c r="H579" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I579">
+        <f>VLOOKUP(D579,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>10</v>
       </c>
@@ -15478,8 +17793,12 @@
       <c r="H580" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I580">
+        <f>VLOOKUP(D580,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>10</v>
       </c>
@@ -15504,8 +17823,12 @@
       <c r="H581" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I581">
+        <f>VLOOKUP(D581,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>1</v>
       </c>
@@ -15530,8 +17853,12 @@
       <c r="H582" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I582">
+        <f>VLOOKUP(D582,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>1</v>
       </c>
@@ -15556,8 +17883,12 @@
       <c r="H583" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I583">
+        <f>VLOOKUP(D583,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>2</v>
       </c>
@@ -15582,8 +17913,12 @@
       <c r="H584" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I584">
+        <f>VLOOKUP(D584,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>2</v>
       </c>
@@ -15608,8 +17943,12 @@
       <c r="H585" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I585">
+        <f>VLOOKUP(D585,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>3</v>
       </c>
@@ -15634,8 +17973,12 @@
       <c r="H586" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I586">
+        <f>VLOOKUP(D586,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>3</v>
       </c>
@@ -15660,8 +18003,12 @@
       <c r="H587" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I587">
+        <f>VLOOKUP(D587,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>4</v>
       </c>
@@ -15686,8 +18033,12 @@
       <c r="H588" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I588">
+        <f>VLOOKUP(D588,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>4</v>
       </c>
@@ -15712,8 +18063,12 @@
       <c r="H589" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I589">
+        <f>VLOOKUP(D589,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>5</v>
       </c>
@@ -15738,8 +18093,12 @@
       <c r="H590" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I590">
+        <f>VLOOKUP(D590,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>5</v>
       </c>
@@ -15764,8 +18123,12 @@
       <c r="H591" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I591">
+        <f>VLOOKUP(D591,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>6</v>
       </c>
@@ -15790,8 +18153,12 @@
       <c r="H592" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I592">
+        <f>VLOOKUP(D592,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>6</v>
       </c>
@@ -15816,8 +18183,12 @@
       <c r="H593" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I593">
+        <f>VLOOKUP(D593,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>7</v>
       </c>
@@ -15842,8 +18213,12 @@
       <c r="H594" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I594">
+        <f>VLOOKUP(D594,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>7</v>
       </c>
@@ -15868,8 +18243,12 @@
       <c r="H595" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I595">
+        <f>VLOOKUP(D595,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>8</v>
       </c>
@@ -15894,8 +18273,12 @@
       <c r="H596" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I596">
+        <f>VLOOKUP(D596,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>8</v>
       </c>
@@ -15920,8 +18303,12 @@
       <c r="H597" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I597">
+        <f>VLOOKUP(D597,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>9</v>
       </c>
@@ -15946,8 +18333,12 @@
       <c r="H598" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I598">
+        <f>VLOOKUP(D598,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>9</v>
       </c>
@@ -15972,8 +18363,12 @@
       <c r="H599" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I599">
+        <f>VLOOKUP(D599,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>10</v>
       </c>
@@ -15998,8 +18393,12 @@
       <c r="H600" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I600">
+        <f>VLOOKUP(D600,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>10</v>
       </c>
@@ -16024,9 +18423,13 @@
       <c r="H601" t="s">
         <v>7</v>
       </c>
+      <c r="I601">
+        <f>VLOOKUP(D601,TrueCounts!A:C,2,0)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F601" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I601" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G601">
     <sortCondition ref="D1:D601"/>
   </sortState>
@@ -16038,7 +18441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9772EB32-8C72-6B4E-B539-09D5516AF006}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>

--- a/data/raw_data/DS_Counting_trials.xlsx
+++ b/data/raw_data/DS_Counting_trials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rodenico/Documents/Pro/Articles/2023_LarvCount/Y2023.LarvCount/data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91351BE0-5812-1F4F-B0E3-9CE5A329A75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8759AFF3-2A79-0746-B1CB-169D1672EDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24560" windowHeight="13380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="TrueCounts" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ObserverCountData!$A$1:$I$601</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ObserverCountData!$A$1:$H$601</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="12">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -390,16 +390,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I601"/>
+  <dimension ref="A1:H601"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1:J1048576"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -424,11 +424,8 @@
       <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -453,12 +450,8 @@
       <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="I2">
-        <f>VLOOKUP(D2,TrueCounts!A:C,2,0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -483,12 +476,8 @@
       <c r="H3" t="s">
         <v>7</v>
       </c>
-      <c r="I3">
-        <f>VLOOKUP(D3,TrueCounts!A:C,2,0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -513,12 +502,8 @@
       <c r="H4" t="s">
         <v>7</v>
       </c>
-      <c r="I4">
-        <f>VLOOKUP(D4,TrueCounts!A:C,2,0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -543,12 +528,8 @@
       <c r="H5" t="s">
         <v>7</v>
       </c>
-      <c r="I5">
-        <f>VLOOKUP(D5,TrueCounts!A:C,2,0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -573,12 +554,8 @@
       <c r="H6" t="s">
         <v>7</v>
       </c>
-      <c r="I6">
-        <f>VLOOKUP(D6,TrueCounts!A:C,2,0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -603,12 +580,8 @@
       <c r="H7" t="s">
         <v>7</v>
       </c>
-      <c r="I7">
-        <f>VLOOKUP(D7,TrueCounts!A:C,2,0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -633,12 +606,8 @@
       <c r="H8" t="s">
         <v>7</v>
       </c>
-      <c r="I8">
-        <f>VLOOKUP(D8,TrueCounts!A:C,2,0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
@@ -663,12 +632,8 @@
       <c r="H9" t="s">
         <v>7</v>
       </c>
-      <c r="I9">
-        <f>VLOOKUP(D9,TrueCounts!A:C,2,0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -693,12 +658,8 @@
       <c r="H10" t="s">
         <v>7</v>
       </c>
-      <c r="I10">
-        <f>VLOOKUP(D10,TrueCounts!A:C,2,0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5</v>
       </c>
@@ -723,12 +684,8 @@
       <c r="H11" t="s">
         <v>7</v>
       </c>
-      <c r="I11">
-        <f>VLOOKUP(D11,TrueCounts!A:C,2,0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6</v>
       </c>
@@ -753,12 +710,8 @@
       <c r="H12" t="s">
         <v>7</v>
       </c>
-      <c r="I12">
-        <f>VLOOKUP(D12,TrueCounts!A:C,2,0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -783,12 +736,8 @@
       <c r="H13" t="s">
         <v>7</v>
       </c>
-      <c r="I13">
-        <f>VLOOKUP(D13,TrueCounts!A:C,2,0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>7</v>
       </c>
@@ -813,12 +762,8 @@
       <c r="H14" t="s">
         <v>7</v>
       </c>
-      <c r="I14">
-        <f>VLOOKUP(D14,TrueCounts!A:C,2,0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>7</v>
       </c>
@@ -843,12 +788,8 @@
       <c r="H15" t="s">
         <v>7</v>
       </c>
-      <c r="I15">
-        <f>VLOOKUP(D15,TrueCounts!A:C,2,0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>8</v>
       </c>
@@ -873,12 +814,8 @@
       <c r="H16" t="s">
         <v>7</v>
       </c>
-      <c r="I16">
-        <f>VLOOKUP(D16,TrueCounts!A:C,2,0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>8</v>
       </c>
@@ -903,12 +840,8 @@
       <c r="H17" t="s">
         <v>7</v>
       </c>
-      <c r="I17">
-        <f>VLOOKUP(D17,TrueCounts!A:C,2,0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>9</v>
       </c>
@@ -933,12 +866,8 @@
       <c r="H18" t="s">
         <v>7</v>
       </c>
-      <c r="I18">
-        <f>VLOOKUP(D18,TrueCounts!A:C,2,0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>9</v>
       </c>
@@ -963,12 +892,8 @@
       <c r="H19" t="s">
         <v>7</v>
       </c>
-      <c r="I19">
-        <f>VLOOKUP(D19,TrueCounts!A:C,2,0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>10</v>
       </c>
@@ -993,12 +918,8 @@
       <c r="H20" t="s">
         <v>7</v>
       </c>
-      <c r="I20">
-        <f>VLOOKUP(D20,TrueCounts!A:C,2,0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>10</v>
       </c>
@@ -1023,12 +944,8 @@
       <c r="H21" t="s">
         <v>7</v>
       </c>
-      <c r="I21">
-        <f>VLOOKUP(D21,TrueCounts!A:C,2,0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1053,12 +970,8 @@
       <c r="H22" t="s">
         <v>7</v>
       </c>
-      <c r="I22">
-        <f>VLOOKUP(D22,TrueCounts!A:C,2,0)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1083,12 +996,8 @@
       <c r="H23" t="s">
         <v>7</v>
       </c>
-      <c r="I23">
-        <f>VLOOKUP(D23,TrueCounts!A:C,2,0)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -1113,12 +1022,8 @@
       <c r="H24" t="s">
         <v>7</v>
       </c>
-      <c r="I24">
-        <f>VLOOKUP(D24,TrueCounts!A:C,2,0)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1143,12 +1048,8 @@
       <c r="H25" t="s">
         <v>7</v>
       </c>
-      <c r="I25">
-        <f>VLOOKUP(D25,TrueCounts!A:C,2,0)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3</v>
       </c>
@@ -1173,12 +1074,8 @@
       <c r="H26" t="s">
         <v>7</v>
       </c>
-      <c r="I26">
-        <f>VLOOKUP(D26,TrueCounts!A:C,2,0)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3</v>
       </c>
@@ -1203,12 +1100,8 @@
       <c r="H27" t="s">
         <v>7</v>
       </c>
-      <c r="I27">
-        <f>VLOOKUP(D27,TrueCounts!A:C,2,0)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4</v>
       </c>
@@ -1233,12 +1126,8 @@
       <c r="H28" t="s">
         <v>7</v>
       </c>
-      <c r="I28">
-        <f>VLOOKUP(D28,TrueCounts!A:C,2,0)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4</v>
       </c>
@@ -1263,12 +1152,8 @@
       <c r="H29" t="s">
         <v>7</v>
       </c>
-      <c r="I29">
-        <f>VLOOKUP(D29,TrueCounts!A:C,2,0)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>5</v>
       </c>
@@ -1293,12 +1178,8 @@
       <c r="H30" t="s">
         <v>7</v>
       </c>
-      <c r="I30">
-        <f>VLOOKUP(D30,TrueCounts!A:C,2,0)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>5</v>
       </c>
@@ -1323,12 +1204,8 @@
       <c r="H31" t="s">
         <v>7</v>
       </c>
-      <c r="I31">
-        <f>VLOOKUP(D31,TrueCounts!A:C,2,0)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>6</v>
       </c>
@@ -1353,12 +1230,8 @@
       <c r="H32" t="s">
         <v>7</v>
       </c>
-      <c r="I32">
-        <f>VLOOKUP(D32,TrueCounts!A:C,2,0)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>6</v>
       </c>
@@ -1383,12 +1256,8 @@
       <c r="H33" t="s">
         <v>7</v>
       </c>
-      <c r="I33">
-        <f>VLOOKUP(D33,TrueCounts!A:C,2,0)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>7</v>
       </c>
@@ -1413,12 +1282,8 @@
       <c r="H34" t="s">
         <v>7</v>
       </c>
-      <c r="I34">
-        <f>VLOOKUP(D34,TrueCounts!A:C,2,0)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>7</v>
       </c>
@@ -1443,12 +1308,8 @@
       <c r="H35" t="s">
         <v>7</v>
       </c>
-      <c r="I35">
-        <f>VLOOKUP(D35,TrueCounts!A:C,2,0)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>8</v>
       </c>
@@ -1473,12 +1334,8 @@
       <c r="H36" t="s">
         <v>7</v>
       </c>
-      <c r="I36">
-        <f>VLOOKUP(D36,TrueCounts!A:C,2,0)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>8</v>
       </c>
@@ -1503,12 +1360,8 @@
       <c r="H37" t="s">
         <v>7</v>
       </c>
-      <c r="I37">
-        <f>VLOOKUP(D37,TrueCounts!A:C,2,0)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>9</v>
       </c>
@@ -1533,12 +1386,8 @@
       <c r="H38" t="s">
         <v>7</v>
       </c>
-      <c r="I38">
-        <f>VLOOKUP(D38,TrueCounts!A:C,2,0)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>9</v>
       </c>
@@ -1563,12 +1412,8 @@
       <c r="H39" t="s">
         <v>7</v>
       </c>
-      <c r="I39">
-        <f>VLOOKUP(D39,TrueCounts!A:C,2,0)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>10</v>
       </c>
@@ -1593,12 +1438,8 @@
       <c r="H40" t="s">
         <v>7</v>
       </c>
-      <c r="I40">
-        <f>VLOOKUP(D40,TrueCounts!A:C,2,0)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>10</v>
       </c>
@@ -1623,12 +1464,8 @@
       <c r="H41" t="s">
         <v>7</v>
       </c>
-      <c r="I41">
-        <f>VLOOKUP(D41,TrueCounts!A:C,2,0)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
@@ -1653,12 +1490,8 @@
       <c r="H42" t="s">
         <v>7</v>
       </c>
-      <c r="I42">
-        <f>VLOOKUP(D42,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1</v>
       </c>
@@ -1683,12 +1516,8 @@
       <c r="H43" t="s">
         <v>7</v>
       </c>
-      <c r="I43">
-        <f>VLOOKUP(D43,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2</v>
       </c>
@@ -1713,12 +1542,8 @@
       <c r="H44" t="s">
         <v>7</v>
       </c>
-      <c r="I44">
-        <f>VLOOKUP(D44,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1743,12 +1568,8 @@
       <c r="H45" t="s">
         <v>7</v>
       </c>
-      <c r="I45">
-        <f>VLOOKUP(D45,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3</v>
       </c>
@@ -1773,12 +1594,8 @@
       <c r="H46" t="s">
         <v>7</v>
       </c>
-      <c r="I46">
-        <f>VLOOKUP(D46,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3</v>
       </c>
@@ -1803,12 +1620,8 @@
       <c r="H47" t="s">
         <v>7</v>
       </c>
-      <c r="I47">
-        <f>VLOOKUP(D47,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>4</v>
       </c>
@@ -1833,12 +1646,8 @@
       <c r="H48" t="s">
         <v>7</v>
       </c>
-      <c r="I48">
-        <f>VLOOKUP(D48,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>4</v>
       </c>
@@ -1863,12 +1672,8 @@
       <c r="H49" t="s">
         <v>7</v>
       </c>
-      <c r="I49">
-        <f>VLOOKUP(D49,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>5</v>
       </c>
@@ -1893,12 +1698,8 @@
       <c r="H50" t="s">
         <v>7</v>
       </c>
-      <c r="I50">
-        <f>VLOOKUP(D50,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>5</v>
       </c>
@@ -1923,12 +1724,8 @@
       <c r="H51" t="s">
         <v>7</v>
       </c>
-      <c r="I51">
-        <f>VLOOKUP(D51,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>6</v>
       </c>
@@ -1953,12 +1750,8 @@
       <c r="H52" t="s">
         <v>7</v>
       </c>
-      <c r="I52">
-        <f>VLOOKUP(D52,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>6</v>
       </c>
@@ -1983,12 +1776,8 @@
       <c r="H53" t="s">
         <v>7</v>
       </c>
-      <c r="I53">
-        <f>VLOOKUP(D53,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>7</v>
       </c>
@@ -2013,12 +1802,8 @@
       <c r="H54" t="s">
         <v>7</v>
       </c>
-      <c r="I54">
-        <f>VLOOKUP(D54,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>7</v>
       </c>
@@ -2043,12 +1828,8 @@
       <c r="H55" t="s">
         <v>7</v>
       </c>
-      <c r="I55">
-        <f>VLOOKUP(D55,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>8</v>
       </c>
@@ -2073,12 +1854,8 @@
       <c r="H56" t="s">
         <v>7</v>
       </c>
-      <c r="I56">
-        <f>VLOOKUP(D56,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>8</v>
       </c>
@@ -2103,12 +1880,8 @@
       <c r="H57" t="s">
         <v>7</v>
       </c>
-      <c r="I57">
-        <f>VLOOKUP(D57,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>9</v>
       </c>
@@ -2133,12 +1906,8 @@
       <c r="H58" t="s">
         <v>7</v>
       </c>
-      <c r="I58">
-        <f>VLOOKUP(D58,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>9</v>
       </c>
@@ -2163,12 +1932,8 @@
       <c r="H59" t="s">
         <v>7</v>
       </c>
-      <c r="I59">
-        <f>VLOOKUP(D59,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>10</v>
       </c>
@@ -2193,12 +1958,8 @@
       <c r="H60" t="s">
         <v>7</v>
       </c>
-      <c r="I60">
-        <f>VLOOKUP(D60,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>10</v>
       </c>
@@ -2223,12 +1984,8 @@
       <c r="H61" t="s">
         <v>7</v>
       </c>
-      <c r="I61">
-        <f>VLOOKUP(D61,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1</v>
       </c>
@@ -2253,12 +2010,8 @@
       <c r="H62" t="s">
         <v>7</v>
       </c>
-      <c r="I62">
-        <f>VLOOKUP(D62,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1</v>
       </c>
@@ -2283,12 +2036,8 @@
       <c r="H63" t="s">
         <v>7</v>
       </c>
-      <c r="I63">
-        <f>VLOOKUP(D63,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2</v>
       </c>
@@ -2313,12 +2062,8 @@
       <c r="H64" t="s">
         <v>7</v>
       </c>
-      <c r="I64">
-        <f>VLOOKUP(D64,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2</v>
       </c>
@@ -2343,12 +2088,8 @@
       <c r="H65" t="s">
         <v>7</v>
       </c>
-      <c r="I65">
-        <f>VLOOKUP(D65,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>3</v>
       </c>
@@ -2373,12 +2114,8 @@
       <c r="H66" t="s">
         <v>7</v>
       </c>
-      <c r="I66">
-        <f>VLOOKUP(D66,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>3</v>
       </c>
@@ -2403,12 +2140,8 @@
       <c r="H67" t="s">
         <v>7</v>
       </c>
-      <c r="I67">
-        <f>VLOOKUP(D67,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>4</v>
       </c>
@@ -2433,12 +2166,8 @@
       <c r="H68" t="s">
         <v>7</v>
       </c>
-      <c r="I68">
-        <f>VLOOKUP(D68,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>4</v>
       </c>
@@ -2463,12 +2192,8 @@
       <c r="H69" t="s">
         <v>7</v>
       </c>
-      <c r="I69">
-        <f>VLOOKUP(D69,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>5</v>
       </c>
@@ -2493,12 +2218,8 @@
       <c r="H70" t="s">
         <v>7</v>
       </c>
-      <c r="I70">
-        <f>VLOOKUP(D70,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>5</v>
       </c>
@@ -2523,12 +2244,8 @@
       <c r="H71" t="s">
         <v>7</v>
       </c>
-      <c r="I71">
-        <f>VLOOKUP(D71,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>6</v>
       </c>
@@ -2553,12 +2270,8 @@
       <c r="H72" t="s">
         <v>7</v>
       </c>
-      <c r="I72">
-        <f>VLOOKUP(D72,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>6</v>
       </c>
@@ -2583,12 +2296,8 @@
       <c r="H73" t="s">
         <v>7</v>
       </c>
-      <c r="I73">
-        <f>VLOOKUP(D73,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>7</v>
       </c>
@@ -2613,12 +2322,8 @@
       <c r="H74" t="s">
         <v>7</v>
       </c>
-      <c r="I74">
-        <f>VLOOKUP(D74,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>7</v>
       </c>
@@ -2643,12 +2348,8 @@
       <c r="H75" t="s">
         <v>7</v>
       </c>
-      <c r="I75">
-        <f>VLOOKUP(D75,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>8</v>
       </c>
@@ -2673,12 +2374,8 @@
       <c r="H76" t="s">
         <v>7</v>
       </c>
-      <c r="I76">
-        <f>VLOOKUP(D76,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>8</v>
       </c>
@@ -2703,12 +2400,8 @@
       <c r="H77" t="s">
         <v>7</v>
       </c>
-      <c r="I77">
-        <f>VLOOKUP(D77,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>9</v>
       </c>
@@ -2733,12 +2426,8 @@
       <c r="H78" t="s">
         <v>7</v>
       </c>
-      <c r="I78">
-        <f>VLOOKUP(D78,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>9</v>
       </c>
@@ -2763,12 +2452,8 @@
       <c r="H79" t="s">
         <v>7</v>
       </c>
-      <c r="I79">
-        <f>VLOOKUP(D79,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>10</v>
       </c>
@@ -2793,12 +2478,8 @@
       <c r="H80" t="s">
         <v>7</v>
       </c>
-      <c r="I80">
-        <f>VLOOKUP(D80,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>10</v>
       </c>
@@ -2823,12 +2504,8 @@
       <c r="H81" t="s">
         <v>7</v>
       </c>
-      <c r="I81">
-        <f>VLOOKUP(D81,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1</v>
       </c>
@@ -2853,12 +2530,8 @@
       <c r="H82" t="s">
         <v>7</v>
       </c>
-      <c r="I82">
-        <f>VLOOKUP(D82,TrueCounts!A:C,2,0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1</v>
       </c>
@@ -2883,12 +2556,8 @@
       <c r="H83" t="s">
         <v>7</v>
       </c>
-      <c r="I83">
-        <f>VLOOKUP(D83,TrueCounts!A:C,2,0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2</v>
       </c>
@@ -2913,12 +2582,8 @@
       <c r="H84" t="s">
         <v>7</v>
       </c>
-      <c r="I84">
-        <f>VLOOKUP(D84,TrueCounts!A:C,2,0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2</v>
       </c>
@@ -2943,12 +2608,8 @@
       <c r="H85" t="s">
         <v>7</v>
       </c>
-      <c r="I85">
-        <f>VLOOKUP(D85,TrueCounts!A:C,2,0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>3</v>
       </c>
@@ -2973,12 +2634,8 @@
       <c r="H86" t="s">
         <v>7</v>
       </c>
-      <c r="I86">
-        <f>VLOOKUP(D86,TrueCounts!A:C,2,0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>3</v>
       </c>
@@ -3003,12 +2660,8 @@
       <c r="H87" t="s">
         <v>7</v>
       </c>
-      <c r="I87">
-        <f>VLOOKUP(D87,TrueCounts!A:C,2,0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>4</v>
       </c>
@@ -3033,12 +2686,8 @@
       <c r="H88" t="s">
         <v>7</v>
       </c>
-      <c r="I88">
-        <f>VLOOKUP(D88,TrueCounts!A:C,2,0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>4</v>
       </c>
@@ -3063,12 +2712,8 @@
       <c r="H89" t="s">
         <v>7</v>
       </c>
-      <c r="I89">
-        <f>VLOOKUP(D89,TrueCounts!A:C,2,0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>5</v>
       </c>
@@ -3093,12 +2738,8 @@
       <c r="H90" t="s">
         <v>7</v>
       </c>
-      <c r="I90">
-        <f>VLOOKUP(D90,TrueCounts!A:C,2,0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>5</v>
       </c>
@@ -3123,12 +2764,8 @@
       <c r="H91" t="s">
         <v>7</v>
       </c>
-      <c r="I91">
-        <f>VLOOKUP(D91,TrueCounts!A:C,2,0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>6</v>
       </c>
@@ -3153,12 +2790,8 @@
       <c r="H92" t="s">
         <v>7</v>
       </c>
-      <c r="I92">
-        <f>VLOOKUP(D92,TrueCounts!A:C,2,0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>6</v>
       </c>
@@ -3183,12 +2816,8 @@
       <c r="H93" t="s">
         <v>7</v>
       </c>
-      <c r="I93">
-        <f>VLOOKUP(D93,TrueCounts!A:C,2,0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>7</v>
       </c>
@@ -3213,12 +2842,8 @@
       <c r="H94" t="s">
         <v>7</v>
       </c>
-      <c r="I94">
-        <f>VLOOKUP(D94,TrueCounts!A:C,2,0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>7</v>
       </c>
@@ -3243,12 +2868,8 @@
       <c r="H95" t="s">
         <v>7</v>
       </c>
-      <c r="I95">
-        <f>VLOOKUP(D95,TrueCounts!A:C,2,0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>8</v>
       </c>
@@ -3273,12 +2894,8 @@
       <c r="H96" t="s">
         <v>7</v>
       </c>
-      <c r="I96">
-        <f>VLOOKUP(D96,TrueCounts!A:C,2,0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>8</v>
       </c>
@@ -3303,12 +2920,8 @@
       <c r="H97" t="s">
         <v>7</v>
       </c>
-      <c r="I97">
-        <f>VLOOKUP(D97,TrueCounts!A:C,2,0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>9</v>
       </c>
@@ -3333,12 +2946,8 @@
       <c r="H98" t="s">
         <v>7</v>
       </c>
-      <c r="I98">
-        <f>VLOOKUP(D98,TrueCounts!A:C,2,0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>9</v>
       </c>
@@ -3363,12 +2972,8 @@
       <c r="H99" t="s">
         <v>7</v>
       </c>
-      <c r="I99">
-        <f>VLOOKUP(D99,TrueCounts!A:C,2,0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>10</v>
       </c>
@@ -3393,12 +2998,8 @@
       <c r="H100" t="s">
         <v>7</v>
       </c>
-      <c r="I100">
-        <f>VLOOKUP(D100,TrueCounts!A:C,2,0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>10</v>
       </c>
@@ -3423,12 +3024,8 @@
       <c r="H101" t="s">
         <v>7</v>
       </c>
-      <c r="I101">
-        <f>VLOOKUP(D101,TrueCounts!A:C,2,0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>1</v>
       </c>
@@ -3453,12 +3050,8 @@
       <c r="H102" t="s">
         <v>7</v>
       </c>
-      <c r="I102">
-        <f>VLOOKUP(D102,TrueCounts!A:C,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1</v>
       </c>
@@ -3483,12 +3076,8 @@
       <c r="H103" t="s">
         <v>7</v>
       </c>
-      <c r="I103">
-        <f>VLOOKUP(D103,TrueCounts!A:C,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2</v>
       </c>
@@ -3513,12 +3102,8 @@
       <c r="H104" t="s">
         <v>7</v>
       </c>
-      <c r="I104">
-        <f>VLOOKUP(D104,TrueCounts!A:C,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2</v>
       </c>
@@ -3543,12 +3128,8 @@
       <c r="H105" t="s">
         <v>7</v>
       </c>
-      <c r="I105">
-        <f>VLOOKUP(D105,TrueCounts!A:C,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>3</v>
       </c>
@@ -3573,12 +3154,8 @@
       <c r="H106" t="s">
         <v>7</v>
       </c>
-      <c r="I106">
-        <f>VLOOKUP(D106,TrueCounts!A:C,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>3</v>
       </c>
@@ -3603,12 +3180,8 @@
       <c r="H107" t="s">
         <v>7</v>
       </c>
-      <c r="I107">
-        <f>VLOOKUP(D107,TrueCounts!A:C,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>4</v>
       </c>
@@ -3633,12 +3206,8 @@
       <c r="H108" t="s">
         <v>7</v>
       </c>
-      <c r="I108">
-        <f>VLOOKUP(D108,TrueCounts!A:C,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>4</v>
       </c>
@@ -3663,12 +3232,8 @@
       <c r="H109" t="s">
         <v>7</v>
       </c>
-      <c r="I109">
-        <f>VLOOKUP(D109,TrueCounts!A:C,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>5</v>
       </c>
@@ -3693,12 +3258,8 @@
       <c r="H110" t="s">
         <v>7</v>
       </c>
-      <c r="I110">
-        <f>VLOOKUP(D110,TrueCounts!A:C,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>5</v>
       </c>
@@ -3723,12 +3284,8 @@
       <c r="H111" t="s">
         <v>7</v>
       </c>
-      <c r="I111">
-        <f>VLOOKUP(D111,TrueCounts!A:C,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>6</v>
       </c>
@@ -3753,12 +3310,8 @@
       <c r="H112" t="s">
         <v>7</v>
       </c>
-      <c r="I112">
-        <f>VLOOKUP(D112,TrueCounts!A:C,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>6</v>
       </c>
@@ -3783,12 +3336,8 @@
       <c r="H113" t="s">
         <v>7</v>
       </c>
-      <c r="I113">
-        <f>VLOOKUP(D113,TrueCounts!A:C,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>7</v>
       </c>
@@ -3813,12 +3362,8 @@
       <c r="H114" t="s">
         <v>7</v>
       </c>
-      <c r="I114">
-        <f>VLOOKUP(D114,TrueCounts!A:C,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>7</v>
       </c>
@@ -3843,12 +3388,8 @@
       <c r="H115" t="s">
         <v>7</v>
       </c>
-      <c r="I115">
-        <f>VLOOKUP(D115,TrueCounts!A:C,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>8</v>
       </c>
@@ -3873,12 +3414,8 @@
       <c r="H116" t="s">
         <v>7</v>
       </c>
-      <c r="I116">
-        <f>VLOOKUP(D116,TrueCounts!A:C,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>8</v>
       </c>
@@ -3903,12 +3440,8 @@
       <c r="H117" t="s">
         <v>7</v>
       </c>
-      <c r="I117">
-        <f>VLOOKUP(D117,TrueCounts!A:C,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>9</v>
       </c>
@@ -3933,12 +3466,8 @@
       <c r="H118" t="s">
         <v>7</v>
       </c>
-      <c r="I118">
-        <f>VLOOKUP(D118,TrueCounts!A:C,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>9</v>
       </c>
@@ -3963,12 +3492,8 @@
       <c r="H119" t="s">
         <v>7</v>
       </c>
-      <c r="I119">
-        <f>VLOOKUP(D119,TrueCounts!A:C,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>10</v>
       </c>
@@ -3993,12 +3518,8 @@
       <c r="H120" t="s">
         <v>7</v>
       </c>
-      <c r="I120">
-        <f>VLOOKUP(D120,TrueCounts!A:C,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>10</v>
       </c>
@@ -4023,12 +3544,8 @@
       <c r="H121" t="s">
         <v>7</v>
       </c>
-      <c r="I121">
-        <f>VLOOKUP(D121,TrueCounts!A:C,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1</v>
       </c>
@@ -4053,12 +3570,8 @@
       <c r="H122" t="s">
         <v>3</v>
       </c>
-      <c r="I122">
-        <f>VLOOKUP(D122,TrueCounts!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>1</v>
       </c>
@@ -4083,12 +3596,8 @@
       <c r="H123" t="s">
         <v>3</v>
       </c>
-      <c r="I123">
-        <f>VLOOKUP(D123,TrueCounts!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>2</v>
       </c>
@@ -4113,12 +3622,8 @@
       <c r="H124" t="s">
         <v>3</v>
       </c>
-      <c r="I124">
-        <f>VLOOKUP(D124,TrueCounts!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>2</v>
       </c>
@@ -4143,12 +3648,8 @@
       <c r="H125" t="s">
         <v>3</v>
       </c>
-      <c r="I125">
-        <f>VLOOKUP(D125,TrueCounts!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>3</v>
       </c>
@@ -4173,12 +3674,8 @@
       <c r="H126" t="s">
         <v>3</v>
       </c>
-      <c r="I126">
-        <f>VLOOKUP(D126,TrueCounts!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>3</v>
       </c>
@@ -4203,12 +3700,8 @@
       <c r="H127" t="s">
         <v>3</v>
       </c>
-      <c r="I127">
-        <f>VLOOKUP(D127,TrueCounts!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>4</v>
       </c>
@@ -4233,12 +3726,8 @@
       <c r="H128" t="s">
         <v>3</v>
       </c>
-      <c r="I128">
-        <f>VLOOKUP(D128,TrueCounts!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>4</v>
       </c>
@@ -4263,12 +3752,8 @@
       <c r="H129" t="s">
         <v>3</v>
       </c>
-      <c r="I129">
-        <f>VLOOKUP(D129,TrueCounts!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>5</v>
       </c>
@@ -4293,12 +3778,8 @@
       <c r="H130" t="s">
         <v>3</v>
       </c>
-      <c r="I130">
-        <f>VLOOKUP(D130,TrueCounts!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>5</v>
       </c>
@@ -4323,12 +3804,8 @@
       <c r="H131" t="s">
         <v>3</v>
       </c>
-      <c r="I131">
-        <f>VLOOKUP(D131,TrueCounts!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>6</v>
       </c>
@@ -4353,12 +3830,8 @@
       <c r="H132" t="s">
         <v>3</v>
       </c>
-      <c r="I132">
-        <f>VLOOKUP(D132,TrueCounts!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>6</v>
       </c>
@@ -4383,12 +3856,8 @@
       <c r="H133" t="s">
         <v>3</v>
       </c>
-      <c r="I133">
-        <f>VLOOKUP(D133,TrueCounts!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>7</v>
       </c>
@@ -4413,12 +3882,8 @@
       <c r="H134" t="s">
         <v>3</v>
       </c>
-      <c r="I134">
-        <f>VLOOKUP(D134,TrueCounts!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>7</v>
       </c>
@@ -4443,12 +3908,8 @@
       <c r="H135" t="s">
         <v>3</v>
       </c>
-      <c r="I135">
-        <f>VLOOKUP(D135,TrueCounts!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>8</v>
       </c>
@@ -4473,12 +3934,8 @@
       <c r="H136" t="s">
         <v>3</v>
       </c>
-      <c r="I136">
-        <f>VLOOKUP(D136,TrueCounts!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>8</v>
       </c>
@@ -4503,12 +3960,8 @@
       <c r="H137" t="s">
         <v>3</v>
       </c>
-      <c r="I137">
-        <f>VLOOKUP(D137,TrueCounts!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>9</v>
       </c>
@@ -4533,12 +3986,8 @@
       <c r="H138" t="s">
         <v>3</v>
       </c>
-      <c r="I138">
-        <f>VLOOKUP(D138,TrueCounts!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>9</v>
       </c>
@@ -4563,12 +4012,8 @@
       <c r="H139" t="s">
         <v>3</v>
       </c>
-      <c r="I139">
-        <f>VLOOKUP(D139,TrueCounts!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>10</v>
       </c>
@@ -4593,12 +4038,8 @@
       <c r="H140" t="s">
         <v>3</v>
       </c>
-      <c r="I140">
-        <f>VLOOKUP(D140,TrueCounts!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>10</v>
       </c>
@@ -4623,12 +4064,8 @@
       <c r="H141" t="s">
         <v>3</v>
       </c>
-      <c r="I141">
-        <f>VLOOKUP(D141,TrueCounts!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>1</v>
       </c>
@@ -4653,12 +4090,8 @@
       <c r="H142" t="s">
         <v>3</v>
       </c>
-      <c r="I142">
-        <f>VLOOKUP(D142,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>1</v>
       </c>
@@ -4683,12 +4116,8 @@
       <c r="H143" t="s">
         <v>3</v>
       </c>
-      <c r="I143">
-        <f>VLOOKUP(D143,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>2</v>
       </c>
@@ -4713,12 +4142,8 @@
       <c r="H144" t="s">
         <v>3</v>
       </c>
-      <c r="I144">
-        <f>VLOOKUP(D144,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>2</v>
       </c>
@@ -4743,12 +4168,8 @@
       <c r="H145" t="s">
         <v>3</v>
       </c>
-      <c r="I145">
-        <f>VLOOKUP(D145,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>3</v>
       </c>
@@ -4773,12 +4194,8 @@
       <c r="H146" t="s">
         <v>3</v>
       </c>
-      <c r="I146">
-        <f>VLOOKUP(D146,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>3</v>
       </c>
@@ -4803,12 +4220,8 @@
       <c r="H147" t="s">
         <v>3</v>
       </c>
-      <c r="I147">
-        <f>VLOOKUP(D147,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>4</v>
       </c>
@@ -4833,12 +4246,8 @@
       <c r="H148" t="s">
         <v>3</v>
       </c>
-      <c r="I148">
-        <f>VLOOKUP(D148,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>4</v>
       </c>
@@ -4863,12 +4272,8 @@
       <c r="H149" t="s">
         <v>3</v>
       </c>
-      <c r="I149">
-        <f>VLOOKUP(D149,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>5</v>
       </c>
@@ -4893,12 +4298,8 @@
       <c r="H150" t="s">
         <v>3</v>
       </c>
-      <c r="I150">
-        <f>VLOOKUP(D150,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>5</v>
       </c>
@@ -4923,12 +4324,8 @@
       <c r="H151" t="s">
         <v>3</v>
       </c>
-      <c r="I151">
-        <f>VLOOKUP(D151,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>6</v>
       </c>
@@ -4953,12 +4350,8 @@
       <c r="H152" t="s">
         <v>3</v>
       </c>
-      <c r="I152">
-        <f>VLOOKUP(D152,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>6</v>
       </c>
@@ -4983,12 +4376,8 @@
       <c r="H153" t="s">
         <v>3</v>
       </c>
-      <c r="I153">
-        <f>VLOOKUP(D153,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>7</v>
       </c>
@@ -5013,12 +4402,8 @@
       <c r="H154" t="s">
         <v>3</v>
       </c>
-      <c r="I154">
-        <f>VLOOKUP(D154,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>7</v>
       </c>
@@ -5043,12 +4428,8 @@
       <c r="H155" t="s">
         <v>3</v>
       </c>
-      <c r="I155">
-        <f>VLOOKUP(D155,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>8</v>
       </c>
@@ -5073,12 +4454,8 @@
       <c r="H156" t="s">
         <v>3</v>
       </c>
-      <c r="I156">
-        <f>VLOOKUP(D156,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>8</v>
       </c>
@@ -5103,12 +4480,8 @@
       <c r="H157" t="s">
         <v>3</v>
       </c>
-      <c r="I157">
-        <f>VLOOKUP(D157,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>9</v>
       </c>
@@ -5133,12 +4506,8 @@
       <c r="H158" t="s">
         <v>3</v>
       </c>
-      <c r="I158">
-        <f>VLOOKUP(D158,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>9</v>
       </c>
@@ -5163,12 +4532,8 @@
       <c r="H159" t="s">
         <v>3</v>
       </c>
-      <c r="I159">
-        <f>VLOOKUP(D159,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>10</v>
       </c>
@@ -5193,12 +4558,8 @@
       <c r="H160" t="s">
         <v>3</v>
       </c>
-      <c r="I160">
-        <f>VLOOKUP(D160,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>10</v>
       </c>
@@ -5223,12 +4584,8 @@
       <c r="H161" t="s">
         <v>3</v>
       </c>
-      <c r="I161">
-        <f>VLOOKUP(D161,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>1</v>
       </c>
@@ -5253,12 +4610,8 @@
       <c r="H162" t="s">
         <v>3</v>
       </c>
-      <c r="I162">
-        <f>VLOOKUP(D162,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>1</v>
       </c>
@@ -5283,12 +4636,8 @@
       <c r="H163" t="s">
         <v>3</v>
       </c>
-      <c r="I163">
-        <f>VLOOKUP(D163,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>2</v>
       </c>
@@ -5313,12 +4662,8 @@
       <c r="H164" t="s">
         <v>3</v>
       </c>
-      <c r="I164">
-        <f>VLOOKUP(D164,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>2</v>
       </c>
@@ -5343,12 +4688,8 @@
       <c r="H165" t="s">
         <v>3</v>
       </c>
-      <c r="I165">
-        <f>VLOOKUP(D165,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>3</v>
       </c>
@@ -5373,12 +4714,8 @@
       <c r="H166" t="s">
         <v>3</v>
       </c>
-      <c r="I166">
-        <f>VLOOKUP(D166,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>3</v>
       </c>
@@ -5403,12 +4740,8 @@
       <c r="H167" t="s">
         <v>3</v>
       </c>
-      <c r="I167">
-        <f>VLOOKUP(D167,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>4</v>
       </c>
@@ -5433,12 +4766,8 @@
       <c r="H168" t="s">
         <v>3</v>
       </c>
-      <c r="I168">
-        <f>VLOOKUP(D168,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>4</v>
       </c>
@@ -5463,12 +4792,8 @@
       <c r="H169" t="s">
         <v>3</v>
       </c>
-      <c r="I169">
-        <f>VLOOKUP(D169,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>5</v>
       </c>
@@ -5493,12 +4818,8 @@
       <c r="H170" t="s">
         <v>3</v>
       </c>
-      <c r="I170">
-        <f>VLOOKUP(D170,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>5</v>
       </c>
@@ -5523,12 +4844,8 @@
       <c r="H171" t="s">
         <v>3</v>
       </c>
-      <c r="I171">
-        <f>VLOOKUP(D171,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>6</v>
       </c>
@@ -5553,12 +4870,8 @@
       <c r="H172" t="s">
         <v>3</v>
       </c>
-      <c r="I172">
-        <f>VLOOKUP(D172,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>6</v>
       </c>
@@ -5583,12 +4896,8 @@
       <c r="H173" t="s">
         <v>3</v>
       </c>
-      <c r="I173">
-        <f>VLOOKUP(D173,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>7</v>
       </c>
@@ -5613,12 +4922,8 @@
       <c r="H174" t="s">
         <v>3</v>
       </c>
-      <c r="I174">
-        <f>VLOOKUP(D174,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>7</v>
       </c>
@@ -5643,12 +4948,8 @@
       <c r="H175" t="s">
         <v>3</v>
       </c>
-      <c r="I175">
-        <f>VLOOKUP(D175,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>8</v>
       </c>
@@ -5673,12 +4974,8 @@
       <c r="H176" t="s">
         <v>3</v>
       </c>
-      <c r="I176">
-        <f>VLOOKUP(D176,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>8</v>
       </c>
@@ -5703,12 +5000,8 @@
       <c r="H177" t="s">
         <v>3</v>
       </c>
-      <c r="I177">
-        <f>VLOOKUP(D177,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>9</v>
       </c>
@@ -5733,12 +5026,8 @@
       <c r="H178" t="s">
         <v>3</v>
       </c>
-      <c r="I178">
-        <f>VLOOKUP(D178,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>9</v>
       </c>
@@ -5763,12 +5052,8 @@
       <c r="H179" t="s">
         <v>3</v>
       </c>
-      <c r="I179">
-        <f>VLOOKUP(D179,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>10</v>
       </c>
@@ -5793,12 +5078,8 @@
       <c r="H180" t="s">
         <v>3</v>
       </c>
-      <c r="I180">
-        <f>VLOOKUP(D180,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>10</v>
       </c>
@@ -5823,12 +5104,8 @@
       <c r="H181" t="s">
         <v>3</v>
       </c>
-      <c r="I181">
-        <f>VLOOKUP(D181,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>1</v>
       </c>
@@ -5853,12 +5130,8 @@
       <c r="H182" t="s">
         <v>3</v>
       </c>
-      <c r="I182">
-        <f>VLOOKUP(D182,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>1</v>
       </c>
@@ -5883,12 +5156,8 @@
       <c r="H183" t="s">
         <v>3</v>
       </c>
-      <c r="I183">
-        <f>VLOOKUP(D183,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>2</v>
       </c>
@@ -5913,12 +5182,8 @@
       <c r="H184" t="s">
         <v>3</v>
       </c>
-      <c r="I184">
-        <f>VLOOKUP(D184,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>2</v>
       </c>
@@ -5943,12 +5208,8 @@
       <c r="H185" t="s">
         <v>3</v>
       </c>
-      <c r="I185">
-        <f>VLOOKUP(D185,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>3</v>
       </c>
@@ -5973,12 +5234,8 @@
       <c r="H186" t="s">
         <v>3</v>
       </c>
-      <c r="I186">
-        <f>VLOOKUP(D186,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>3</v>
       </c>
@@ -6003,12 +5260,8 @@
       <c r="H187" t="s">
         <v>3</v>
       </c>
-      <c r="I187">
-        <f>VLOOKUP(D187,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>4</v>
       </c>
@@ -6033,12 +5286,8 @@
       <c r="H188" t="s">
         <v>3</v>
       </c>
-      <c r="I188">
-        <f>VLOOKUP(D188,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>4</v>
       </c>
@@ -6063,12 +5312,8 @@
       <c r="H189" t="s">
         <v>3</v>
       </c>
-      <c r="I189">
-        <f>VLOOKUP(D189,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>5</v>
       </c>
@@ -6093,12 +5338,8 @@
       <c r="H190" t="s">
         <v>3</v>
       </c>
-      <c r="I190">
-        <f>VLOOKUP(D190,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>5</v>
       </c>
@@ -6123,12 +5364,8 @@
       <c r="H191" t="s">
         <v>3</v>
       </c>
-      <c r="I191">
-        <f>VLOOKUP(D191,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>6</v>
       </c>
@@ -6153,12 +5390,8 @@
       <c r="H192" t="s">
         <v>3</v>
       </c>
-      <c r="I192">
-        <f>VLOOKUP(D192,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>6</v>
       </c>
@@ -6183,12 +5416,8 @@
       <c r="H193" t="s">
         <v>3</v>
       </c>
-      <c r="I193">
-        <f>VLOOKUP(D193,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>7</v>
       </c>
@@ -6213,12 +5442,8 @@
       <c r="H194" t="s">
         <v>3</v>
       </c>
-      <c r="I194">
-        <f>VLOOKUP(D194,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>7</v>
       </c>
@@ -6243,12 +5468,8 @@
       <c r="H195" t="s">
         <v>3</v>
       </c>
-      <c r="I195">
-        <f>VLOOKUP(D195,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>8</v>
       </c>
@@ -6273,12 +5494,8 @@
       <c r="H196" t="s">
         <v>3</v>
       </c>
-      <c r="I196">
-        <f>VLOOKUP(D196,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>8</v>
       </c>
@@ -6303,12 +5520,8 @@
       <c r="H197" t="s">
         <v>3</v>
       </c>
-      <c r="I197">
-        <f>VLOOKUP(D197,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>9</v>
       </c>
@@ -6333,12 +5546,8 @@
       <c r="H198" t="s">
         <v>3</v>
       </c>
-      <c r="I198">
-        <f>VLOOKUP(D198,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>9</v>
       </c>
@@ -6363,12 +5572,8 @@
       <c r="H199" t="s">
         <v>3</v>
       </c>
-      <c r="I199">
-        <f>VLOOKUP(D199,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>10</v>
       </c>
@@ -6393,12 +5598,8 @@
       <c r="H200" t="s">
         <v>3</v>
       </c>
-      <c r="I200">
-        <f>VLOOKUP(D200,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>10</v>
       </c>
@@ -6423,12 +5624,8 @@
       <c r="H201" t="s">
         <v>3</v>
       </c>
-      <c r="I201">
-        <f>VLOOKUP(D201,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>1</v>
       </c>
@@ -6453,12 +5650,8 @@
       <c r="H202" t="s">
         <v>3</v>
       </c>
-      <c r="I202">
-        <f>VLOOKUP(D202,TrueCounts!A:C,2,0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>1</v>
       </c>
@@ -6483,12 +5676,8 @@
       <c r="H203" t="s">
         <v>3</v>
       </c>
-      <c r="I203">
-        <f>VLOOKUP(D203,TrueCounts!A:C,2,0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>2</v>
       </c>
@@ -6513,12 +5702,8 @@
       <c r="H204" t="s">
         <v>3</v>
       </c>
-      <c r="I204">
-        <f>VLOOKUP(D204,TrueCounts!A:C,2,0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>2</v>
       </c>
@@ -6543,12 +5728,8 @@
       <c r="H205" t="s">
         <v>3</v>
       </c>
-      <c r="I205">
-        <f>VLOOKUP(D205,TrueCounts!A:C,2,0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>3</v>
       </c>
@@ -6573,12 +5754,8 @@
       <c r="H206" t="s">
         <v>3</v>
       </c>
-      <c r="I206">
-        <f>VLOOKUP(D206,TrueCounts!A:C,2,0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>3</v>
       </c>
@@ -6603,12 +5780,8 @@
       <c r="H207" t="s">
         <v>3</v>
       </c>
-      <c r="I207">
-        <f>VLOOKUP(D207,TrueCounts!A:C,2,0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>4</v>
       </c>
@@ -6633,12 +5806,8 @@
       <c r="H208" t="s">
         <v>3</v>
       </c>
-      <c r="I208">
-        <f>VLOOKUP(D208,TrueCounts!A:C,2,0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>4</v>
       </c>
@@ -6663,12 +5832,8 @@
       <c r="H209" t="s">
         <v>3</v>
       </c>
-      <c r="I209">
-        <f>VLOOKUP(D209,TrueCounts!A:C,2,0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>5</v>
       </c>
@@ -6693,12 +5858,8 @@
       <c r="H210" t="s">
         <v>3</v>
       </c>
-      <c r="I210">
-        <f>VLOOKUP(D210,TrueCounts!A:C,2,0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>5</v>
       </c>
@@ -6723,12 +5884,8 @@
       <c r="H211" t="s">
         <v>3</v>
       </c>
-      <c r="I211">
-        <f>VLOOKUP(D211,TrueCounts!A:C,2,0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>6</v>
       </c>
@@ -6753,12 +5910,8 @@
       <c r="H212" t="s">
         <v>3</v>
       </c>
-      <c r="I212">
-        <f>VLOOKUP(D212,TrueCounts!A:C,2,0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>6</v>
       </c>
@@ -6783,12 +5936,8 @@
       <c r="H213" t="s">
         <v>3</v>
       </c>
-      <c r="I213">
-        <f>VLOOKUP(D213,TrueCounts!A:C,2,0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>7</v>
       </c>
@@ -6813,12 +5962,8 @@
       <c r="H214" t="s">
         <v>3</v>
       </c>
-      <c r="I214">
-        <f>VLOOKUP(D214,TrueCounts!A:C,2,0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>7</v>
       </c>
@@ -6843,12 +5988,8 @@
       <c r="H215" t="s">
         <v>3</v>
       </c>
-      <c r="I215">
-        <f>VLOOKUP(D215,TrueCounts!A:C,2,0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>8</v>
       </c>
@@ -6873,12 +6014,8 @@
       <c r="H216" t="s">
         <v>3</v>
       </c>
-      <c r="I216">
-        <f>VLOOKUP(D216,TrueCounts!A:C,2,0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>8</v>
       </c>
@@ -6903,12 +6040,8 @@
       <c r="H217" t="s">
         <v>3</v>
       </c>
-      <c r="I217">
-        <f>VLOOKUP(D217,TrueCounts!A:C,2,0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>9</v>
       </c>
@@ -6933,12 +6066,8 @@
       <c r="H218" t="s">
         <v>3</v>
       </c>
-      <c r="I218">
-        <f>VLOOKUP(D218,TrueCounts!A:C,2,0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>9</v>
       </c>
@@ -6963,12 +6092,8 @@
       <c r="H219" t="s">
         <v>3</v>
       </c>
-      <c r="I219">
-        <f>VLOOKUP(D219,TrueCounts!A:C,2,0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>10</v>
       </c>
@@ -6993,12 +6118,8 @@
       <c r="H220" t="s">
         <v>3</v>
       </c>
-      <c r="I220">
-        <f>VLOOKUP(D220,TrueCounts!A:C,2,0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>10</v>
       </c>
@@ -7023,12 +6144,8 @@
       <c r="H221" t="s">
         <v>3</v>
       </c>
-      <c r="I221">
-        <f>VLOOKUP(D221,TrueCounts!A:C,2,0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>1</v>
       </c>
@@ -7053,12 +6170,8 @@
       <c r="H222" t="s">
         <v>3</v>
       </c>
-      <c r="I222">
-        <f>VLOOKUP(D222,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>1</v>
       </c>
@@ -7083,12 +6196,8 @@
       <c r="H223" t="s">
         <v>3</v>
       </c>
-      <c r="I223">
-        <f>VLOOKUP(D223,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>2</v>
       </c>
@@ -7113,12 +6222,8 @@
       <c r="H224" t="s">
         <v>3</v>
       </c>
-      <c r="I224">
-        <f>VLOOKUP(D224,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>2</v>
       </c>
@@ -7143,12 +6248,8 @@
       <c r="H225" t="s">
         <v>3</v>
       </c>
-      <c r="I225">
-        <f>VLOOKUP(D225,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>3</v>
       </c>
@@ -7173,12 +6274,8 @@
       <c r="H226" t="s">
         <v>3</v>
       </c>
-      <c r="I226">
-        <f>VLOOKUP(D226,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>3</v>
       </c>
@@ -7203,12 +6300,8 @@
       <c r="H227" t="s">
         <v>3</v>
       </c>
-      <c r="I227">
-        <f>VLOOKUP(D227,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>4</v>
       </c>
@@ -7233,12 +6326,8 @@
       <c r="H228" t="s">
         <v>3</v>
       </c>
-      <c r="I228">
-        <f>VLOOKUP(D228,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>4</v>
       </c>
@@ -7263,12 +6352,8 @@
       <c r="H229" t="s">
         <v>3</v>
       </c>
-      <c r="I229">
-        <f>VLOOKUP(D229,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>5</v>
       </c>
@@ -7293,12 +6378,8 @@
       <c r="H230" t="s">
         <v>3</v>
       </c>
-      <c r="I230">
-        <f>VLOOKUP(D230,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>5</v>
       </c>
@@ -7323,12 +6404,8 @@
       <c r="H231" t="s">
         <v>3</v>
       </c>
-      <c r="I231">
-        <f>VLOOKUP(D231,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>6</v>
       </c>
@@ -7353,12 +6430,8 @@
       <c r="H232" t="s">
         <v>3</v>
       </c>
-      <c r="I232">
-        <f>VLOOKUP(D232,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>6</v>
       </c>
@@ -7383,12 +6456,8 @@
       <c r="H233" t="s">
         <v>3</v>
       </c>
-      <c r="I233">
-        <f>VLOOKUP(D233,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>7</v>
       </c>
@@ -7413,12 +6482,8 @@
       <c r="H234" t="s">
         <v>3</v>
       </c>
-      <c r="I234">
-        <f>VLOOKUP(D234,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>7</v>
       </c>
@@ -7443,12 +6508,8 @@
       <c r="H235" t="s">
         <v>3</v>
       </c>
-      <c r="I235">
-        <f>VLOOKUP(D235,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>8</v>
       </c>
@@ -7473,12 +6534,8 @@
       <c r="H236" t="s">
         <v>3</v>
       </c>
-      <c r="I236">
-        <f>VLOOKUP(D236,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>8</v>
       </c>
@@ -7503,12 +6560,8 @@
       <c r="H237" t="s">
         <v>3</v>
       </c>
-      <c r="I237">
-        <f>VLOOKUP(D237,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>9</v>
       </c>
@@ -7533,12 +6586,8 @@
       <c r="H238" t="s">
         <v>3</v>
       </c>
-      <c r="I238">
-        <f>VLOOKUP(D238,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>9</v>
       </c>
@@ -7563,12 +6612,8 @@
       <c r="H239" t="s">
         <v>3</v>
       </c>
-      <c r="I239">
-        <f>VLOOKUP(D239,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>10</v>
       </c>
@@ -7593,12 +6638,8 @@
       <c r="H240" t="s">
         <v>3</v>
       </c>
-      <c r="I240">
-        <f>VLOOKUP(D240,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>10</v>
       </c>
@@ -7623,12 +6664,8 @@
       <c r="H241" t="s">
         <v>3</v>
       </c>
-      <c r="I241">
-        <f>VLOOKUP(D241,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>1</v>
       </c>
@@ -7653,12 +6690,8 @@
       <c r="H242" t="s">
         <v>3</v>
       </c>
-      <c r="I242">
-        <f>VLOOKUP(D242,TrueCounts!A:C,2,0)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>1</v>
       </c>
@@ -7683,12 +6716,8 @@
       <c r="H243" t="s">
         <v>3</v>
       </c>
-      <c r="I243">
-        <f>VLOOKUP(D243,TrueCounts!A:C,2,0)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>2</v>
       </c>
@@ -7713,12 +6742,8 @@
       <c r="H244" t="s">
         <v>3</v>
       </c>
-      <c r="I244">
-        <f>VLOOKUP(D244,TrueCounts!A:C,2,0)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>2</v>
       </c>
@@ -7743,12 +6768,8 @@
       <c r="H245" t="s">
         <v>3</v>
       </c>
-      <c r="I245">
-        <f>VLOOKUP(D245,TrueCounts!A:C,2,0)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>3</v>
       </c>
@@ -7773,12 +6794,8 @@
       <c r="H246" t="s">
         <v>3</v>
       </c>
-      <c r="I246">
-        <f>VLOOKUP(D246,TrueCounts!A:C,2,0)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>3</v>
       </c>
@@ -7803,12 +6820,8 @@
       <c r="H247" t="s">
         <v>3</v>
       </c>
-      <c r="I247">
-        <f>VLOOKUP(D247,TrueCounts!A:C,2,0)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>4</v>
       </c>
@@ -7833,12 +6846,8 @@
       <c r="H248" t="s">
         <v>3</v>
       </c>
-      <c r="I248">
-        <f>VLOOKUP(D248,TrueCounts!A:C,2,0)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>4</v>
       </c>
@@ -7863,12 +6872,8 @@
       <c r="H249" t="s">
         <v>3</v>
       </c>
-      <c r="I249">
-        <f>VLOOKUP(D249,TrueCounts!A:C,2,0)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>5</v>
       </c>
@@ -7893,12 +6898,8 @@
       <c r="H250" t="s">
         <v>3</v>
       </c>
-      <c r="I250">
-        <f>VLOOKUP(D250,TrueCounts!A:C,2,0)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>5</v>
       </c>
@@ -7923,12 +6924,8 @@
       <c r="H251" t="s">
         <v>3</v>
       </c>
-      <c r="I251">
-        <f>VLOOKUP(D251,TrueCounts!A:C,2,0)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>6</v>
       </c>
@@ -7953,12 +6950,8 @@
       <c r="H252" t="s">
         <v>3</v>
       </c>
-      <c r="I252">
-        <f>VLOOKUP(D252,TrueCounts!A:C,2,0)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>6</v>
       </c>
@@ -7983,12 +6976,8 @@
       <c r="H253" t="s">
         <v>3</v>
       </c>
-      <c r="I253">
-        <f>VLOOKUP(D253,TrueCounts!A:C,2,0)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>7</v>
       </c>
@@ -8013,12 +7002,8 @@
       <c r="H254" t="s">
         <v>3</v>
       </c>
-      <c r="I254">
-        <f>VLOOKUP(D254,TrueCounts!A:C,2,0)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>7</v>
       </c>
@@ -8043,12 +7028,8 @@
       <c r="H255" t="s">
         <v>3</v>
       </c>
-      <c r="I255">
-        <f>VLOOKUP(D255,TrueCounts!A:C,2,0)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>8</v>
       </c>
@@ -8073,12 +7054,8 @@
       <c r="H256" t="s">
         <v>3</v>
       </c>
-      <c r="I256">
-        <f>VLOOKUP(D256,TrueCounts!A:C,2,0)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>8</v>
       </c>
@@ -8103,12 +7080,8 @@
       <c r="H257" t="s">
         <v>3</v>
       </c>
-      <c r="I257">
-        <f>VLOOKUP(D257,TrueCounts!A:C,2,0)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>9</v>
       </c>
@@ -8133,12 +7106,8 @@
       <c r="H258" t="s">
         <v>3</v>
       </c>
-      <c r="I258">
-        <f>VLOOKUP(D258,TrueCounts!A:C,2,0)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>9</v>
       </c>
@@ -8163,12 +7132,8 @@
       <c r="H259" t="s">
         <v>3</v>
       </c>
-      <c r="I259">
-        <f>VLOOKUP(D259,TrueCounts!A:C,2,0)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>10</v>
       </c>
@@ -8193,12 +7158,8 @@
       <c r="H260" t="s">
         <v>3</v>
       </c>
-      <c r="I260">
-        <f>VLOOKUP(D260,TrueCounts!A:C,2,0)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>10</v>
       </c>
@@ -8223,12 +7184,8 @@
       <c r="H261" t="s">
         <v>3</v>
       </c>
-      <c r="I261">
-        <f>VLOOKUP(D261,TrueCounts!A:C,2,0)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>1</v>
       </c>
@@ -8253,12 +7210,8 @@
       <c r="H262" t="s">
         <v>3</v>
       </c>
-      <c r="I262">
-        <f>VLOOKUP(D262,TrueCounts!A:C,2,0)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>1</v>
       </c>
@@ -8283,12 +7236,8 @@
       <c r="H263" t="s">
         <v>3</v>
       </c>
-      <c r="I263">
-        <f>VLOOKUP(D263,TrueCounts!A:C,2,0)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>2</v>
       </c>
@@ -8313,12 +7262,8 @@
       <c r="H264" t="s">
         <v>3</v>
       </c>
-      <c r="I264">
-        <f>VLOOKUP(D264,TrueCounts!A:C,2,0)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>2</v>
       </c>
@@ -8343,12 +7288,8 @@
       <c r="H265" t="s">
         <v>3</v>
       </c>
-      <c r="I265">
-        <f>VLOOKUP(D265,TrueCounts!A:C,2,0)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>3</v>
       </c>
@@ -8373,12 +7314,8 @@
       <c r="H266" t="s">
         <v>3</v>
       </c>
-      <c r="I266">
-        <f>VLOOKUP(D266,TrueCounts!A:C,2,0)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>3</v>
       </c>
@@ -8403,12 +7340,8 @@
       <c r="H267" t="s">
         <v>3</v>
       </c>
-      <c r="I267">
-        <f>VLOOKUP(D267,TrueCounts!A:C,2,0)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>4</v>
       </c>
@@ -8433,12 +7366,8 @@
       <c r="H268" t="s">
         <v>3</v>
       </c>
-      <c r="I268">
-        <f>VLOOKUP(D268,TrueCounts!A:C,2,0)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>4</v>
       </c>
@@ -8463,12 +7392,8 @@
       <c r="H269" t="s">
         <v>3</v>
       </c>
-      <c r="I269">
-        <f>VLOOKUP(D269,TrueCounts!A:C,2,0)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>5</v>
       </c>
@@ -8493,12 +7418,8 @@
       <c r="H270" t="s">
         <v>3</v>
       </c>
-      <c r="I270">
-        <f>VLOOKUP(D270,TrueCounts!A:C,2,0)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>5</v>
       </c>
@@ -8523,12 +7444,8 @@
       <c r="H271" t="s">
         <v>3</v>
       </c>
-      <c r="I271">
-        <f>VLOOKUP(D271,TrueCounts!A:C,2,0)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>6</v>
       </c>
@@ -8553,12 +7470,8 @@
       <c r="H272" t="s">
         <v>3</v>
       </c>
-      <c r="I272">
-        <f>VLOOKUP(D272,TrueCounts!A:C,2,0)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>6</v>
       </c>
@@ -8583,12 +7496,8 @@
       <c r="H273" t="s">
         <v>3</v>
       </c>
-      <c r="I273">
-        <f>VLOOKUP(D273,TrueCounts!A:C,2,0)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>7</v>
       </c>
@@ -8613,12 +7522,8 @@
       <c r="H274" t="s">
         <v>3</v>
       </c>
-      <c r="I274">
-        <f>VLOOKUP(D274,TrueCounts!A:C,2,0)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>7</v>
       </c>
@@ -8643,12 +7548,8 @@
       <c r="H275" t="s">
         <v>3</v>
       </c>
-      <c r="I275">
-        <f>VLOOKUP(D275,TrueCounts!A:C,2,0)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>8</v>
       </c>
@@ -8673,12 +7574,8 @@
       <c r="H276" t="s">
         <v>3</v>
       </c>
-      <c r="I276">
-        <f>VLOOKUP(D276,TrueCounts!A:C,2,0)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>8</v>
       </c>
@@ -8703,12 +7600,8 @@
       <c r="H277" t="s">
         <v>3</v>
       </c>
-      <c r="I277">
-        <f>VLOOKUP(D277,TrueCounts!A:C,2,0)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>9</v>
       </c>
@@ -8733,12 +7626,8 @@
       <c r="H278" t="s">
         <v>3</v>
       </c>
-      <c r="I278">
-        <f>VLOOKUP(D278,TrueCounts!A:C,2,0)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>9</v>
       </c>
@@ -8763,12 +7652,8 @@
       <c r="H279" t="s">
         <v>3</v>
       </c>
-      <c r="I279">
-        <f>VLOOKUP(D279,TrueCounts!A:C,2,0)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>10</v>
       </c>
@@ -8793,12 +7678,8 @@
       <c r="H280" t="s">
         <v>3</v>
       </c>
-      <c r="I280">
-        <f>VLOOKUP(D280,TrueCounts!A:C,2,0)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>10</v>
       </c>
@@ -8823,12 +7704,8 @@
       <c r="H281" t="s">
         <v>3</v>
       </c>
-      <c r="I281">
-        <f>VLOOKUP(D281,TrueCounts!A:C,2,0)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>1</v>
       </c>
@@ -8853,12 +7730,8 @@
       <c r="H282" t="s">
         <v>3</v>
       </c>
-      <c r="I282">
-        <f>VLOOKUP(D282,TrueCounts!A:C,2,0)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>1</v>
       </c>
@@ -8883,12 +7756,8 @@
       <c r="H283" t="s">
         <v>3</v>
       </c>
-      <c r="I283">
-        <f>VLOOKUP(D283,TrueCounts!A:C,2,0)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>2</v>
       </c>
@@ -8913,12 +7782,8 @@
       <c r="H284" t="s">
         <v>3</v>
       </c>
-      <c r="I284">
-        <f>VLOOKUP(D284,TrueCounts!A:C,2,0)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>2</v>
       </c>
@@ -8943,12 +7808,8 @@
       <c r="H285" t="s">
         <v>3</v>
       </c>
-      <c r="I285">
-        <f>VLOOKUP(D285,TrueCounts!A:C,2,0)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>3</v>
       </c>
@@ -8973,12 +7834,8 @@
       <c r="H286" t="s">
         <v>3</v>
       </c>
-      <c r="I286">
-        <f>VLOOKUP(D286,TrueCounts!A:C,2,0)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>3</v>
       </c>
@@ -9003,12 +7860,8 @@
       <c r="H287" t="s">
         <v>3</v>
       </c>
-      <c r="I287">
-        <f>VLOOKUP(D287,TrueCounts!A:C,2,0)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>4</v>
       </c>
@@ -9033,12 +7886,8 @@
       <c r="H288" t="s">
         <v>3</v>
       </c>
-      <c r="I288">
-        <f>VLOOKUP(D288,TrueCounts!A:C,2,0)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>4</v>
       </c>
@@ -9063,12 +7912,8 @@
       <c r="H289" t="s">
         <v>3</v>
       </c>
-      <c r="I289">
-        <f>VLOOKUP(D289,TrueCounts!A:C,2,0)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>5</v>
       </c>
@@ -9093,12 +7938,8 @@
       <c r="H290" t="s">
         <v>3</v>
       </c>
-      <c r="I290">
-        <f>VLOOKUP(D290,TrueCounts!A:C,2,0)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>5</v>
       </c>
@@ -9123,12 +7964,8 @@
       <c r="H291" t="s">
         <v>3</v>
       </c>
-      <c r="I291">
-        <f>VLOOKUP(D291,TrueCounts!A:C,2,0)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>6</v>
       </c>
@@ -9153,12 +7990,8 @@
       <c r="H292" t="s">
         <v>3</v>
       </c>
-      <c r="I292">
-        <f>VLOOKUP(D292,TrueCounts!A:C,2,0)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>6</v>
       </c>
@@ -9183,12 +8016,8 @@
       <c r="H293" t="s">
         <v>3</v>
       </c>
-      <c r="I293">
-        <f>VLOOKUP(D293,TrueCounts!A:C,2,0)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>7</v>
       </c>
@@ -9213,12 +8042,8 @@
       <c r="H294" t="s">
         <v>3</v>
       </c>
-      <c r="I294">
-        <f>VLOOKUP(D294,TrueCounts!A:C,2,0)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>7</v>
       </c>
@@ -9243,12 +8068,8 @@
       <c r="H295" t="s">
         <v>3</v>
       </c>
-      <c r="I295">
-        <f>VLOOKUP(D295,TrueCounts!A:C,2,0)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>8</v>
       </c>
@@ -9273,12 +8094,8 @@
       <c r="H296" t="s">
         <v>3</v>
       </c>
-      <c r="I296">
-        <f>VLOOKUP(D296,TrueCounts!A:C,2,0)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>8</v>
       </c>
@@ -9303,12 +8120,8 @@
       <c r="H297" t="s">
         <v>3</v>
       </c>
-      <c r="I297">
-        <f>VLOOKUP(D297,TrueCounts!A:C,2,0)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>9</v>
       </c>
@@ -9333,12 +8146,8 @@
       <c r="H298" t="s">
         <v>3</v>
       </c>
-      <c r="I298">
-        <f>VLOOKUP(D298,TrueCounts!A:C,2,0)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>9</v>
       </c>
@@ -9363,12 +8172,8 @@
       <c r="H299" t="s">
         <v>3</v>
       </c>
-      <c r="I299">
-        <f>VLOOKUP(D299,TrueCounts!A:C,2,0)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>10</v>
       </c>
@@ -9393,12 +8198,8 @@
       <c r="H300" t="s">
         <v>3</v>
       </c>
-      <c r="I300">
-        <f>VLOOKUP(D300,TrueCounts!A:C,2,0)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>10</v>
       </c>
@@ -9423,12 +8224,8 @@
       <c r="H301" t="s">
         <v>3</v>
       </c>
-      <c r="I301">
-        <f>VLOOKUP(D301,TrueCounts!A:C,2,0)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>1</v>
       </c>
@@ -9453,12 +8250,8 @@
       <c r="H302" t="s">
         <v>3</v>
       </c>
-      <c r="I302">
-        <f>VLOOKUP(D302,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>1</v>
       </c>
@@ -9483,12 +8276,8 @@
       <c r="H303" t="s">
         <v>3</v>
       </c>
-      <c r="I303">
-        <f>VLOOKUP(D303,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>2</v>
       </c>
@@ -9513,12 +8302,8 @@
       <c r="H304" t="s">
         <v>3</v>
       </c>
-      <c r="I304">
-        <f>VLOOKUP(D304,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>2</v>
       </c>
@@ -9543,12 +8328,8 @@
       <c r="H305" t="s">
         <v>3</v>
       </c>
-      <c r="I305">
-        <f>VLOOKUP(D305,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>3</v>
       </c>
@@ -9573,12 +8354,8 @@
       <c r="H306" t="s">
         <v>3</v>
       </c>
-      <c r="I306">
-        <f>VLOOKUP(D306,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>3</v>
       </c>
@@ -9603,12 +8380,8 @@
       <c r="H307" t="s">
         <v>3</v>
       </c>
-      <c r="I307">
-        <f>VLOOKUP(D307,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>4</v>
       </c>
@@ -9633,12 +8406,8 @@
       <c r="H308" t="s">
         <v>3</v>
       </c>
-      <c r="I308">
-        <f>VLOOKUP(D308,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>4</v>
       </c>
@@ -9663,12 +8432,8 @@
       <c r="H309" t="s">
         <v>3</v>
       </c>
-      <c r="I309">
-        <f>VLOOKUP(D309,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>5</v>
       </c>
@@ -9693,12 +8458,8 @@
       <c r="H310" t="s">
         <v>3</v>
       </c>
-      <c r="I310">
-        <f>VLOOKUP(D310,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>5</v>
       </c>
@@ -9723,12 +8484,8 @@
       <c r="H311" t="s">
         <v>3</v>
       </c>
-      <c r="I311">
-        <f>VLOOKUP(D311,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>6</v>
       </c>
@@ -9753,12 +8510,8 @@
       <c r="H312" t="s">
         <v>3</v>
       </c>
-      <c r="I312">
-        <f>VLOOKUP(D312,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>6</v>
       </c>
@@ -9783,12 +8536,8 @@
       <c r="H313" t="s">
         <v>3</v>
       </c>
-      <c r="I313">
-        <f>VLOOKUP(D313,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>7</v>
       </c>
@@ -9813,12 +8562,8 @@
       <c r="H314" t="s">
         <v>3</v>
       </c>
-      <c r="I314">
-        <f>VLOOKUP(D314,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>7</v>
       </c>
@@ -9843,12 +8588,8 @@
       <c r="H315" t="s">
         <v>3</v>
       </c>
-      <c r="I315">
-        <f>VLOOKUP(D315,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>8</v>
       </c>
@@ -9873,12 +8614,8 @@
       <c r="H316" t="s">
         <v>3</v>
       </c>
-      <c r="I316">
-        <f>VLOOKUP(D316,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>8</v>
       </c>
@@ -9903,12 +8640,8 @@
       <c r="H317" t="s">
         <v>3</v>
       </c>
-      <c r="I317">
-        <f>VLOOKUP(D317,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>9</v>
       </c>
@@ -9933,12 +8666,8 @@
       <c r="H318" t="s">
         <v>3</v>
       </c>
-      <c r="I318">
-        <f>VLOOKUP(D318,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>9</v>
       </c>
@@ -9963,12 +8692,8 @@
       <c r="H319" t="s">
         <v>3</v>
       </c>
-      <c r="I319">
-        <f>VLOOKUP(D319,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>10</v>
       </c>
@@ -9993,12 +8718,8 @@
       <c r="H320" t="s">
         <v>3</v>
       </c>
-      <c r="I320">
-        <f>VLOOKUP(D320,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>10</v>
       </c>
@@ -10023,12 +8744,8 @@
       <c r="H321" t="s">
         <v>3</v>
       </c>
-      <c r="I321">
-        <f>VLOOKUP(D321,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>1</v>
       </c>
@@ -10053,12 +8770,8 @@
       <c r="H322" t="s">
         <v>3</v>
       </c>
-      <c r="I322">
-        <f>VLOOKUP(D322,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>1</v>
       </c>
@@ -10083,12 +8796,8 @@
       <c r="H323" t="s">
         <v>3</v>
       </c>
-      <c r="I323">
-        <f>VLOOKUP(D323,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>2</v>
       </c>
@@ -10113,12 +8822,8 @@
       <c r="H324" t="s">
         <v>3</v>
       </c>
-      <c r="I324">
-        <f>VLOOKUP(D324,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>2</v>
       </c>
@@ -10143,12 +8848,8 @@
       <c r="H325" t="s">
         <v>3</v>
       </c>
-      <c r="I325">
-        <f>VLOOKUP(D325,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>3</v>
       </c>
@@ -10173,12 +8874,8 @@
       <c r="H326" t="s">
         <v>3</v>
       </c>
-      <c r="I326">
-        <f>VLOOKUP(D326,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>3</v>
       </c>
@@ -10203,12 +8900,8 @@
       <c r="H327" t="s">
         <v>3</v>
       </c>
-      <c r="I327">
-        <f>VLOOKUP(D327,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>4</v>
       </c>
@@ -10233,12 +8926,8 @@
       <c r="H328" t="s">
         <v>3</v>
       </c>
-      <c r="I328">
-        <f>VLOOKUP(D328,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>4</v>
       </c>
@@ -10263,12 +8952,8 @@
       <c r="H329" t="s">
         <v>3</v>
       </c>
-      <c r="I329">
-        <f>VLOOKUP(D329,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>5</v>
       </c>
@@ -10293,12 +8978,8 @@
       <c r="H330" t="s">
         <v>3</v>
       </c>
-      <c r="I330">
-        <f>VLOOKUP(D330,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>5</v>
       </c>
@@ -10323,12 +9004,8 @@
       <c r="H331" t="s">
         <v>3</v>
       </c>
-      <c r="I331">
-        <f>VLOOKUP(D331,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>6</v>
       </c>
@@ -10353,12 +9030,8 @@
       <c r="H332" t="s">
         <v>3</v>
       </c>
-      <c r="I332">
-        <f>VLOOKUP(D332,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>6</v>
       </c>
@@ -10383,12 +9056,8 @@
       <c r="H333" t="s">
         <v>3</v>
       </c>
-      <c r="I333">
-        <f>VLOOKUP(D333,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>7</v>
       </c>
@@ -10413,12 +9082,8 @@
       <c r="H334" t="s">
         <v>3</v>
       </c>
-      <c r="I334">
-        <f>VLOOKUP(D334,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>7</v>
       </c>
@@ -10443,12 +9108,8 @@
       <c r="H335" t="s">
         <v>3</v>
       </c>
-      <c r="I335">
-        <f>VLOOKUP(D335,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>8</v>
       </c>
@@ -10473,12 +9134,8 @@
       <c r="H336" t="s">
         <v>3</v>
       </c>
-      <c r="I336">
-        <f>VLOOKUP(D336,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>8</v>
       </c>
@@ -10503,12 +9160,8 @@
       <c r="H337" t="s">
         <v>3</v>
       </c>
-      <c r="I337">
-        <f>VLOOKUP(D337,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>9</v>
       </c>
@@ -10533,12 +9186,8 @@
       <c r="H338" t="s">
         <v>3</v>
       </c>
-      <c r="I338">
-        <f>VLOOKUP(D338,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>9</v>
       </c>
@@ -10563,12 +9212,8 @@
       <c r="H339" t="s">
         <v>3</v>
       </c>
-      <c r="I339">
-        <f>VLOOKUP(D339,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>10</v>
       </c>
@@ -10593,12 +9238,8 @@
       <c r="H340" t="s">
         <v>3</v>
       </c>
-      <c r="I340">
-        <f>VLOOKUP(D340,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>10</v>
       </c>
@@ -10623,12 +9264,8 @@
       <c r="H341" t="s">
         <v>3</v>
       </c>
-      <c r="I341">
-        <f>VLOOKUP(D341,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>1</v>
       </c>
@@ -10653,12 +9290,8 @@
       <c r="H342" t="s">
         <v>3</v>
       </c>
-      <c r="I342">
-        <f>VLOOKUP(D342,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>1</v>
       </c>
@@ -10683,12 +9316,8 @@
       <c r="H343" t="s">
         <v>3</v>
       </c>
-      <c r="I343">
-        <f>VLOOKUP(D343,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>2</v>
       </c>
@@ -10713,12 +9342,8 @@
       <c r="H344" t="s">
         <v>3</v>
       </c>
-      <c r="I344">
-        <f>VLOOKUP(D344,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>2</v>
       </c>
@@ -10743,12 +9368,8 @@
       <c r="H345" t="s">
         <v>3</v>
       </c>
-      <c r="I345">
-        <f>VLOOKUP(D345,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>3</v>
       </c>
@@ -10773,12 +9394,8 @@
       <c r="H346" t="s">
         <v>3</v>
       </c>
-      <c r="I346">
-        <f>VLOOKUP(D346,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>3</v>
       </c>
@@ -10803,12 +9420,8 @@
       <c r="H347" t="s">
         <v>3</v>
       </c>
-      <c r="I347">
-        <f>VLOOKUP(D347,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>4</v>
       </c>
@@ -10833,12 +9446,8 @@
       <c r="H348" t="s">
         <v>3</v>
       </c>
-      <c r="I348">
-        <f>VLOOKUP(D348,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>4</v>
       </c>
@@ -10863,12 +9472,8 @@
       <c r="H349" t="s">
         <v>3</v>
       </c>
-      <c r="I349">
-        <f>VLOOKUP(D349,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>5</v>
       </c>
@@ -10893,12 +9498,8 @@
       <c r="H350" t="s">
         <v>3</v>
       </c>
-      <c r="I350">
-        <f>VLOOKUP(D350,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>5</v>
       </c>
@@ -10923,12 +9524,8 @@
       <c r="H351" t="s">
         <v>3</v>
       </c>
-      <c r="I351">
-        <f>VLOOKUP(D351,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>6</v>
       </c>
@@ -10953,12 +9550,8 @@
       <c r="H352" t="s">
         <v>3</v>
       </c>
-      <c r="I352">
-        <f>VLOOKUP(D352,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>6</v>
       </c>
@@ -10983,12 +9576,8 @@
       <c r="H353" t="s">
         <v>3</v>
       </c>
-      <c r="I353">
-        <f>VLOOKUP(D353,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>7</v>
       </c>
@@ -11013,12 +9602,8 @@
       <c r="H354" t="s">
         <v>3</v>
       </c>
-      <c r="I354">
-        <f>VLOOKUP(D354,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>7</v>
       </c>
@@ -11043,12 +9628,8 @@
       <c r="H355" t="s">
         <v>3</v>
       </c>
-      <c r="I355">
-        <f>VLOOKUP(D355,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>8</v>
       </c>
@@ -11073,12 +9654,8 @@
       <c r="H356" t="s">
         <v>3</v>
       </c>
-      <c r="I356">
-        <f>VLOOKUP(D356,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>8</v>
       </c>
@@ -11103,12 +9680,8 @@
       <c r="H357" t="s">
         <v>3</v>
       </c>
-      <c r="I357">
-        <f>VLOOKUP(D357,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>9</v>
       </c>
@@ -11133,12 +9706,8 @@
       <c r="H358" t="s">
         <v>3</v>
       </c>
-      <c r="I358">
-        <f>VLOOKUP(D358,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>9</v>
       </c>
@@ -11163,12 +9732,8 @@
       <c r="H359" t="s">
         <v>3</v>
       </c>
-      <c r="I359">
-        <f>VLOOKUP(D359,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>10</v>
       </c>
@@ -11193,12 +9758,8 @@
       <c r="H360" t="s">
         <v>3</v>
       </c>
-      <c r="I360">
-        <f>VLOOKUP(D360,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>10</v>
       </c>
@@ -11223,12 +9784,8 @@
       <c r="H361" t="s">
         <v>3</v>
       </c>
-      <c r="I361">
-        <f>VLOOKUP(D361,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>1</v>
       </c>
@@ -11253,12 +9810,8 @@
       <c r="H362" t="s">
         <v>3</v>
       </c>
-      <c r="I362">
-        <f>VLOOKUP(D362,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>1</v>
       </c>
@@ -11283,12 +9836,8 @@
       <c r="H363" t="s">
         <v>3</v>
       </c>
-      <c r="I363">
-        <f>VLOOKUP(D363,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>2</v>
       </c>
@@ -11313,12 +9862,8 @@
       <c r="H364" t="s">
         <v>3</v>
       </c>
-      <c r="I364">
-        <f>VLOOKUP(D364,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>2</v>
       </c>
@@ -11343,12 +9888,8 @@
       <c r="H365" t="s">
         <v>3</v>
       </c>
-      <c r="I365">
-        <f>VLOOKUP(D365,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>3</v>
       </c>
@@ -11373,12 +9914,8 @@
       <c r="H366" t="s">
         <v>3</v>
       </c>
-      <c r="I366">
-        <f>VLOOKUP(D366,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>3</v>
       </c>
@@ -11403,12 +9940,8 @@
       <c r="H367" t="s">
         <v>3</v>
       </c>
-      <c r="I367">
-        <f>VLOOKUP(D367,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>4</v>
       </c>
@@ -11433,12 +9966,8 @@
       <c r="H368" t="s">
         <v>3</v>
       </c>
-      <c r="I368">
-        <f>VLOOKUP(D368,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>4</v>
       </c>
@@ -11463,12 +9992,8 @@
       <c r="H369" t="s">
         <v>3</v>
       </c>
-      <c r="I369">
-        <f>VLOOKUP(D369,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>5</v>
       </c>
@@ -11493,12 +10018,8 @@
       <c r="H370" t="s">
         <v>3</v>
       </c>
-      <c r="I370">
-        <f>VLOOKUP(D370,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>5</v>
       </c>
@@ -11523,12 +10044,8 @@
       <c r="H371" t="s">
         <v>3</v>
       </c>
-      <c r="I371">
-        <f>VLOOKUP(D371,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>6</v>
       </c>
@@ -11553,12 +10070,8 @@
       <c r="H372" t="s">
         <v>3</v>
       </c>
-      <c r="I372">
-        <f>VLOOKUP(D372,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>6</v>
       </c>
@@ -11583,12 +10096,8 @@
       <c r="H373" t="s">
         <v>3</v>
       </c>
-      <c r="I373">
-        <f>VLOOKUP(D373,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>7</v>
       </c>
@@ -11613,12 +10122,8 @@
       <c r="H374" t="s">
         <v>3</v>
       </c>
-      <c r="I374">
-        <f>VLOOKUP(D374,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>7</v>
       </c>
@@ -11643,12 +10148,8 @@
       <c r="H375" t="s">
         <v>3</v>
       </c>
-      <c r="I375">
-        <f>VLOOKUP(D375,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>8</v>
       </c>
@@ -11673,12 +10174,8 @@
       <c r="H376" t="s">
         <v>3</v>
       </c>
-      <c r="I376">
-        <f>VLOOKUP(D376,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>8</v>
       </c>
@@ -11703,12 +10200,8 @@
       <c r="H377" t="s">
         <v>3</v>
       </c>
-      <c r="I377">
-        <f>VLOOKUP(D377,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>9</v>
       </c>
@@ -11733,12 +10226,8 @@
       <c r="H378" t="s">
         <v>3</v>
       </c>
-      <c r="I378">
-        <f>VLOOKUP(D378,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>9</v>
       </c>
@@ -11763,12 +10252,8 @@
       <c r="H379" t="s">
         <v>3</v>
       </c>
-      <c r="I379">
-        <f>VLOOKUP(D379,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>10</v>
       </c>
@@ -11793,12 +10278,8 @@
       <c r="H380" t="s">
         <v>3</v>
       </c>
-      <c r="I380">
-        <f>VLOOKUP(D380,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>10</v>
       </c>
@@ -11823,12 +10304,8 @@
       <c r="H381" t="s">
         <v>3</v>
       </c>
-      <c r="I381">
-        <f>VLOOKUP(D381,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>1</v>
       </c>
@@ -11853,12 +10330,8 @@
       <c r="H382" t="s">
         <v>3</v>
       </c>
-      <c r="I382">
-        <f>VLOOKUP(D382,TrueCounts!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>1</v>
       </c>
@@ -11883,12 +10356,8 @@
       <c r="H383" t="s">
         <v>3</v>
       </c>
-      <c r="I383">
-        <f>VLOOKUP(D383,TrueCounts!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>2</v>
       </c>
@@ -11913,12 +10382,8 @@
       <c r="H384" t="s">
         <v>3</v>
       </c>
-      <c r="I384">
-        <f>VLOOKUP(D384,TrueCounts!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>2</v>
       </c>
@@ -11943,12 +10408,8 @@
       <c r="H385" t="s">
         <v>3</v>
       </c>
-      <c r="I385">
-        <f>VLOOKUP(D385,TrueCounts!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>3</v>
       </c>
@@ -11973,12 +10434,8 @@
       <c r="H386" t="s">
         <v>3</v>
       </c>
-      <c r="I386">
-        <f>VLOOKUP(D386,TrueCounts!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>3</v>
       </c>
@@ -12003,12 +10460,8 @@
       <c r="H387" t="s">
         <v>3</v>
       </c>
-      <c r="I387">
-        <f>VLOOKUP(D387,TrueCounts!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>4</v>
       </c>
@@ -12033,12 +10486,8 @@
       <c r="H388" t="s">
         <v>3</v>
       </c>
-      <c r="I388">
-        <f>VLOOKUP(D388,TrueCounts!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>4</v>
       </c>
@@ -12063,12 +10512,8 @@
       <c r="H389" t="s">
         <v>3</v>
       </c>
-      <c r="I389">
-        <f>VLOOKUP(D389,TrueCounts!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>5</v>
       </c>
@@ -12093,12 +10538,8 @@
       <c r="H390" t="s">
         <v>3</v>
       </c>
-      <c r="I390">
-        <f>VLOOKUP(D390,TrueCounts!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>5</v>
       </c>
@@ -12123,12 +10564,8 @@
       <c r="H391" t="s">
         <v>3</v>
       </c>
-      <c r="I391">
-        <f>VLOOKUP(D391,TrueCounts!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>6</v>
       </c>
@@ -12153,12 +10590,8 @@
       <c r="H392" t="s">
         <v>3</v>
       </c>
-      <c r="I392">
-        <f>VLOOKUP(D392,TrueCounts!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>6</v>
       </c>
@@ -12183,12 +10616,8 @@
       <c r="H393" t="s">
         <v>3</v>
       </c>
-      <c r="I393">
-        <f>VLOOKUP(D393,TrueCounts!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>7</v>
       </c>
@@ -12213,12 +10642,8 @@
       <c r="H394" t="s">
         <v>3</v>
       </c>
-      <c r="I394">
-        <f>VLOOKUP(D394,TrueCounts!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>7</v>
       </c>
@@ -12243,12 +10668,8 @@
       <c r="H395" t="s">
         <v>3</v>
       </c>
-      <c r="I395">
-        <f>VLOOKUP(D395,TrueCounts!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>8</v>
       </c>
@@ -12273,12 +10694,8 @@
       <c r="H396" t="s">
         <v>3</v>
       </c>
-      <c r="I396">
-        <f>VLOOKUP(D396,TrueCounts!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>8</v>
       </c>
@@ -12303,12 +10720,8 @@
       <c r="H397" t="s">
         <v>3</v>
       </c>
-      <c r="I397">
-        <f>VLOOKUP(D397,TrueCounts!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>9</v>
       </c>
@@ -12333,12 +10746,8 @@
       <c r="H398" t="s">
         <v>3</v>
       </c>
-      <c r="I398">
-        <f>VLOOKUP(D398,TrueCounts!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>9</v>
       </c>
@@ -12363,12 +10772,8 @@
       <c r="H399" t="s">
         <v>3</v>
       </c>
-      <c r="I399">
-        <f>VLOOKUP(D399,TrueCounts!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>10</v>
       </c>
@@ -12393,12 +10798,8 @@
       <c r="H400" t="s">
         <v>3</v>
       </c>
-      <c r="I400">
-        <f>VLOOKUP(D400,TrueCounts!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>10</v>
       </c>
@@ -12423,12 +10824,8 @@
       <c r="H401" t="s">
         <v>3</v>
       </c>
-      <c r="I401">
-        <f>VLOOKUP(D401,TrueCounts!A:C,2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>1</v>
       </c>
@@ -12453,12 +10850,8 @@
       <c r="H402" t="s">
         <v>3</v>
       </c>
-      <c r="I402">
-        <f>VLOOKUP(D402,TrueCounts!A:C,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>1</v>
       </c>
@@ -12483,12 +10876,8 @@
       <c r="H403" t="s">
         <v>3</v>
       </c>
-      <c r="I403">
-        <f>VLOOKUP(D403,TrueCounts!A:C,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>2</v>
       </c>
@@ -12513,12 +10902,8 @@
       <c r="H404" t="s">
         <v>3</v>
       </c>
-      <c r="I404">
-        <f>VLOOKUP(D404,TrueCounts!A:C,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>2</v>
       </c>
@@ -12543,12 +10928,8 @@
       <c r="H405" t="s">
         <v>3</v>
       </c>
-      <c r="I405">
-        <f>VLOOKUP(D405,TrueCounts!A:C,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>3</v>
       </c>
@@ -12573,12 +10954,8 @@
       <c r="H406" t="s">
         <v>3</v>
       </c>
-      <c r="I406">
-        <f>VLOOKUP(D406,TrueCounts!A:C,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>3</v>
       </c>
@@ -12603,12 +10980,8 @@
       <c r="H407" t="s">
         <v>3</v>
       </c>
-      <c r="I407">
-        <f>VLOOKUP(D407,TrueCounts!A:C,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>4</v>
       </c>
@@ -12633,12 +11006,8 @@
       <c r="H408" t="s">
         <v>3</v>
       </c>
-      <c r="I408">
-        <f>VLOOKUP(D408,TrueCounts!A:C,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>4</v>
       </c>
@@ -12663,12 +11032,8 @@
       <c r="H409" t="s">
         <v>3</v>
       </c>
-      <c r="I409">
-        <f>VLOOKUP(D409,TrueCounts!A:C,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>5</v>
       </c>
@@ -12693,12 +11058,8 @@
       <c r="H410" t="s">
         <v>3</v>
       </c>
-      <c r="I410">
-        <f>VLOOKUP(D410,TrueCounts!A:C,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>5</v>
       </c>
@@ -12723,12 +11084,8 @@
       <c r="H411" t="s">
         <v>3</v>
       </c>
-      <c r="I411">
-        <f>VLOOKUP(D411,TrueCounts!A:C,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>6</v>
       </c>
@@ -12753,12 +11110,8 @@
       <c r="H412" t="s">
         <v>3</v>
       </c>
-      <c r="I412">
-        <f>VLOOKUP(D412,TrueCounts!A:C,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>6</v>
       </c>
@@ -12783,12 +11136,8 @@
       <c r="H413" t="s">
         <v>3</v>
       </c>
-      <c r="I413">
-        <f>VLOOKUP(D413,TrueCounts!A:C,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>7</v>
       </c>
@@ -12813,12 +11162,8 @@
       <c r="H414" t="s">
         <v>3</v>
       </c>
-      <c r="I414">
-        <f>VLOOKUP(D414,TrueCounts!A:C,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>7</v>
       </c>
@@ -12843,12 +11188,8 @@
       <c r="H415" t="s">
         <v>3</v>
       </c>
-      <c r="I415">
-        <f>VLOOKUP(D415,TrueCounts!A:C,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>8</v>
       </c>
@@ -12873,12 +11214,8 @@
       <c r="H416" t="s">
         <v>3</v>
       </c>
-      <c r="I416">
-        <f>VLOOKUP(D416,TrueCounts!A:C,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>8</v>
       </c>
@@ -12903,12 +11240,8 @@
       <c r="H417" t="s">
         <v>3</v>
       </c>
-      <c r="I417">
-        <f>VLOOKUP(D417,TrueCounts!A:C,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>9</v>
       </c>
@@ -12933,12 +11266,8 @@
       <c r="H418" t="s">
         <v>3</v>
       </c>
-      <c r="I418">
-        <f>VLOOKUP(D418,TrueCounts!A:C,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>9</v>
       </c>
@@ -12963,12 +11292,8 @@
       <c r="H419" t="s">
         <v>3</v>
       </c>
-      <c r="I419">
-        <f>VLOOKUP(D419,TrueCounts!A:C,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>10</v>
       </c>
@@ -12993,12 +11318,8 @@
       <c r="H420" t="s">
         <v>3</v>
       </c>
-      <c r="I420">
-        <f>VLOOKUP(D420,TrueCounts!A:C,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>10</v>
       </c>
@@ -13023,12 +11344,8 @@
       <c r="H421" t="s">
         <v>3</v>
       </c>
-      <c r="I421">
-        <f>VLOOKUP(D421,TrueCounts!A:C,2,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>1</v>
       </c>
@@ -13053,12 +11370,8 @@
       <c r="H422" t="s">
         <v>7</v>
       </c>
-      <c r="I422">
-        <f>VLOOKUP(D422,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>1</v>
       </c>
@@ -13083,12 +11396,8 @@
       <c r="H423" t="s">
         <v>7</v>
       </c>
-      <c r="I423">
-        <f>VLOOKUP(D423,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>2</v>
       </c>
@@ -13113,12 +11422,8 @@
       <c r="H424" t="s">
         <v>7</v>
       </c>
-      <c r="I424">
-        <f>VLOOKUP(D424,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>2</v>
       </c>
@@ -13143,12 +11448,8 @@
       <c r="H425" t="s">
         <v>7</v>
       </c>
-      <c r="I425">
-        <f>VLOOKUP(D425,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>3</v>
       </c>
@@ -13173,12 +11474,8 @@
       <c r="H426" t="s">
         <v>7</v>
       </c>
-      <c r="I426">
-        <f>VLOOKUP(D426,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>3</v>
       </c>
@@ -13203,12 +11500,8 @@
       <c r="H427" t="s">
         <v>7</v>
       </c>
-      <c r="I427">
-        <f>VLOOKUP(D427,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>4</v>
       </c>
@@ -13233,12 +11526,8 @@
       <c r="H428" t="s">
         <v>7</v>
       </c>
-      <c r="I428">
-        <f>VLOOKUP(D428,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>4</v>
       </c>
@@ -13263,12 +11552,8 @@
       <c r="H429" t="s">
         <v>7</v>
       </c>
-      <c r="I429">
-        <f>VLOOKUP(D429,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>5</v>
       </c>
@@ -13293,12 +11578,8 @@
       <c r="H430" t="s">
         <v>7</v>
       </c>
-      <c r="I430">
-        <f>VLOOKUP(D430,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>5</v>
       </c>
@@ -13323,12 +11604,8 @@
       <c r="H431" t="s">
         <v>7</v>
       </c>
-      <c r="I431">
-        <f>VLOOKUP(D431,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>6</v>
       </c>
@@ -13353,12 +11630,8 @@
       <c r="H432" t="s">
         <v>7</v>
       </c>
-      <c r="I432">
-        <f>VLOOKUP(D432,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="433" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>6</v>
       </c>
@@ -13383,12 +11656,8 @@
       <c r="H433" t="s">
         <v>7</v>
       </c>
-      <c r="I433">
-        <f>VLOOKUP(D433,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="434" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>7</v>
       </c>
@@ -13413,12 +11682,8 @@
       <c r="H434" t="s">
         <v>7</v>
       </c>
-      <c r="I434">
-        <f>VLOOKUP(D434,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>7</v>
       </c>
@@ -13443,12 +11708,8 @@
       <c r="H435" t="s">
         <v>7</v>
       </c>
-      <c r="I435">
-        <f>VLOOKUP(D435,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="436" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>8</v>
       </c>
@@ -13473,12 +11734,8 @@
       <c r="H436" t="s">
         <v>7</v>
       </c>
-      <c r="I436">
-        <f>VLOOKUP(D436,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="437" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>8</v>
       </c>
@@ -13503,12 +11760,8 @@
       <c r="H437" t="s">
         <v>7</v>
       </c>
-      <c r="I437">
-        <f>VLOOKUP(D437,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="438" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>9</v>
       </c>
@@ -13533,12 +11786,8 @@
       <c r="H438" t="s">
         <v>7</v>
       </c>
-      <c r="I438">
-        <f>VLOOKUP(D438,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>9</v>
       </c>
@@ -13563,12 +11812,8 @@
       <c r="H439" t="s">
         <v>7</v>
       </c>
-      <c r="I439">
-        <f>VLOOKUP(D439,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>10</v>
       </c>
@@ -13593,12 +11838,8 @@
       <c r="H440" t="s">
         <v>7</v>
       </c>
-      <c r="I440">
-        <f>VLOOKUP(D440,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>10</v>
       </c>
@@ -13623,12 +11864,8 @@
       <c r="H441" t="s">
         <v>7</v>
       </c>
-      <c r="I441">
-        <f>VLOOKUP(D441,TrueCounts!A:C,2,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>1</v>
       </c>
@@ -13653,12 +11890,8 @@
       <c r="H442" t="s">
         <v>7</v>
       </c>
-      <c r="I442">
-        <f>VLOOKUP(D442,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>1</v>
       </c>
@@ -13683,12 +11916,8 @@
       <c r="H443" t="s">
         <v>7</v>
       </c>
-      <c r="I443">
-        <f>VLOOKUP(D443,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>2</v>
       </c>
@@ -13713,12 +11942,8 @@
       <c r="H444" t="s">
         <v>7</v>
       </c>
-      <c r="I444">
-        <f>VLOOKUP(D444,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>2</v>
       </c>
@@ -13743,12 +11968,8 @@
       <c r="H445" t="s">
         <v>7</v>
       </c>
-      <c r="I445">
-        <f>VLOOKUP(D445,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="446" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>3</v>
       </c>
@@ -13773,12 +11994,8 @@
       <c r="H446" t="s">
         <v>7</v>
       </c>
-      <c r="I446">
-        <f>VLOOKUP(D446,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="447" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>3</v>
       </c>
@@ -13803,12 +12020,8 @@
       <c r="H447" t="s">
         <v>7</v>
       </c>
-      <c r="I447">
-        <f>VLOOKUP(D447,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="448" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>4</v>
       </c>
@@ -13833,12 +12046,8 @@
       <c r="H448" t="s">
         <v>7</v>
       </c>
-      <c r="I448">
-        <f>VLOOKUP(D448,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="449" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>4</v>
       </c>
@@ -13863,12 +12072,8 @@
       <c r="H449" t="s">
         <v>7</v>
       </c>
-      <c r="I449">
-        <f>VLOOKUP(D449,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="450" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>5</v>
       </c>
@@ -13893,12 +12098,8 @@
       <c r="H450" t="s">
         <v>7</v>
       </c>
-      <c r="I450">
-        <f>VLOOKUP(D450,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="451" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>5</v>
       </c>
@@ -13923,12 +12124,8 @@
       <c r="H451" t="s">
         <v>7</v>
       </c>
-      <c r="I451">
-        <f>VLOOKUP(D451,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="452" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>6</v>
       </c>
@@ -13953,12 +12150,8 @@
       <c r="H452" t="s">
         <v>7</v>
       </c>
-      <c r="I452">
-        <f>VLOOKUP(D452,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="453" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>6</v>
       </c>
@@ -13983,12 +12176,8 @@
       <c r="H453" t="s">
         <v>7</v>
       </c>
-      <c r="I453">
-        <f>VLOOKUP(D453,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>7</v>
       </c>
@@ -14013,12 +12202,8 @@
       <c r="H454" t="s">
         <v>7</v>
       </c>
-      <c r="I454">
-        <f>VLOOKUP(D454,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>7</v>
       </c>
@@ -14043,12 +12228,8 @@
       <c r="H455" t="s">
         <v>7</v>
       </c>
-      <c r="I455">
-        <f>VLOOKUP(D455,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="456" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>8</v>
       </c>
@@ -14073,12 +12254,8 @@
       <c r="H456" t="s">
         <v>7</v>
       </c>
-      <c r="I456">
-        <f>VLOOKUP(D456,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>8</v>
       </c>
@@ -14103,12 +12280,8 @@
       <c r="H457" t="s">
         <v>7</v>
       </c>
-      <c r="I457">
-        <f>VLOOKUP(D457,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="458" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>9</v>
       </c>
@@ -14133,12 +12306,8 @@
       <c r="H458" t="s">
         <v>7</v>
       </c>
-      <c r="I458">
-        <f>VLOOKUP(D458,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="459" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>9</v>
       </c>
@@ -14163,12 +12332,8 @@
       <c r="H459" t="s">
         <v>7</v>
       </c>
-      <c r="I459">
-        <f>VLOOKUP(D459,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="460" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>10</v>
       </c>
@@ -14193,12 +12358,8 @@
       <c r="H460" t="s">
         <v>7</v>
       </c>
-      <c r="I460">
-        <f>VLOOKUP(D460,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="461" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>10</v>
       </c>
@@ -14223,12 +12384,8 @@
       <c r="H461" t="s">
         <v>7</v>
       </c>
-      <c r="I461">
-        <f>VLOOKUP(D461,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="462" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>1</v>
       </c>
@@ -14253,12 +12410,8 @@
       <c r="H462" t="s">
         <v>7</v>
       </c>
-      <c r="I462">
-        <f>VLOOKUP(D462,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="463" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>1</v>
       </c>
@@ -14283,12 +12436,8 @@
       <c r="H463" t="s">
         <v>7</v>
       </c>
-      <c r="I463">
-        <f>VLOOKUP(D463,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>2</v>
       </c>
@@ -14313,12 +12462,8 @@
       <c r="H464" t="s">
         <v>7</v>
       </c>
-      <c r="I464">
-        <f>VLOOKUP(D464,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>2</v>
       </c>
@@ -14343,12 +12488,8 @@
       <c r="H465" t="s">
         <v>7</v>
       </c>
-      <c r="I465">
-        <f>VLOOKUP(D465,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>3</v>
       </c>
@@ -14373,12 +12514,8 @@
       <c r="H466" t="s">
         <v>7</v>
       </c>
-      <c r="I466">
-        <f>VLOOKUP(D466,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>3</v>
       </c>
@@ -14403,12 +12540,8 @@
       <c r="H467" t="s">
         <v>7</v>
       </c>
-      <c r="I467">
-        <f>VLOOKUP(D467,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>4</v>
       </c>
@@ -14433,12 +12566,8 @@
       <c r="H468" t="s">
         <v>7</v>
       </c>
-      <c r="I468">
-        <f>VLOOKUP(D468,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>4</v>
       </c>
@@ -14463,12 +12592,8 @@
       <c r="H469" t="s">
         <v>7</v>
       </c>
-      <c r="I469">
-        <f>VLOOKUP(D469,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>5</v>
       </c>
@@ -14493,12 +12618,8 @@
       <c r="H470" t="s">
         <v>7</v>
       </c>
-      <c r="I470">
-        <f>VLOOKUP(D470,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>5</v>
       </c>
@@ -14523,12 +12644,8 @@
       <c r="H471" t="s">
         <v>7</v>
       </c>
-      <c r="I471">
-        <f>VLOOKUP(D471,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>6</v>
       </c>
@@ -14553,12 +12670,8 @@
       <c r="H472" t="s">
         <v>7</v>
       </c>
-      <c r="I472">
-        <f>VLOOKUP(D472,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>6</v>
       </c>
@@ -14583,12 +12696,8 @@
       <c r="H473" t="s">
         <v>7</v>
       </c>
-      <c r="I473">
-        <f>VLOOKUP(D473,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>7</v>
       </c>
@@ -14613,12 +12722,8 @@
       <c r="H474" t="s">
         <v>7</v>
       </c>
-      <c r="I474">
-        <f>VLOOKUP(D474,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>7</v>
       </c>
@@ -14643,12 +12748,8 @@
       <c r="H475" t="s">
         <v>7</v>
       </c>
-      <c r="I475">
-        <f>VLOOKUP(D475,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>8</v>
       </c>
@@ -14673,12 +12774,8 @@
       <c r="H476" t="s">
         <v>7</v>
       </c>
-      <c r="I476">
-        <f>VLOOKUP(D476,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>8</v>
       </c>
@@ -14703,12 +12800,8 @@
       <c r="H477" t="s">
         <v>7</v>
       </c>
-      <c r="I477">
-        <f>VLOOKUP(D477,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>9</v>
       </c>
@@ -14733,12 +12826,8 @@
       <c r="H478" t="s">
         <v>7</v>
       </c>
-      <c r="I478">
-        <f>VLOOKUP(D478,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>9</v>
       </c>
@@ -14763,12 +12852,8 @@
       <c r="H479" t="s">
         <v>7</v>
       </c>
-      <c r="I479">
-        <f>VLOOKUP(D479,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>10</v>
       </c>
@@ -14793,12 +12878,8 @@
       <c r="H480" t="s">
         <v>7</v>
       </c>
-      <c r="I480">
-        <f>VLOOKUP(D480,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>10</v>
       </c>
@@ -14823,12 +12904,8 @@
       <c r="H481" t="s">
         <v>7</v>
       </c>
-      <c r="I481">
-        <f>VLOOKUP(D481,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="482" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>1</v>
       </c>
@@ -14853,12 +12930,8 @@
       <c r="H482" t="s">
         <v>7</v>
       </c>
-      <c r="I482">
-        <f>VLOOKUP(D482,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="483" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>1</v>
       </c>
@@ -14883,12 +12956,8 @@
       <c r="H483" t="s">
         <v>7</v>
       </c>
-      <c r="I483">
-        <f>VLOOKUP(D483,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="484" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>2</v>
       </c>
@@ -14913,12 +12982,8 @@
       <c r="H484" t="s">
         <v>7</v>
       </c>
-      <c r="I484">
-        <f>VLOOKUP(D484,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="485" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>2</v>
       </c>
@@ -14943,12 +13008,8 @@
       <c r="H485" t="s">
         <v>7</v>
       </c>
-      <c r="I485">
-        <f>VLOOKUP(D485,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="486" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>3</v>
       </c>
@@ -14973,12 +13034,8 @@
       <c r="H486" t="s">
         <v>7</v>
       </c>
-      <c r="I486">
-        <f>VLOOKUP(D486,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="487" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>3</v>
       </c>
@@ -15003,12 +13060,8 @@
       <c r="H487" t="s">
         <v>7</v>
       </c>
-      <c r="I487">
-        <f>VLOOKUP(D487,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>4</v>
       </c>
@@ -15033,12 +13086,8 @@
       <c r="H488" t="s">
         <v>7</v>
       </c>
-      <c r="I488">
-        <f>VLOOKUP(D488,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="489" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>4</v>
       </c>
@@ -15063,12 +13112,8 @@
       <c r="H489" t="s">
         <v>7</v>
       </c>
-      <c r="I489">
-        <f>VLOOKUP(D489,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>5</v>
       </c>
@@ -15093,12 +13138,8 @@
       <c r="H490" t="s">
         <v>7</v>
       </c>
-      <c r="I490">
-        <f>VLOOKUP(D490,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>5</v>
       </c>
@@ -15123,12 +13164,8 @@
       <c r="H491" t="s">
         <v>7</v>
       </c>
-      <c r="I491">
-        <f>VLOOKUP(D491,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>6</v>
       </c>
@@ -15153,12 +13190,8 @@
       <c r="H492" t="s">
         <v>7</v>
       </c>
-      <c r="I492">
-        <f>VLOOKUP(D492,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>6</v>
       </c>
@@ -15183,12 +13216,8 @@
       <c r="H493" t="s">
         <v>7</v>
       </c>
-      <c r="I493">
-        <f>VLOOKUP(D493,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>7</v>
       </c>
@@ -15213,12 +13242,8 @@
       <c r="H494" t="s">
         <v>7</v>
       </c>
-      <c r="I494">
-        <f>VLOOKUP(D494,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>7</v>
       </c>
@@ -15243,12 +13268,8 @@
       <c r="H495" t="s">
         <v>7</v>
       </c>
-      <c r="I495">
-        <f>VLOOKUP(D495,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>8</v>
       </c>
@@ -15273,12 +13294,8 @@
       <c r="H496" t="s">
         <v>7</v>
       </c>
-      <c r="I496">
-        <f>VLOOKUP(D496,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>8</v>
       </c>
@@ -15303,12 +13320,8 @@
       <c r="H497" t="s">
         <v>7</v>
       </c>
-      <c r="I497">
-        <f>VLOOKUP(D497,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>9</v>
       </c>
@@ -15333,12 +13346,8 @@
       <c r="H498" t="s">
         <v>7</v>
       </c>
-      <c r="I498">
-        <f>VLOOKUP(D498,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>9</v>
       </c>
@@ -15363,12 +13372,8 @@
       <c r="H499" t="s">
         <v>7</v>
       </c>
-      <c r="I499">
-        <f>VLOOKUP(D499,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>10</v>
       </c>
@@ -15393,12 +13398,8 @@
       <c r="H500" t="s">
         <v>7</v>
       </c>
-      <c r="I500">
-        <f>VLOOKUP(D500,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>10</v>
       </c>
@@ -15423,12 +13424,8 @@
       <c r="H501" t="s">
         <v>7</v>
       </c>
-      <c r="I501">
-        <f>VLOOKUP(D501,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>1</v>
       </c>
@@ -15453,12 +13450,8 @@
       <c r="H502" t="s">
         <v>7</v>
       </c>
-      <c r="I502">
-        <f>VLOOKUP(D502,TrueCounts!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>1</v>
       </c>
@@ -15483,12 +13476,8 @@
       <c r="H503" t="s">
         <v>7</v>
       </c>
-      <c r="I503">
-        <f>VLOOKUP(D503,TrueCounts!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>2</v>
       </c>
@@ -15513,12 +13502,8 @@
       <c r="H504" t="s">
         <v>7</v>
       </c>
-      <c r="I504">
-        <f>VLOOKUP(D504,TrueCounts!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>2</v>
       </c>
@@ -15543,12 +13528,8 @@
       <c r="H505" t="s">
         <v>7</v>
       </c>
-      <c r="I505">
-        <f>VLOOKUP(D505,TrueCounts!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>3</v>
       </c>
@@ -15573,12 +13554,8 @@
       <c r="H506" t="s">
         <v>7</v>
       </c>
-      <c r="I506">
-        <f>VLOOKUP(D506,TrueCounts!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>3</v>
       </c>
@@ -15603,12 +13580,8 @@
       <c r="H507" t="s">
         <v>7</v>
       </c>
-      <c r="I507">
-        <f>VLOOKUP(D507,TrueCounts!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="508" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>4</v>
       </c>
@@ -15633,12 +13606,8 @@
       <c r="H508" t="s">
         <v>7</v>
       </c>
-      <c r="I508">
-        <f>VLOOKUP(D508,TrueCounts!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="509" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>4</v>
       </c>
@@ -15663,12 +13632,8 @@
       <c r="H509" t="s">
         <v>7</v>
       </c>
-      <c r="I509">
-        <f>VLOOKUP(D509,TrueCounts!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="510" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>5</v>
       </c>
@@ -15693,12 +13658,8 @@
       <c r="H510" t="s">
         <v>7</v>
       </c>
-      <c r="I510">
-        <f>VLOOKUP(D510,TrueCounts!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="511" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>5</v>
       </c>
@@ -15723,12 +13684,8 @@
       <c r="H511" t="s">
         <v>7</v>
       </c>
-      <c r="I511">
-        <f>VLOOKUP(D511,TrueCounts!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="512" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>6</v>
       </c>
@@ -15753,12 +13710,8 @@
       <c r="H512" t="s">
         <v>7</v>
       </c>
-      <c r="I512">
-        <f>VLOOKUP(D512,TrueCounts!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>6</v>
       </c>
@@ -15783,12 +13736,8 @@
       <c r="H513" t="s">
         <v>7</v>
       </c>
-      <c r="I513">
-        <f>VLOOKUP(D513,TrueCounts!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>7</v>
       </c>
@@ -15813,12 +13762,8 @@
       <c r="H514" t="s">
         <v>7</v>
       </c>
-      <c r="I514">
-        <f>VLOOKUP(D514,TrueCounts!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>7</v>
       </c>
@@ -15843,12 +13788,8 @@
       <c r="H515" t="s">
         <v>7</v>
       </c>
-      <c r="I515">
-        <f>VLOOKUP(D515,TrueCounts!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>8</v>
       </c>
@@ -15873,12 +13814,8 @@
       <c r="H516" t="s">
         <v>7</v>
       </c>
-      <c r="I516">
-        <f>VLOOKUP(D516,TrueCounts!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>8</v>
       </c>
@@ -15903,12 +13840,8 @@
       <c r="H517" t="s">
         <v>7</v>
       </c>
-      <c r="I517">
-        <f>VLOOKUP(D517,TrueCounts!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>9</v>
       </c>
@@ -15933,12 +13866,8 @@
       <c r="H518" t="s">
         <v>7</v>
       </c>
-      <c r="I518">
-        <f>VLOOKUP(D518,TrueCounts!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>9</v>
       </c>
@@ -15963,12 +13892,8 @@
       <c r="H519" t="s">
         <v>7</v>
       </c>
-      <c r="I519">
-        <f>VLOOKUP(D519,TrueCounts!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>10</v>
       </c>
@@ -15993,12 +13918,8 @@
       <c r="H520" t="s">
         <v>7</v>
       </c>
-      <c r="I520">
-        <f>VLOOKUP(D520,TrueCounts!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="521" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>10</v>
       </c>
@@ -16023,12 +13944,8 @@
       <c r="H521" t="s">
         <v>7</v>
       </c>
-      <c r="I521">
-        <f>VLOOKUP(D521,TrueCounts!A:C,2,0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>1</v>
       </c>
@@ -16053,12 +13970,8 @@
       <c r="H522" t="s">
         <v>7</v>
       </c>
-      <c r="I522">
-        <f>VLOOKUP(D522,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>1</v>
       </c>
@@ -16083,12 +13996,8 @@
       <c r="H523" t="s">
         <v>7</v>
       </c>
-      <c r="I523">
-        <f>VLOOKUP(D523,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="524" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>2</v>
       </c>
@@ -16113,12 +14022,8 @@
       <c r="H524" t="s">
         <v>7</v>
       </c>
-      <c r="I524">
-        <f>VLOOKUP(D524,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>2</v>
       </c>
@@ -16143,12 +14048,8 @@
       <c r="H525" t="s">
         <v>7</v>
       </c>
-      <c r="I525">
-        <f>VLOOKUP(D525,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="526" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>3</v>
       </c>
@@ -16173,12 +14074,8 @@
       <c r="H526" t="s">
         <v>7</v>
       </c>
-      <c r="I526">
-        <f>VLOOKUP(D526,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="527" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>3</v>
       </c>
@@ -16203,12 +14100,8 @@
       <c r="H527" t="s">
         <v>7</v>
       </c>
-      <c r="I527">
-        <f>VLOOKUP(D527,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>4</v>
       </c>
@@ -16233,12 +14126,8 @@
       <c r="H528" t="s">
         <v>7</v>
       </c>
-      <c r="I528">
-        <f>VLOOKUP(D528,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="529" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>4</v>
       </c>
@@ -16263,12 +14152,8 @@
       <c r="H529" t="s">
         <v>7</v>
       </c>
-      <c r="I529">
-        <f>VLOOKUP(D529,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="530" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>5</v>
       </c>
@@ -16293,12 +14178,8 @@
       <c r="H530" t="s">
         <v>7</v>
       </c>
-      <c r="I530">
-        <f>VLOOKUP(D530,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="531" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>5</v>
       </c>
@@ -16323,12 +14204,8 @@
       <c r="H531" t="s">
         <v>7</v>
       </c>
-      <c r="I531">
-        <f>VLOOKUP(D531,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="532" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>6</v>
       </c>
@@ -16353,12 +14230,8 @@
       <c r="H532" t="s">
         <v>7</v>
       </c>
-      <c r="I532">
-        <f>VLOOKUP(D532,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="533" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>6</v>
       </c>
@@ -16383,12 +14256,8 @@
       <c r="H533" t="s">
         <v>7</v>
       </c>
-      <c r="I533">
-        <f>VLOOKUP(D533,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="534" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>7</v>
       </c>
@@ -16413,12 +14282,8 @@
       <c r="H534" t="s">
         <v>7</v>
       </c>
-      <c r="I534">
-        <f>VLOOKUP(D534,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="535" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>7</v>
       </c>
@@ -16443,12 +14308,8 @@
       <c r="H535" t="s">
         <v>7</v>
       </c>
-      <c r="I535">
-        <f>VLOOKUP(D535,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="536" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>8</v>
       </c>
@@ -16473,12 +14334,8 @@
       <c r="H536" t="s">
         <v>7</v>
       </c>
-      <c r="I536">
-        <f>VLOOKUP(D536,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="537" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>8</v>
       </c>
@@ -16503,12 +14360,8 @@
       <c r="H537" t="s">
         <v>7</v>
       </c>
-      <c r="I537">
-        <f>VLOOKUP(D537,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="538" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>9</v>
       </c>
@@ -16533,12 +14386,8 @@
       <c r="H538" t="s">
         <v>7</v>
       </c>
-      <c r="I538">
-        <f>VLOOKUP(D538,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="539" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>9</v>
       </c>
@@ -16563,12 +14412,8 @@
       <c r="H539" t="s">
         <v>7</v>
       </c>
-      <c r="I539">
-        <f>VLOOKUP(D539,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="540" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>10</v>
       </c>
@@ -16593,12 +14438,8 @@
       <c r="H540" t="s">
         <v>7</v>
       </c>
-      <c r="I540">
-        <f>VLOOKUP(D540,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="541" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>10</v>
       </c>
@@ -16623,12 +14464,8 @@
       <c r="H541" t="s">
         <v>7</v>
       </c>
-      <c r="I541">
-        <f>VLOOKUP(D541,TrueCounts!A:C,2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="542" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>1</v>
       </c>
@@ -16653,12 +14490,8 @@
       <c r="H542" t="s">
         <v>7</v>
       </c>
-      <c r="I542">
-        <f>VLOOKUP(D542,TrueCounts!A:C,2,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="543" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>1</v>
       </c>
@@ -16683,12 +14516,8 @@
       <c r="H543" t="s">
         <v>7</v>
       </c>
-      <c r="I543">
-        <f>VLOOKUP(D543,TrueCounts!A:C,2,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="544" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>2</v>
       </c>
@@ -16713,12 +14542,8 @@
       <c r="H544" t="s">
         <v>7</v>
       </c>
-      <c r="I544">
-        <f>VLOOKUP(D544,TrueCounts!A:C,2,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="545" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>2</v>
       </c>
@@ -16743,12 +14568,8 @@
       <c r="H545" t="s">
         <v>7</v>
       </c>
-      <c r="I545">
-        <f>VLOOKUP(D545,TrueCounts!A:C,2,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="546" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>3</v>
       </c>
@@ -16773,12 +14594,8 @@
       <c r="H546" t="s">
         <v>7</v>
       </c>
-      <c r="I546">
-        <f>VLOOKUP(D546,TrueCounts!A:C,2,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="547" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>3</v>
       </c>
@@ -16803,12 +14620,8 @@
       <c r="H547" t="s">
         <v>7</v>
       </c>
-      <c r="I547">
-        <f>VLOOKUP(D547,TrueCounts!A:C,2,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="548" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>4</v>
       </c>
@@ -16833,12 +14646,8 @@
       <c r="H548" t="s">
         <v>7</v>
       </c>
-      <c r="I548">
-        <f>VLOOKUP(D548,TrueCounts!A:C,2,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="549" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>4</v>
       </c>
@@ -16863,12 +14672,8 @@
       <c r="H549" t="s">
         <v>7</v>
       </c>
-      <c r="I549">
-        <f>VLOOKUP(D549,TrueCounts!A:C,2,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="550" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>5</v>
       </c>
@@ -16893,12 +14698,8 @@
       <c r="H550" t="s">
         <v>7</v>
       </c>
-      <c r="I550">
-        <f>VLOOKUP(D550,TrueCounts!A:C,2,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="551" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>5</v>
       </c>
@@ -16923,12 +14724,8 @@
       <c r="H551" t="s">
         <v>7</v>
       </c>
-      <c r="I551">
-        <f>VLOOKUP(D551,TrueCounts!A:C,2,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="552" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>6</v>
       </c>
@@ -16953,12 +14750,8 @@
       <c r="H552" t="s">
         <v>7</v>
       </c>
-      <c r="I552">
-        <f>VLOOKUP(D552,TrueCounts!A:C,2,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="553" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>6</v>
       </c>
@@ -16983,12 +14776,8 @@
       <c r="H553" t="s">
         <v>7</v>
       </c>
-      <c r="I553">
-        <f>VLOOKUP(D553,TrueCounts!A:C,2,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="554" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>7</v>
       </c>
@@ -17013,12 +14802,8 @@
       <c r="H554" t="s">
         <v>7</v>
       </c>
-      <c r="I554">
-        <f>VLOOKUP(D554,TrueCounts!A:C,2,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="555" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>7</v>
       </c>
@@ -17043,12 +14828,8 @@
       <c r="H555" t="s">
         <v>7</v>
       </c>
-      <c r="I555">
-        <f>VLOOKUP(D555,TrueCounts!A:C,2,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="556" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>8</v>
       </c>
@@ -17073,12 +14854,8 @@
       <c r="H556" t="s">
         <v>7</v>
       </c>
-      <c r="I556">
-        <f>VLOOKUP(D556,TrueCounts!A:C,2,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="557" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>8</v>
       </c>
@@ -17103,12 +14880,8 @@
       <c r="H557" t="s">
         <v>7</v>
       </c>
-      <c r="I557">
-        <f>VLOOKUP(D557,TrueCounts!A:C,2,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="558" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>9</v>
       </c>
@@ -17133,12 +14906,8 @@
       <c r="H558" t="s">
         <v>7</v>
       </c>
-      <c r="I558">
-        <f>VLOOKUP(D558,TrueCounts!A:C,2,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="559" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>9</v>
       </c>
@@ -17163,12 +14932,8 @@
       <c r="H559" t="s">
         <v>7</v>
       </c>
-      <c r="I559">
-        <f>VLOOKUP(D559,TrueCounts!A:C,2,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="560" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>10</v>
       </c>
@@ -17193,12 +14958,8 @@
       <c r="H560" t="s">
         <v>7</v>
       </c>
-      <c r="I560">
-        <f>VLOOKUP(D560,TrueCounts!A:C,2,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="561" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>10</v>
       </c>
@@ -17223,12 +14984,8 @@
       <c r="H561" t="s">
         <v>7</v>
       </c>
-      <c r="I561">
-        <f>VLOOKUP(D561,TrueCounts!A:C,2,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="562" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>1</v>
       </c>
@@ -17253,12 +15010,8 @@
       <c r="H562" t="s">
         <v>7</v>
       </c>
-      <c r="I562">
-        <f>VLOOKUP(D562,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="563" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>1</v>
       </c>
@@ -17283,12 +15036,8 @@
       <c r="H563" t="s">
         <v>7</v>
       </c>
-      <c r="I563">
-        <f>VLOOKUP(D563,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="564" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>2</v>
       </c>
@@ -17313,12 +15062,8 @@
       <c r="H564" t="s">
         <v>7</v>
       </c>
-      <c r="I564">
-        <f>VLOOKUP(D564,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="565" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>2</v>
       </c>
@@ -17343,12 +15088,8 @@
       <c r="H565" t="s">
         <v>7</v>
       </c>
-      <c r="I565">
-        <f>VLOOKUP(D565,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="566" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>3</v>
       </c>
@@ -17373,12 +15114,8 @@
       <c r="H566" t="s">
         <v>7</v>
       </c>
-      <c r="I566">
-        <f>VLOOKUP(D566,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="567" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>3</v>
       </c>
@@ -17403,12 +15140,8 @@
       <c r="H567" t="s">
         <v>7</v>
       </c>
-      <c r="I567">
-        <f>VLOOKUP(D567,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="568" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>4</v>
       </c>
@@ -17433,12 +15166,8 @@
       <c r="H568" t="s">
         <v>7</v>
       </c>
-      <c r="I568">
-        <f>VLOOKUP(D568,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="569" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>4</v>
       </c>
@@ -17463,12 +15192,8 @@
       <c r="H569" t="s">
         <v>7</v>
       </c>
-      <c r="I569">
-        <f>VLOOKUP(D569,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="570" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>5</v>
       </c>
@@ -17493,12 +15218,8 @@
       <c r="H570" t="s">
         <v>7</v>
       </c>
-      <c r="I570">
-        <f>VLOOKUP(D570,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="571" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>5</v>
       </c>
@@ -17523,12 +15244,8 @@
       <c r="H571" t="s">
         <v>7</v>
       </c>
-      <c r="I571">
-        <f>VLOOKUP(D571,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="572" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>6</v>
       </c>
@@ -17553,12 +15270,8 @@
       <c r="H572" t="s">
         <v>7</v>
       </c>
-      <c r="I572">
-        <f>VLOOKUP(D572,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="573" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>6</v>
       </c>
@@ -17583,12 +15296,8 @@
       <c r="H573" t="s">
         <v>7</v>
       </c>
-      <c r="I573">
-        <f>VLOOKUP(D573,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="574" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>7</v>
       </c>
@@ -17613,12 +15322,8 @@
       <c r="H574" t="s">
         <v>7</v>
       </c>
-      <c r="I574">
-        <f>VLOOKUP(D574,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="575" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>7</v>
       </c>
@@ -17643,12 +15348,8 @@
       <c r="H575" t="s">
         <v>7</v>
       </c>
-      <c r="I575">
-        <f>VLOOKUP(D575,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="576" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>8</v>
       </c>
@@ -17673,12 +15374,8 @@
       <c r="H576" t="s">
         <v>7</v>
       </c>
-      <c r="I576">
-        <f>VLOOKUP(D576,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="577" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>8</v>
       </c>
@@ -17703,12 +15400,8 @@
       <c r="H577" t="s">
         <v>7</v>
       </c>
-      <c r="I577">
-        <f>VLOOKUP(D577,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="578" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>9</v>
       </c>
@@ -17733,12 +15426,8 @@
       <c r="H578" t="s">
         <v>7</v>
       </c>
-      <c r="I578">
-        <f>VLOOKUP(D578,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="579" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>9</v>
       </c>
@@ -17763,12 +15452,8 @@
       <c r="H579" t="s">
         <v>7</v>
       </c>
-      <c r="I579">
-        <f>VLOOKUP(D579,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="580" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>10</v>
       </c>
@@ -17793,12 +15478,8 @@
       <c r="H580" t="s">
         <v>7</v>
       </c>
-      <c r="I580">
-        <f>VLOOKUP(D580,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="581" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>10</v>
       </c>
@@ -17823,12 +15504,8 @@
       <c r="H581" t="s">
         <v>7</v>
       </c>
-      <c r="I581">
-        <f>VLOOKUP(D581,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="582" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>1</v>
       </c>
@@ -17853,12 +15530,8 @@
       <c r="H582" t="s">
         <v>7</v>
       </c>
-      <c r="I582">
-        <f>VLOOKUP(D582,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="583" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>1</v>
       </c>
@@ -17883,12 +15556,8 @@
       <c r="H583" t="s">
         <v>7</v>
       </c>
-      <c r="I583">
-        <f>VLOOKUP(D583,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="584" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>2</v>
       </c>
@@ -17913,12 +15582,8 @@
       <c r="H584" t="s">
         <v>7</v>
       </c>
-      <c r="I584">
-        <f>VLOOKUP(D584,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="585" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>2</v>
       </c>
@@ -17943,12 +15608,8 @@
       <c r="H585" t="s">
         <v>7</v>
       </c>
-      <c r="I585">
-        <f>VLOOKUP(D585,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="586" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>3</v>
       </c>
@@ -17973,12 +15634,8 @@
       <c r="H586" t="s">
         <v>7</v>
       </c>
-      <c r="I586">
-        <f>VLOOKUP(D586,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="587" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>3</v>
       </c>
@@ -18003,12 +15660,8 @@
       <c r="H587" t="s">
         <v>7</v>
       </c>
-      <c r="I587">
-        <f>VLOOKUP(D587,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="588" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>4</v>
       </c>
@@ -18033,12 +15686,8 @@
       <c r="H588" t="s">
         <v>7</v>
       </c>
-      <c r="I588">
-        <f>VLOOKUP(D588,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="589" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>4</v>
       </c>
@@ -18063,12 +15712,8 @@
       <c r="H589" t="s">
         <v>7</v>
       </c>
-      <c r="I589">
-        <f>VLOOKUP(D589,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="590" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>5</v>
       </c>
@@ -18093,12 +15738,8 @@
       <c r="H590" t="s">
         <v>7</v>
       </c>
-      <c r="I590">
-        <f>VLOOKUP(D590,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="591" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>5</v>
       </c>
@@ -18123,12 +15764,8 @@
       <c r="H591" t="s">
         <v>7</v>
       </c>
-      <c r="I591">
-        <f>VLOOKUP(D591,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="592" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>6</v>
       </c>
@@ -18153,12 +15790,8 @@
       <c r="H592" t="s">
         <v>7</v>
       </c>
-      <c r="I592">
-        <f>VLOOKUP(D592,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="593" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>6</v>
       </c>
@@ -18183,12 +15816,8 @@
       <c r="H593" t="s">
         <v>7</v>
       </c>
-      <c r="I593">
-        <f>VLOOKUP(D593,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="594" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>7</v>
       </c>
@@ -18213,12 +15842,8 @@
       <c r="H594" t="s">
         <v>7</v>
       </c>
-      <c r="I594">
-        <f>VLOOKUP(D594,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="595" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>7</v>
       </c>
@@ -18243,12 +15868,8 @@
       <c r="H595" t="s">
         <v>7</v>
       </c>
-      <c r="I595">
-        <f>VLOOKUP(D595,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="596" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>8</v>
       </c>
@@ -18273,12 +15894,8 @@
       <c r="H596" t="s">
         <v>7</v>
       </c>
-      <c r="I596">
-        <f>VLOOKUP(D596,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="597" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>8</v>
       </c>
@@ -18303,12 +15920,8 @@
       <c r="H597" t="s">
         <v>7</v>
       </c>
-      <c r="I597">
-        <f>VLOOKUP(D597,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="598" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>9</v>
       </c>
@@ -18333,12 +15946,8 @@
       <c r="H598" t="s">
         <v>7</v>
       </c>
-      <c r="I598">
-        <f>VLOOKUP(D598,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="599" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>9</v>
       </c>
@@ -18363,12 +15972,8 @@
       <c r="H599" t="s">
         <v>7</v>
       </c>
-      <c r="I599">
-        <f>VLOOKUP(D599,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="600" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>10</v>
       </c>
@@ -18393,12 +15998,8 @@
       <c r="H600" t="s">
         <v>7</v>
       </c>
-      <c r="I600">
-        <f>VLOOKUP(D600,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="601" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>10</v>
       </c>
@@ -18423,13 +16024,9 @@
       <c r="H601" t="s">
         <v>7</v>
       </c>
-      <c r="I601">
-        <f>VLOOKUP(D601,TrueCounts!A:C,2,0)</f>
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I601" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H601" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G601">
     <sortCondition ref="D1:D601"/>
   </sortState>

--- a/data/raw_data/DS_Counting_trials.xlsx
+++ b/data/raw_data/DS_Counting_trials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rodenico/Documents/Pro/Articles/2023_LarvCount/Y2023.LarvCount/data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8759AFF3-2A79-0746-B1CB-169D1672EDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD8F867-14BE-3D44-AA09-5AD2FDC15E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24560" windowHeight="13380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24560" windowHeight="13380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ObserverCountData" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ObserverCountData!$A$1:$H$601</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TrueCounts!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1872" uniqueCount="15">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -73,6 +74,15 @@
   </si>
   <si>
     <t>Observer_ID</t>
+  </si>
+  <si>
+    <t>Greenhouse</t>
+  </si>
+  <si>
+    <t>Soula</t>
+  </si>
+  <si>
+    <t>CTIFL</t>
   </si>
 </sst>
 </file>
@@ -390,9 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H601"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
@@ -425,7 +436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -451,7 +462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -477,7 +488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -503,7 +514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -529,7 +540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -555,7 +566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -581,7 +592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -607,7 +618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
@@ -633,7 +644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -659,7 +670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5</v>
       </c>
@@ -685,7 +696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6</v>
       </c>
@@ -711,7 +722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -737,7 +748,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>7</v>
       </c>
@@ -763,7 +774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>7</v>
       </c>
@@ -789,7 +800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>8</v>
       </c>
@@ -815,7 +826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>8</v>
       </c>
@@ -841,7 +852,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>9</v>
       </c>
@@ -867,7 +878,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>9</v>
       </c>
@@ -893,7 +904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>10</v>
       </c>
@@ -919,7 +930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>10</v>
       </c>
@@ -1465,7 +1476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
@@ -1491,7 +1502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1</v>
       </c>
@@ -1517,7 +1528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2</v>
       </c>
@@ -1543,7 +1554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1569,7 +1580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3</v>
       </c>
@@ -1595,7 +1606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3</v>
       </c>
@@ -1621,7 +1632,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>4</v>
       </c>
@@ -1647,7 +1658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>4</v>
       </c>
@@ -1673,7 +1684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>5</v>
       </c>
@@ -1699,7 +1710,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>5</v>
       </c>
@@ -1725,7 +1736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>6</v>
       </c>
@@ -1751,7 +1762,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>6</v>
       </c>
@@ -1777,7 +1788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>7</v>
       </c>
@@ -1803,7 +1814,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>7</v>
       </c>
@@ -1829,7 +1840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>8</v>
       </c>
@@ -1855,7 +1866,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>8</v>
       </c>
@@ -1881,7 +1892,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>9</v>
       </c>
@@ -1907,7 +1918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>9</v>
       </c>
@@ -1933,7 +1944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>10</v>
       </c>
@@ -1959,7 +1970,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>10</v>
       </c>
@@ -1985,7 +1996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1</v>
       </c>
@@ -2011,7 +2022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1</v>
       </c>
@@ -2037,7 +2048,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2</v>
       </c>
@@ -2063,7 +2074,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2</v>
       </c>
@@ -2089,7 +2100,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>3</v>
       </c>
@@ -2115,7 +2126,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>3</v>
       </c>
@@ -2141,7 +2152,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>4</v>
       </c>
@@ -2167,7 +2178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>4</v>
       </c>
@@ -2193,7 +2204,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>5</v>
       </c>
@@ -2219,7 +2230,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>5</v>
       </c>
@@ -2245,7 +2256,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>6</v>
       </c>
@@ -2271,7 +2282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>6</v>
       </c>
@@ -2297,7 +2308,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>7</v>
       </c>
@@ -2323,7 +2334,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>7</v>
       </c>
@@ -2349,7 +2360,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>8</v>
       </c>
@@ -2375,7 +2386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>8</v>
       </c>
@@ -2401,7 +2412,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>9</v>
       </c>
@@ -2427,7 +2438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>9</v>
       </c>
@@ -2453,7 +2464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>10</v>
       </c>
@@ -2479,7 +2490,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>10</v>
       </c>
@@ -2505,7 +2516,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1</v>
       </c>
@@ -2531,7 +2542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1</v>
       </c>
@@ -2557,7 +2568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2</v>
       </c>
@@ -2583,7 +2594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2</v>
       </c>
@@ -2609,7 +2620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>3</v>
       </c>
@@ -2635,7 +2646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>3</v>
       </c>
@@ -2661,7 +2672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>4</v>
       </c>
@@ -2687,7 +2698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>4</v>
       </c>
@@ -2713,7 +2724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>5</v>
       </c>
@@ -2739,7 +2750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>5</v>
       </c>
@@ -2765,7 +2776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>6</v>
       </c>
@@ -2791,7 +2802,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>6</v>
       </c>
@@ -2817,7 +2828,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>7</v>
       </c>
@@ -2843,7 +2854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>7</v>
       </c>
@@ -2869,7 +2880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>8</v>
       </c>
@@ -2895,7 +2906,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>8</v>
       </c>
@@ -2921,7 +2932,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>9</v>
       </c>
@@ -2947,7 +2958,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>9</v>
       </c>
@@ -2973,7 +2984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>10</v>
       </c>
@@ -2999,7 +3010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>10</v>
       </c>
@@ -3025,7 +3036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>1</v>
       </c>
@@ -3051,7 +3062,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1</v>
       </c>
@@ -3077,7 +3088,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2</v>
       </c>
@@ -3103,7 +3114,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2</v>
       </c>
@@ -3129,7 +3140,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>3</v>
       </c>
@@ -3155,7 +3166,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>3</v>
       </c>
@@ -3181,7 +3192,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>4</v>
       </c>
@@ -3207,7 +3218,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>4</v>
       </c>
@@ -3233,7 +3244,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>5</v>
       </c>
@@ -3259,7 +3270,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>5</v>
       </c>
@@ -3285,7 +3296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>6</v>
       </c>
@@ -3311,7 +3322,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>6</v>
       </c>
@@ -3337,7 +3348,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>7</v>
       </c>
@@ -3363,7 +3374,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>7</v>
       </c>
@@ -3389,7 +3400,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>8</v>
       </c>
@@ -3415,7 +3426,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>8</v>
       </c>
@@ -3441,7 +3452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>9</v>
       </c>
@@ -3467,7 +3478,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>9</v>
       </c>
@@ -3493,7 +3504,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>10</v>
       </c>
@@ -3519,7 +3530,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>10</v>
       </c>
@@ -3545,7 +3556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1</v>
       </c>
@@ -3571,7 +3582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>1</v>
       </c>
@@ -3597,7 +3608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>2</v>
       </c>
@@ -3623,7 +3634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>2</v>
       </c>
@@ -3649,7 +3660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>3</v>
       </c>
@@ -3675,7 +3686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>3</v>
       </c>
@@ -3701,7 +3712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>4</v>
       </c>
@@ -3727,7 +3738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>4</v>
       </c>
@@ -3753,7 +3764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>5</v>
       </c>
@@ -3779,7 +3790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>5</v>
       </c>
@@ -3805,7 +3816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>6</v>
       </c>
@@ -3831,7 +3842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>6</v>
       </c>
@@ -3857,7 +3868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>7</v>
       </c>
@@ -3883,7 +3894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>7</v>
       </c>
@@ -3909,7 +3920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>8</v>
       </c>
@@ -3935,7 +3946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>8</v>
       </c>
@@ -3961,7 +3972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>9</v>
       </c>
@@ -3987,7 +3998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>9</v>
       </c>
@@ -4013,7 +4024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>10</v>
       </c>
@@ -4039,7 +4050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>10</v>
       </c>
@@ -4065,7 +4076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>1</v>
       </c>
@@ -4091,7 +4102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>1</v>
       </c>
@@ -4117,7 +4128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>2</v>
       </c>
@@ -4143,7 +4154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>2</v>
       </c>
@@ -4169,7 +4180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>3</v>
       </c>
@@ -4195,7 +4206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>3</v>
       </c>
@@ -4221,7 +4232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>4</v>
       </c>
@@ -4247,7 +4258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>4</v>
       </c>
@@ -4273,7 +4284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>5</v>
       </c>
@@ -4299,7 +4310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>5</v>
       </c>
@@ -4325,7 +4336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>6</v>
       </c>
@@ -4351,7 +4362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>6</v>
       </c>
@@ -4377,7 +4388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>7</v>
       </c>
@@ -4403,7 +4414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>7</v>
       </c>
@@ -4429,7 +4440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>8</v>
       </c>
@@ -4455,7 +4466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>8</v>
       </c>
@@ -4481,7 +4492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>9</v>
       </c>
@@ -4507,7 +4518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>9</v>
       </c>
@@ -4533,7 +4544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>10</v>
       </c>
@@ -4559,7 +4570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>10</v>
       </c>
@@ -4585,7 +4596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>1</v>
       </c>
@@ -4611,7 +4622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>1</v>
       </c>
@@ -4637,7 +4648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>2</v>
       </c>
@@ -4663,7 +4674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>2</v>
       </c>
@@ -4689,7 +4700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>3</v>
       </c>
@@ -4715,7 +4726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>3</v>
       </c>
@@ -4741,7 +4752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>4</v>
       </c>
@@ -4767,7 +4778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>4</v>
       </c>
@@ -4793,7 +4804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>5</v>
       </c>
@@ -4819,7 +4830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>5</v>
       </c>
@@ -4845,7 +4856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>6</v>
       </c>
@@ -4871,7 +4882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>6</v>
       </c>
@@ -4897,7 +4908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>7</v>
       </c>
@@ -4923,7 +4934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>7</v>
       </c>
@@ -4949,7 +4960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>8</v>
       </c>
@@ -4975,7 +4986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>8</v>
       </c>
@@ -5001,7 +5012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>9</v>
       </c>
@@ -5027,7 +5038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>9</v>
       </c>
@@ -5053,7 +5064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>10</v>
       </c>
@@ -5079,7 +5090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>10</v>
       </c>
@@ -5105,7 +5116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>1</v>
       </c>
@@ -5131,7 +5142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>1</v>
       </c>
@@ -5157,7 +5168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>2</v>
       </c>
@@ -5183,7 +5194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>2</v>
       </c>
@@ -5209,7 +5220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>3</v>
       </c>
@@ -5235,7 +5246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>3</v>
       </c>
@@ -5261,7 +5272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>4</v>
       </c>
@@ -5287,7 +5298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>4</v>
       </c>
@@ -5313,7 +5324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>5</v>
       </c>
@@ -5339,7 +5350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>5</v>
       </c>
@@ -5365,7 +5376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>6</v>
       </c>
@@ -5391,7 +5402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>6</v>
       </c>
@@ -5417,7 +5428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>7</v>
       </c>
@@ -5443,7 +5454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>7</v>
       </c>
@@ -5469,7 +5480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>8</v>
       </c>
@@ -5495,7 +5506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>8</v>
       </c>
@@ -5521,7 +5532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>9</v>
       </c>
@@ -5547,7 +5558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>9</v>
       </c>
@@ -5573,7 +5584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>10</v>
       </c>
@@ -5599,7 +5610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>10</v>
       </c>
@@ -5625,7 +5636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>1</v>
       </c>
@@ -5651,7 +5662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>1</v>
       </c>
@@ -5677,7 +5688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>2</v>
       </c>
@@ -5703,7 +5714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>2</v>
       </c>
@@ -5729,7 +5740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>3</v>
       </c>
@@ -5755,7 +5766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>3</v>
       </c>
@@ -5781,7 +5792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>4</v>
       </c>
@@ -5807,7 +5818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>4</v>
       </c>
@@ -5833,7 +5844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>5</v>
       </c>
@@ -5859,7 +5870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>5</v>
       </c>
@@ -5885,7 +5896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>6</v>
       </c>
@@ -5911,7 +5922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>6</v>
       </c>
@@ -5937,7 +5948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>7</v>
       </c>
@@ -5963,7 +5974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>7</v>
       </c>
@@ -5989,7 +6000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>8</v>
       </c>
@@ -6015,7 +6026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>8</v>
       </c>
@@ -6041,7 +6052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>9</v>
       </c>
@@ -6067,7 +6078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>9</v>
       </c>
@@ -6093,7 +6104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>10</v>
       </c>
@@ -6119,7 +6130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>10</v>
       </c>
@@ -6145,7 +6156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>1</v>
       </c>
@@ -6171,7 +6182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>1</v>
       </c>
@@ -6197,7 +6208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>2</v>
       </c>
@@ -6223,7 +6234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>2</v>
       </c>
@@ -6249,7 +6260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>3</v>
       </c>
@@ -6275,7 +6286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>3</v>
       </c>
@@ -6301,7 +6312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>4</v>
       </c>
@@ -6327,7 +6338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>4</v>
       </c>
@@ -6353,7 +6364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>5</v>
       </c>
@@ -6379,7 +6390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>5</v>
       </c>
@@ -6405,7 +6416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>6</v>
       </c>
@@ -6431,7 +6442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>6</v>
       </c>
@@ -6457,7 +6468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>7</v>
       </c>
@@ -6483,7 +6494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>7</v>
       </c>
@@ -6509,7 +6520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>8</v>
       </c>
@@ -6535,7 +6546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>8</v>
       </c>
@@ -6561,7 +6572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>9</v>
       </c>
@@ -6587,7 +6598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>9</v>
       </c>
@@ -6613,7 +6624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>10</v>
       </c>
@@ -6639,7 +6650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>10</v>
       </c>
@@ -6665,7 +6676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>1</v>
       </c>
@@ -6691,7 +6702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>1</v>
       </c>
@@ -6717,7 +6728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>2</v>
       </c>
@@ -6743,7 +6754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>2</v>
       </c>
@@ -6769,7 +6780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>3</v>
       </c>
@@ -6795,7 +6806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>3</v>
       </c>
@@ -6821,7 +6832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>4</v>
       </c>
@@ -6847,7 +6858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>4</v>
       </c>
@@ -6873,7 +6884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>5</v>
       </c>
@@ -6899,7 +6910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>5</v>
       </c>
@@ -6925,7 +6936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>6</v>
       </c>
@@ -6951,7 +6962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>6</v>
       </c>
@@ -6977,7 +6988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>7</v>
       </c>
@@ -7003,7 +7014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>7</v>
       </c>
@@ -7029,7 +7040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>8</v>
       </c>
@@ -7055,7 +7066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>8</v>
       </c>
@@ -7081,7 +7092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>9</v>
       </c>
@@ -7107,7 +7118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>9</v>
       </c>
@@ -7133,7 +7144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>10</v>
       </c>
@@ -7159,7 +7170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>10</v>
       </c>
@@ -7185,7 +7196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>1</v>
       </c>
@@ -7211,7 +7222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>1</v>
       </c>
@@ -7237,7 +7248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>2</v>
       </c>
@@ -7263,7 +7274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>2</v>
       </c>
@@ -7289,7 +7300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>3</v>
       </c>
@@ -7315,7 +7326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>3</v>
       </c>
@@ -7341,7 +7352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>4</v>
       </c>
@@ -7367,7 +7378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>4</v>
       </c>
@@ -7393,7 +7404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>5</v>
       </c>
@@ -7419,7 +7430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>5</v>
       </c>
@@ -7445,7 +7456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>6</v>
       </c>
@@ -7471,7 +7482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>6</v>
       </c>
@@ -7497,7 +7508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>7</v>
       </c>
@@ -7523,7 +7534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>7</v>
       </c>
@@ -7549,7 +7560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>8</v>
       </c>
@@ -7575,7 +7586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>8</v>
       </c>
@@ -7601,7 +7612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>9</v>
       </c>
@@ -7627,7 +7638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>9</v>
       </c>
@@ -7653,7 +7664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>10</v>
       </c>
@@ -7679,7 +7690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>10</v>
       </c>
@@ -7705,7 +7716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>1</v>
       </c>
@@ -7731,7 +7742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>1</v>
       </c>
@@ -7757,7 +7768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>2</v>
       </c>
@@ -7783,7 +7794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>2</v>
       </c>
@@ -7809,7 +7820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>3</v>
       </c>
@@ -7835,7 +7846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>3</v>
       </c>
@@ -7861,7 +7872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>4</v>
       </c>
@@ -7887,7 +7898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>4</v>
       </c>
@@ -7913,7 +7924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>5</v>
       </c>
@@ -7939,7 +7950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>5</v>
       </c>
@@ -7965,7 +7976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>6</v>
       </c>
@@ -7991,7 +8002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>6</v>
       </c>
@@ -8017,7 +8028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>7</v>
       </c>
@@ -8043,7 +8054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>7</v>
       </c>
@@ -8069,7 +8080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>8</v>
       </c>
@@ -8095,7 +8106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>8</v>
       </c>
@@ -8121,7 +8132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>9</v>
       </c>
@@ -8147,7 +8158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>9</v>
       </c>
@@ -8173,7 +8184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>10</v>
       </c>
@@ -8199,7 +8210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>10</v>
       </c>
@@ -8225,7 +8236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>1</v>
       </c>
@@ -8251,7 +8262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>1</v>
       </c>
@@ -8277,7 +8288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>2</v>
       </c>
@@ -8303,7 +8314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>2</v>
       </c>
@@ -8329,7 +8340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>3</v>
       </c>
@@ -8355,7 +8366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>3</v>
       </c>
@@ -8381,7 +8392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>4</v>
       </c>
@@ -8407,7 +8418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>4</v>
       </c>
@@ -8433,7 +8444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>5</v>
       </c>
@@ -8459,7 +8470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>5</v>
       </c>
@@ -8485,7 +8496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>6</v>
       </c>
@@ -8511,7 +8522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>6</v>
       </c>
@@ -8537,7 +8548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>7</v>
       </c>
@@ -8563,7 +8574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>7</v>
       </c>
@@ -8589,7 +8600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>8</v>
       </c>
@@ -8615,7 +8626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>8</v>
       </c>
@@ -8641,7 +8652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>9</v>
       </c>
@@ -8667,7 +8678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>9</v>
       </c>
@@ -8693,7 +8704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>10</v>
       </c>
@@ -8719,7 +8730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>10</v>
       </c>
@@ -8745,7 +8756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>1</v>
       </c>
@@ -8771,7 +8782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>1</v>
       </c>
@@ -8797,7 +8808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>2</v>
       </c>
@@ -8823,7 +8834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>2</v>
       </c>
@@ -8849,7 +8860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>3</v>
       </c>
@@ -8875,7 +8886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>3</v>
       </c>
@@ -8901,7 +8912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>4</v>
       </c>
@@ -8927,7 +8938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>4</v>
       </c>
@@ -8953,7 +8964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>5</v>
       </c>
@@ -8979,7 +8990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>5</v>
       </c>
@@ -9005,7 +9016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>6</v>
       </c>
@@ -9031,7 +9042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>6</v>
       </c>
@@ -9057,7 +9068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>7</v>
       </c>
@@ -9083,7 +9094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>7</v>
       </c>
@@ -9109,7 +9120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>8</v>
       </c>
@@ -9135,7 +9146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>8</v>
       </c>
@@ -9161,7 +9172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>9</v>
       </c>
@@ -9187,7 +9198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>9</v>
       </c>
@@ -9213,7 +9224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>10</v>
       </c>
@@ -9239,7 +9250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>10</v>
       </c>
@@ -9265,7 +9276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>1</v>
       </c>
@@ -9291,7 +9302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>1</v>
       </c>
@@ -9317,7 +9328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>2</v>
       </c>
@@ -9343,7 +9354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>2</v>
       </c>
@@ -9369,7 +9380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>3</v>
       </c>
@@ -9395,7 +9406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>3</v>
       </c>
@@ -9421,7 +9432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>4</v>
       </c>
@@ -9447,7 +9458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>4</v>
       </c>
@@ -9473,7 +9484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>5</v>
       </c>
@@ -9499,7 +9510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>5</v>
       </c>
@@ -9525,7 +9536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>6</v>
       </c>
@@ -9551,7 +9562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>6</v>
       </c>
@@ -9577,7 +9588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>7</v>
       </c>
@@ -9603,7 +9614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>7</v>
       </c>
@@ -9629,7 +9640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>8</v>
       </c>
@@ -9655,7 +9666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>8</v>
       </c>
@@ -9681,7 +9692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>9</v>
       </c>
@@ -9707,7 +9718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>9</v>
       </c>
@@ -9733,7 +9744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>10</v>
       </c>
@@ -9759,7 +9770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>10</v>
       </c>
@@ -9785,7 +9796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>1</v>
       </c>
@@ -9811,7 +9822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>1</v>
       </c>
@@ -9837,7 +9848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>2</v>
       </c>
@@ -9863,7 +9874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>2</v>
       </c>
@@ -9889,7 +9900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>3</v>
       </c>
@@ -9915,7 +9926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>3</v>
       </c>
@@ -9941,7 +9952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>4</v>
       </c>
@@ -9967,7 +9978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>4</v>
       </c>
@@ -9993,7 +10004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>5</v>
       </c>
@@ -10019,7 +10030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>5</v>
       </c>
@@ -10045,7 +10056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>6</v>
       </c>
@@ -10071,7 +10082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>6</v>
       </c>
@@ -10097,7 +10108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>7</v>
       </c>
@@ -10123,7 +10134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>7</v>
       </c>
@@ -10149,7 +10160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>8</v>
       </c>
@@ -10175,7 +10186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>8</v>
       </c>
@@ -10201,7 +10212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>9</v>
       </c>
@@ -10227,7 +10238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>9</v>
       </c>
@@ -10253,7 +10264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>10</v>
       </c>
@@ -10279,7 +10290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>10</v>
       </c>
@@ -10305,7 +10316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>1</v>
       </c>
@@ -10331,7 +10342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>1</v>
       </c>
@@ -10357,7 +10368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>2</v>
       </c>
@@ -10383,7 +10394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>2</v>
       </c>
@@ -10409,7 +10420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>3</v>
       </c>
@@ -10435,7 +10446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>3</v>
       </c>
@@ -10461,7 +10472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>4</v>
       </c>
@@ -10487,7 +10498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>4</v>
       </c>
@@ -10513,7 +10524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>5</v>
       </c>
@@ -10539,7 +10550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>5</v>
       </c>
@@ -10565,7 +10576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>6</v>
       </c>
@@ -10591,7 +10602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>6</v>
       </c>
@@ -10617,7 +10628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>7</v>
       </c>
@@ -10643,7 +10654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>7</v>
       </c>
@@ -10669,7 +10680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>8</v>
       </c>
@@ -10695,7 +10706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>8</v>
       </c>
@@ -10721,7 +10732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>9</v>
       </c>
@@ -10747,7 +10758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>9</v>
       </c>
@@ -10773,7 +10784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>10</v>
       </c>
@@ -10799,7 +10810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>10</v>
       </c>
@@ -10825,7 +10836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>1</v>
       </c>
@@ -10851,7 +10862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>1</v>
       </c>
@@ -10877,7 +10888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>2</v>
       </c>
@@ -10903,7 +10914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>2</v>
       </c>
@@ -10929,7 +10940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>3</v>
       </c>
@@ -10955,7 +10966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>3</v>
       </c>
@@ -10981,7 +10992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>4</v>
       </c>
@@ -11007,7 +11018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>4</v>
       </c>
@@ -11033,7 +11044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>5</v>
       </c>
@@ -11059,7 +11070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>5</v>
       </c>
@@ -11085,7 +11096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>6</v>
       </c>
@@ -11111,7 +11122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>6</v>
       </c>
@@ -11137,7 +11148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>7</v>
       </c>
@@ -11163,7 +11174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>7</v>
       </c>
@@ -11189,7 +11200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>8</v>
       </c>
@@ -11215,7 +11226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>8</v>
       </c>
@@ -11241,7 +11252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>9</v>
       </c>
@@ -11267,7 +11278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>9</v>
       </c>
@@ -11293,7 +11304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>10</v>
       </c>
@@ -11319,7 +11330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>10</v>
       </c>
@@ -11345,7 +11356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>1</v>
       </c>
@@ -11371,7 +11382,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>1</v>
       </c>
@@ -11397,7 +11408,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>2</v>
       </c>
@@ -11423,7 +11434,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>2</v>
       </c>
@@ -11449,7 +11460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>3</v>
       </c>
@@ -11475,7 +11486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>3</v>
       </c>
@@ -11501,7 +11512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>4</v>
       </c>
@@ -11527,7 +11538,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>4</v>
       </c>
@@ -11553,7 +11564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>5</v>
       </c>
@@ -11579,7 +11590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>5</v>
       </c>
@@ -11605,7 +11616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>6</v>
       </c>
@@ -11631,7 +11642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>6</v>
       </c>
@@ -11657,7 +11668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>7</v>
       </c>
@@ -11683,7 +11694,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>7</v>
       </c>
@@ -11709,7 +11720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>8</v>
       </c>
@@ -11735,7 +11746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>8</v>
       </c>
@@ -11761,7 +11772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>9</v>
       </c>
@@ -11787,7 +11798,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>9</v>
       </c>
@@ -11813,7 +11824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>10</v>
       </c>
@@ -11839,7 +11850,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>10</v>
       </c>
@@ -11865,7 +11876,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>1</v>
       </c>
@@ -11891,7 +11902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>1</v>
       </c>
@@ -11917,7 +11928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>2</v>
       </c>
@@ -11943,7 +11954,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>2</v>
       </c>
@@ -11969,7 +11980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>3</v>
       </c>
@@ -11995,7 +12006,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>3</v>
       </c>
@@ -12021,7 +12032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>4</v>
       </c>
@@ -12047,7 +12058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>4</v>
       </c>
@@ -12073,7 +12084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>5</v>
       </c>
@@ -12099,7 +12110,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>5</v>
       </c>
@@ -12125,7 +12136,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>6</v>
       </c>
@@ -12151,7 +12162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>6</v>
       </c>
@@ -12177,7 +12188,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>7</v>
       </c>
@@ -12203,7 +12214,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>7</v>
       </c>
@@ -12229,7 +12240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>8</v>
       </c>
@@ -12255,7 +12266,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>8</v>
       </c>
@@ -12281,7 +12292,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>9</v>
       </c>
@@ -12307,7 +12318,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>9</v>
       </c>
@@ -12333,7 +12344,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>10</v>
       </c>
@@ -12359,7 +12370,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>10</v>
       </c>
@@ -12385,7 +12396,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>1</v>
       </c>
@@ -12411,7 +12422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>1</v>
       </c>
@@ -12437,7 +12448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>2</v>
       </c>
@@ -12463,7 +12474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>2</v>
       </c>
@@ -12489,7 +12500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>3</v>
       </c>
@@ -12515,7 +12526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>3</v>
       </c>
@@ -12541,7 +12552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>4</v>
       </c>
@@ -12567,7 +12578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>4</v>
       </c>
@@ -12593,7 +12604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>5</v>
       </c>
@@ -12619,7 +12630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>5</v>
       </c>
@@ -12645,7 +12656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>6</v>
       </c>
@@ -12671,7 +12682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>6</v>
       </c>
@@ -12697,7 +12708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>7</v>
       </c>
@@ -12723,7 +12734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>7</v>
       </c>
@@ -12749,7 +12760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>8</v>
       </c>
@@ -12775,7 +12786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>8</v>
       </c>
@@ -12801,7 +12812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>9</v>
       </c>
@@ -12827,7 +12838,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>9</v>
       </c>
@@ -12853,7 +12864,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>10</v>
       </c>
@@ -12879,7 +12890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>10</v>
       </c>
@@ -12905,7 +12916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>1</v>
       </c>
@@ -12931,7 +12942,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>1</v>
       </c>
@@ -12957,7 +12968,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>2</v>
       </c>
@@ -12983,7 +12994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>2</v>
       </c>
@@ -13009,7 +13020,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>3</v>
       </c>
@@ -13035,7 +13046,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>3</v>
       </c>
@@ -13061,7 +13072,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>4</v>
       </c>
@@ -13087,7 +13098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>4</v>
       </c>
@@ -13113,7 +13124,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>5</v>
       </c>
@@ -13139,7 +13150,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>5</v>
       </c>
@@ -13165,7 +13176,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>6</v>
       </c>
@@ -13191,7 +13202,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>6</v>
       </c>
@@ -13217,7 +13228,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>7</v>
       </c>
@@ -13243,7 +13254,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>7</v>
       </c>
@@ -13269,7 +13280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>8</v>
       </c>
@@ -13295,7 +13306,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>8</v>
       </c>
@@ -13321,7 +13332,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>9</v>
       </c>
@@ -13347,7 +13358,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>9</v>
       </c>
@@ -13373,7 +13384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>10</v>
       </c>
@@ -13399,7 +13410,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>10</v>
       </c>
@@ -13425,7 +13436,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>1</v>
       </c>
@@ -13451,7 +13462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>1</v>
       </c>
@@ -13477,7 +13488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>2</v>
       </c>
@@ -13503,7 +13514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>2</v>
       </c>
@@ -13529,7 +13540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>3</v>
       </c>
@@ -13555,7 +13566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>3</v>
       </c>
@@ -13581,7 +13592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>4</v>
       </c>
@@ -13607,7 +13618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>4</v>
       </c>
@@ -13633,7 +13644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>5</v>
       </c>
@@ -13659,7 +13670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>5</v>
       </c>
@@ -13685,7 +13696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>6</v>
       </c>
@@ -13711,7 +13722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>6</v>
       </c>
@@ -13737,7 +13748,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>7</v>
       </c>
@@ -13763,7 +13774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>7</v>
       </c>
@@ -13789,7 +13800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>8</v>
       </c>
@@ -13815,7 +13826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>8</v>
       </c>
@@ -13841,7 +13852,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>9</v>
       </c>
@@ -13867,7 +13878,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>9</v>
       </c>
@@ -13893,7 +13904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>10</v>
       </c>
@@ -13919,7 +13930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>10</v>
       </c>
@@ -13945,7 +13956,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>1</v>
       </c>
@@ -13971,7 +13982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>1</v>
       </c>
@@ -13997,7 +14008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>2</v>
       </c>
@@ -14023,7 +14034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>2</v>
       </c>
@@ -14049,7 +14060,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>3</v>
       </c>
@@ -14075,7 +14086,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>3</v>
       </c>
@@ -14101,7 +14112,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>4</v>
       </c>
@@ -14127,7 +14138,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>4</v>
       </c>
@@ -14153,7 +14164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>5</v>
       </c>
@@ -14179,7 +14190,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>5</v>
       </c>
@@ -14205,7 +14216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>6</v>
       </c>
@@ -14231,7 +14242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>6</v>
       </c>
@@ -14257,7 +14268,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>7</v>
       </c>
@@ -14283,7 +14294,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>7</v>
       </c>
@@ -14309,7 +14320,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>8</v>
       </c>
@@ -14335,7 +14346,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>8</v>
       </c>
@@ -14361,7 +14372,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>9</v>
       </c>
@@ -14387,7 +14398,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>9</v>
       </c>
@@ -14413,7 +14424,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>10</v>
       </c>
@@ -14439,7 +14450,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>10</v>
       </c>
@@ -14465,7 +14476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>1</v>
       </c>
@@ -14491,7 +14502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>1</v>
       </c>
@@ -14517,7 +14528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>2</v>
       </c>
@@ -14543,7 +14554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>2</v>
       </c>
@@ -14569,7 +14580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>3</v>
       </c>
@@ -14595,7 +14606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>3</v>
       </c>
@@ -14621,7 +14632,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>4</v>
       </c>
@@ -14647,7 +14658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>4</v>
       </c>
@@ -14673,7 +14684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>5</v>
       </c>
@@ -14699,7 +14710,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>5</v>
       </c>
@@ -14725,7 +14736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>6</v>
       </c>
@@ -14751,7 +14762,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>6</v>
       </c>
@@ -14777,7 +14788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>7</v>
       </c>
@@ -14803,7 +14814,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>7</v>
       </c>
@@ -14829,7 +14840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>8</v>
       </c>
@@ -14855,7 +14866,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>8</v>
       </c>
@@ -14881,7 +14892,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>9</v>
       </c>
@@ -14907,7 +14918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>9</v>
       </c>
@@ -14933,7 +14944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>10</v>
       </c>
@@ -14959,7 +14970,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>10</v>
       </c>
@@ -14985,7 +14996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>1</v>
       </c>
@@ -15011,7 +15022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>1</v>
       </c>
@@ -15037,7 +15048,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>2</v>
       </c>
@@ -15063,7 +15074,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>2</v>
       </c>
@@ -15089,7 +15100,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>3</v>
       </c>
@@ -15115,7 +15126,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>3</v>
       </c>
@@ -15141,7 +15152,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>4</v>
       </c>
@@ -15167,7 +15178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>4</v>
       </c>
@@ -15193,7 +15204,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>5</v>
       </c>
@@ -15219,7 +15230,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>5</v>
       </c>
@@ -15245,7 +15256,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>6</v>
       </c>
@@ -15271,7 +15282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>6</v>
       </c>
@@ -15297,7 +15308,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>7</v>
       </c>
@@ -15323,7 +15334,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>7</v>
       </c>
@@ -15349,7 +15360,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>8</v>
       </c>
@@ -15375,7 +15386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>8</v>
       </c>
@@ -15401,7 +15412,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>9</v>
       </c>
@@ -15427,7 +15438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>9</v>
       </c>
@@ -15453,7 +15464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>10</v>
       </c>
@@ -15479,7 +15490,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>10</v>
       </c>
@@ -15505,7 +15516,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>1</v>
       </c>
@@ -15531,7 +15542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>1</v>
       </c>
@@ -15557,7 +15568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>2</v>
       </c>
@@ -15583,7 +15594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>2</v>
       </c>
@@ -15609,7 +15620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>3</v>
       </c>
@@ -15635,7 +15646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>3</v>
       </c>
@@ -15661,7 +15672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>4</v>
       </c>
@@ -15687,7 +15698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>4</v>
       </c>
@@ -15713,7 +15724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>5</v>
       </c>
@@ -15739,7 +15750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>5</v>
       </c>
@@ -15765,7 +15776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>6</v>
       </c>
@@ -15791,7 +15802,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>6</v>
       </c>
@@ -15817,7 +15828,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>7</v>
       </c>
@@ -15843,7 +15854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>7</v>
       </c>
@@ -15869,7 +15880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>8</v>
       </c>
@@ -15895,7 +15906,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>8</v>
       </c>
@@ -15921,7 +15932,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>9</v>
       </c>
@@ -15947,7 +15958,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>9</v>
       </c>
@@ -15973,7 +15984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>10</v>
       </c>
@@ -15999,7 +16010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>10</v>
       </c>
@@ -16026,7 +16037,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H601" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H601" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="32"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G601">
     <sortCondition ref="D1:D601"/>
   </sortState>
@@ -16036,10 +16053,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9772EB32-8C72-6B4E-B539-09D5516AF006}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16047,7 +16064,7 @@
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16057,8 +16074,11 @@
       <c r="C1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -16068,8 +16088,11 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -16079,8 +16102,11 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -16090,8 +16116,11 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -16101,8 +16130,11 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -16112,8 +16144,11 @@
       <c r="C6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -16123,8 +16158,11 @@
       <c r="C7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -16134,8 +16172,11 @@
       <c r="C8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -16145,8 +16186,11 @@
       <c r="C9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -16156,8 +16200,11 @@
       <c r="C10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -16167,8 +16214,11 @@
       <c r="C11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -16178,8 +16228,11 @@
       <c r="C12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -16189,8 +16242,11 @@
       <c r="C13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -16200,8 +16256,11 @@
       <c r="C14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -16211,8 +16270,11 @@
       <c r="C15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -16222,8 +16284,11 @@
       <c r="C16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -16233,8 +16298,11 @@
       <c r="C17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -16244,8 +16312,11 @@
       <c r="C18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -16255,8 +16326,11 @@
       <c r="C19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -16266,8 +16340,11 @@
       <c r="C20" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -16277,8 +16354,11 @@
       <c r="C21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -16288,8 +16368,11 @@
       <c r="C22" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -16299,8 +16382,11 @@
       <c r="C23" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -16310,8 +16396,11 @@
       <c r="C24" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -16321,8 +16410,11 @@
       <c r="C25" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -16332,8 +16424,11 @@
       <c r="C26" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -16343,8 +16438,11 @@
       <c r="C27" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -16354,8 +16452,11 @@
       <c r="C28" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -16365,8 +16466,11 @@
       <c r="C29" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -16376,8 +16480,11 @@
       <c r="C30" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -16387,8 +16494,12 @@
       <c r="C31" t="s">
         <v>7</v>
       </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{9772EB32-8C72-6B4E-B539-09D5516AF006}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>